--- a/rtw_excel_report/report_purchase_order_sheet/purchase_order_sheet.xlsx
+++ b/rtw_excel_report/report_purchase_order_sheet/purchase_order_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_purchase_order_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA51C10-62DF-4799-8173-EF1E7D85208B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029CFE9F-D943-454B-A6BA-1468F0D774E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{525678E9-735B-4186-93A2-F2263A6AD281}"/>
+    <workbookView xWindow="4110" yWindow="645" windowWidth="17535" windowHeight="13710" xr2:uid="{525678E9-735B-4186-93A2-F2263A6AD281}"/>
   </bookViews>
   <sheets>
     <sheet name="発注書" sheetId="1" r:id="rId1"/>
@@ -285,27 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -323,10 +302,31 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,8 +728,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,13 +768,13 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="24"/>
-      <c r="C3" s="35"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="11"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -784,9 +784,9 @@
       <c r="C4" s="12"/>
       <c r="D4" s="11"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="9" t="s">
         <v>1</v>
       </c>
@@ -794,12 +794,12 @@
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="37"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="13" t="s">
         <v>2</v>
       </c>
@@ -812,9 +812,9 @@
       <c r="C6" s="12"/>
       <c r="D6" s="11"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="13" t="s">
         <v>3</v>
       </c>
@@ -827,9 +827,9 @@
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="13" t="s">
         <v>5</v>
       </c>
@@ -840,9 +840,9 @@
       <c r="C8" s="12"/>
       <c r="D8" s="14"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="13" t="s">
         <v>7</v>
       </c>
@@ -857,21 +857,21 @@
       <c r="E9" s="3"/>
       <c r="F9" s="13"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="36"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
-      <c r="B10" s="36"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="12"/>
       <c r="D10" s="11"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="36"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
@@ -880,13 +880,13 @@
       <c r="B11" s="3"/>
       <c r="C11" s="18"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="36"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -894,10 +894,10 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="38"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
     </row>
@@ -907,10 +907,10 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="38"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
     </row>
@@ -918,38 +918,38 @@
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="42"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
@@ -963,42 +963,42 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28" t="s">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -1007,7 +1007,7 @@
       <c r="B20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -1025,7 +1025,7 @@
       <c r="B21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="21" t="s">
@@ -1043,7 +1043,7 @@
       <c r="B22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="21" t="s">
@@ -1061,7 +1061,7 @@
       <c r="B23" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="21" t="s">
@@ -1079,7 +1079,7 @@
       <c r="B24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -1097,7 +1097,7 @@
       <c r="B25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="21" t="s">
@@ -1115,7 +1115,7 @@
       <c r="B26" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="21" t="s">
@@ -1133,7 +1133,7 @@
       <c r="B27" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -1151,7 +1151,7 @@
       <c r="B28" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -1169,7 +1169,7 @@
       <c r="B29" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -1187,7 +1187,7 @@
       <c r="B30" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="21" t="s">
@@ -1205,7 +1205,7 @@
       <c r="B31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="21" t="s">
@@ -1223,7 +1223,7 @@
       <c r="B32" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="21" t="s">
@@ -1241,7 +1241,7 @@
       <c r="B33" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="21" t="s">
@@ -1259,7 +1259,7 @@
       <c r="B34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -1277,7 +1277,7 @@
       <c r="B35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="21" t="s">
@@ -1295,7 +1295,7 @@
       <c r="B36" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -1313,7 +1313,7 @@
       <c r="B37" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="21" t="s">
@@ -1331,7 +1331,7 @@
       <c r="B38" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="21" t="s">
@@ -1349,7 +1349,7 @@
       <c r="B39" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="20" t="s">
@@ -1367,7 +1367,7 @@
       <c r="B40" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="20" t="s">
@@ -1385,7 +1385,7 @@
       <c r="B41" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="21" t="s">
@@ -1403,7 +1403,7 @@
       <c r="B42" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="21" t="s">
@@ -1421,7 +1421,7 @@
       <c r="B43" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="21" t="s">
@@ -1439,7 +1439,7 @@
       <c r="B44" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="21" t="s">
@@ -1457,7 +1457,7 @@
       <c r="B45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="21" t="s">
@@ -1475,7 +1475,7 @@
       <c r="B46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="21" t="s">
@@ -1491,7 +1491,7 @@
       <c r="B47" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="21" t="s">
@@ -1509,7 +1509,7 @@
       <c r="B48" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="21" t="s">
@@ -1527,7 +1527,7 @@
       <c r="B49" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="21" t="s">
@@ -1545,7 +1545,7 @@
       <c r="B50" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="20" t="s">
@@ -1563,7 +1563,7 @@
       <c r="B51" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -1581,7 +1581,7 @@
       <c r="B52" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="21" t="s">
@@ -1599,7 +1599,7 @@
       <c r="B53" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="21" t="s">
@@ -1617,7 +1617,7 @@
       <c r="B54" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="21" t="s">
@@ -1635,7 +1635,7 @@
       <c r="B55" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="21" t="s">
@@ -1653,7 +1653,7 @@
       <c r="B56" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="21" t="s">
@@ -1671,7 +1671,7 @@
       <c r="B57" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="21" t="s">
@@ -1689,7 +1689,7 @@
       <c r="B58" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="21" t="s">
@@ -1707,7 +1707,7 @@
       <c r="B59" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="21" t="s">
@@ -1725,7 +1725,7 @@
       <c r="B60" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="21" t="s">
@@ -1743,7 +1743,7 @@
       <c r="B61" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="20" t="s">
@@ -1761,7 +1761,7 @@
       <c r="B62" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="20" t="s">
@@ -1779,7 +1779,7 @@
       <c r="B63" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="21" t="s">
@@ -1797,7 +1797,7 @@
       <c r="B64" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="21" t="s">
@@ -1815,7 +1815,7 @@
       <c r="B65" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="21" t="s">
@@ -1833,7 +1833,7 @@
       <c r="B66" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="21" t="s">
@@ -1851,7 +1851,7 @@
       <c r="B67" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="21" t="s">
@@ -1869,7 +1869,7 @@
       <c r="B68" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="21" t="s">
@@ -1887,7 +1887,7 @@
       <c r="B69" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="21" t="s">
@@ -1905,7 +1905,7 @@
       <c r="B70" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="21" t="s">
@@ -1923,7 +1923,7 @@
       <c r="B71" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="21" t="s">
@@ -1941,7 +1941,7 @@
       <c r="B72" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="20" t="s">
@@ -1959,7 +1959,7 @@
       <c r="B73" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="20" t="s">
@@ -1977,7 +1977,7 @@
       <c r="B74" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="21" t="s">
@@ -1995,7 +1995,7 @@
       <c r="B75" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="21" t="s">
@@ -2013,7 +2013,7 @@
       <c r="B76" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="21" t="s">
@@ -2031,7 +2031,7 @@
       <c r="B77" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="21" t="s">
@@ -2047,7 +2047,7 @@
       <c r="B78" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="21" t="s">
@@ -2065,7 +2065,7 @@
       <c r="B79" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="21" t="s">
@@ -2083,7 +2083,7 @@
       <c r="B80" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="21" t="s">
@@ -2101,7 +2101,7 @@
       <c r="B81" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="21" t="s">
@@ -2119,7 +2119,7 @@
       <c r="B82" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="21" t="s">
@@ -2137,7 +2137,7 @@
       <c r="B83" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="20" t="s">
@@ -2155,7 +2155,7 @@
       <c r="B84" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="20" t="s">
@@ -2173,7 +2173,7 @@
       <c r="B85" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="21" t="s">
@@ -2191,7 +2191,7 @@
       <c r="B86" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="21" t="s">
@@ -2209,7 +2209,7 @@
       <c r="B87" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="21" t="s">
@@ -2227,7 +2227,7 @@
       <c r="B88" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="21" t="s">
@@ -2245,7 +2245,7 @@
       <c r="B89" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="21" t="s">
@@ -2263,7 +2263,7 @@
       <c r="B90" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="21" t="s">
@@ -2281,7 +2281,7 @@
       <c r="B91" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="21" t="s">
@@ -2299,7 +2299,7 @@
       <c r="B92" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="21" t="s">
@@ -2317,7 +2317,7 @@
       <c r="B93" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="21" t="s">
@@ -2335,7 +2335,7 @@
       <c r="B94" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="20" t="s">
@@ -2353,7 +2353,7 @@
       <c r="B95" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="20" t="s">
@@ -2371,7 +2371,7 @@
       <c r="B96" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="21" t="s">
@@ -2389,7 +2389,7 @@
       <c r="B97" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="21" t="s">
@@ -2407,7 +2407,7 @@
       <c r="B98" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="21" t="s">
@@ -2425,7 +2425,7 @@
       <c r="B99" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="21" t="s">
@@ -2443,7 +2443,7 @@
       <c r="B100" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="21" t="s">
@@ -2461,7 +2461,7 @@
       <c r="B101" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D101" s="21" t="s">
@@ -2479,7 +2479,7 @@
       <c r="B102" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="21" t="s">
@@ -2497,7 +2497,7 @@
       <c r="B103" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D103" s="21" t="s">
@@ -2515,7 +2515,7 @@
       <c r="B104" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="21" t="s">
@@ -2533,7 +2533,7 @@
       <c r="B105" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="20" t="s">
@@ -2551,7 +2551,7 @@
       <c r="B106" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="20" t="s">
@@ -2569,7 +2569,7 @@
       <c r="B107" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="21" t="s">
@@ -2587,7 +2587,7 @@
       <c r="B108" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="21" t="s">
@@ -2603,7 +2603,7 @@
       <c r="B109" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="21" t="s">
@@ -2621,7 +2621,7 @@
       <c r="B110" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="21" t="s">
@@ -2639,7 +2639,7 @@
       <c r="B111" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="21" t="s">
@@ -2657,7 +2657,7 @@
       <c r="B112" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D112" s="21" t="s">
@@ -2675,7 +2675,7 @@
       <c r="B113" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D113" s="21" t="s">
@@ -2693,7 +2693,7 @@
       <c r="B114" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="21" t="s">
@@ -2711,7 +2711,7 @@
       <c r="B115" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -2729,7 +2729,7 @@
       <c r="B116" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D116" s="20" t="s">
@@ -2747,7 +2747,7 @@
       <c r="B117" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D117" s="20" t="s">
@@ -2765,7 +2765,7 @@
       <c r="B118" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D118" s="21" t="s">
@@ -2783,7 +2783,7 @@
       <c r="B119" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="21" t="s">
@@ -2801,7 +2801,7 @@
       <c r="B120" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D120" s="21" t="s">
@@ -2819,7 +2819,7 @@
       <c r="B121" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="21" t="s">
@@ -2837,7 +2837,7 @@
       <c r="B122" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -2855,7 +2855,7 @@
       <c r="B123" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="21" t="s">
@@ -2873,7 +2873,7 @@
       <c r="B124" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D124" s="21" t="s">
@@ -2891,7 +2891,7 @@
       <c r="B125" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="21" t="s">
@@ -2909,7 +2909,7 @@
       <c r="B126" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D126" s="21" t="s">
@@ -2927,7 +2927,7 @@
       <c r="B127" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D127" s="20" t="s">
@@ -2945,7 +2945,7 @@
       <c r="B128" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D128" s="20" t="s">
@@ -2963,7 +2963,7 @@
       <c r="B129" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D129" s="21" t="s">
@@ -2981,7 +2981,7 @@
       <c r="B130" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D130" s="21" t="s">
@@ -2999,7 +2999,7 @@
       <c r="B131" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D131" s="21" t="s">
@@ -3017,7 +3017,7 @@
       <c r="B132" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D132" s="21" t="s">
@@ -3035,7 +3035,7 @@
       <c r="B133" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="21" t="s">
@@ -3053,7 +3053,7 @@
       <c r="B134" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D134" s="21" t="s">
@@ -3071,7 +3071,7 @@
       <c r="B135" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D135" s="21" t="s">
@@ -3089,7 +3089,7 @@
       <c r="B136" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D136" s="21" t="s">
@@ -3107,7 +3107,7 @@
       <c r="B137" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C137" s="21" t="s">
+      <c r="C137" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D137" s="21" t="s">
@@ -3125,7 +3125,7 @@
       <c r="B138" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D138" s="20" t="s">
@@ -3143,7 +3143,7 @@
       <c r="B139" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D139" s="20" t="s">
@@ -3159,7 +3159,7 @@
       <c r="B140" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D140" s="21" t="s">
@@ -3177,7 +3177,7 @@
       <c r="B141" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D141" s="21" t="s">
@@ -3195,7 +3195,7 @@
       <c r="B142" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D142" s="21" t="s">
@@ -3213,7 +3213,7 @@
       <c r="B143" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="21" t="s">
+      <c r="C143" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="21" t="s">
@@ -3231,7 +3231,7 @@
       <c r="B144" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C144" s="21" t="s">
+      <c r="C144" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D144" s="21" t="s">
@@ -3249,7 +3249,7 @@
       <c r="B145" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="21" t="s">
@@ -3267,7 +3267,7 @@
       <c r="B146" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="21" t="s">
+      <c r="C146" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D146" s="21" t="s">
@@ -3285,7 +3285,7 @@
       <c r="B147" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D147" s="21" t="s">
@@ -3303,7 +3303,7 @@
       <c r="B148" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D148" s="21" t="s">
@@ -3321,7 +3321,7 @@
       <c r="B149" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D149" s="20" t="s">
@@ -3339,7 +3339,7 @@
       <c r="B150" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D150" s="20" t="s">
@@ -3357,7 +3357,7 @@
       <c r="B151" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D151" s="21" t="s">
@@ -3375,7 +3375,7 @@
       <c r="B152" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C152" s="21" t="s">
+      <c r="C152" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D152" s="21" t="s">
@@ -3393,7 +3393,7 @@
       <c r="B153" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C153" s="21" t="s">
+      <c r="C153" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D153" s="21" t="s">
@@ -3411,7 +3411,7 @@
       <c r="B154" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D154" s="21" t="s">
@@ -3429,7 +3429,7 @@
       <c r="B155" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D155" s="21" t="s">
@@ -3447,7 +3447,7 @@
       <c r="B156" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C156" s="21" t="s">
+      <c r="C156" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D156" s="21" t="s">
@@ -3465,7 +3465,7 @@
       <c r="B157" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C157" s="21" t="s">
+      <c r="C157" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="21" t="s">
@@ -3483,7 +3483,7 @@
       <c r="B158" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C158" s="21" t="s">
+      <c r="C158" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D158" s="21" t="s">
@@ -3501,7 +3501,7 @@
       <c r="B159" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D159" s="21" t="s">
@@ -3519,7 +3519,7 @@
       <c r="B160" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D160" s="20" t="s">
@@ -3537,7 +3537,7 @@
       <c r="B161" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C161" s="20" t="s">
+      <c r="C161" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D161" s="20" t="s">
@@ -3555,7 +3555,7 @@
       <c r="B162" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C162" s="21" t="s">
+      <c r="C162" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D162" s="21" t="s">
@@ -3573,7 +3573,7 @@
       <c r="B163" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C163" s="21" t="s">
+      <c r="C163" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D163" s="21" t="s">
@@ -3591,7 +3591,7 @@
       <c r="B164" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C164" s="21" t="s">
+      <c r="C164" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D164" s="21" t="s">
@@ -3609,7 +3609,7 @@
       <c r="B165" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D165" s="21" t="s">
@@ -3627,7 +3627,7 @@
       <c r="B166" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C166" s="21" t="s">
+      <c r="C166" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D166" s="21" t="s">
@@ -3645,7 +3645,7 @@
       <c r="B167" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C167" s="21" t="s">
+      <c r="C167" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D167" s="21" t="s">
@@ -3663,7 +3663,7 @@
       <c r="B168" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D168" s="21" t="s">
@@ -3681,7 +3681,7 @@
       <c r="B169" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C169" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D169" s="21" t="s">
@@ -3699,7 +3699,7 @@
       <c r="B170" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D170" s="21" t="s">
@@ -3715,7 +3715,7 @@
       <c r="B171" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D171" s="20" t="s">
@@ -3733,7 +3733,7 @@
       <c r="B172" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D172" s="20" t="s">
@@ -3751,7 +3751,7 @@
       <c r="B173" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="C173" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D173" s="21" t="s">
@@ -3769,7 +3769,7 @@
       <c r="B174" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C174" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D174" s="21" t="s">
@@ -3787,7 +3787,7 @@
       <c r="B175" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D175" s="21" t="s">
@@ -3805,7 +3805,7 @@
       <c r="B176" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C176" s="21" t="s">
+      <c r="C176" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D176" s="21" t="s">
@@ -3823,7 +3823,7 @@
       <c r="B177" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="21" t="s">
+      <c r="C177" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D177" s="21" t="s">
@@ -3841,7 +3841,7 @@
       <c r="B178" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C178" s="21" t="s">
+      <c r="C178" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D178" s="21" t="s">
@@ -3859,7 +3859,7 @@
       <c r="B179" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C179" s="21" t="s">
+      <c r="C179" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D179" s="21" t="s">
@@ -3877,7 +3877,7 @@
       <c r="B180" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="21" t="s">
+      <c r="C180" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D180" s="21" t="s">
@@ -3895,7 +3895,7 @@
       <c r="B181" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C181" s="21" t="s">
+      <c r="C181" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D181" s="21" t="s">
@@ -3913,7 +3913,7 @@
       <c r="B182" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C182" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D182" s="20" t="s">
@@ -3931,7 +3931,7 @@
       <c r="B183" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C183" s="20" t="s">
+      <c r="C183" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D183" s="20" t="s">
@@ -3949,7 +3949,7 @@
       <c r="B184" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C184" s="21" t="s">
+      <c r="C184" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D184" s="21" t="s">
@@ -3967,7 +3967,7 @@
       <c r="B185" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="21" t="s">
+      <c r="C185" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D185" s="21" t="s">
@@ -3985,7 +3985,7 @@
       <c r="B186" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C186" s="21" t="s">
+      <c r="C186" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D186" s="21" t="s">
@@ -4003,7 +4003,7 @@
       <c r="B187" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C187" s="21" t="s">
+      <c r="C187" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D187" s="21" t="s">
@@ -4021,7 +4021,7 @@
       <c r="B188" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C188" s="21" t="s">
+      <c r="C188" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D188" s="21" t="s">
@@ -4039,7 +4039,7 @@
       <c r="B189" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C189" s="21" t="s">
+      <c r="C189" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D189" s="21" t="s">
@@ -4057,7 +4057,7 @@
       <c r="B190" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C190" s="21" t="s">
+      <c r="C190" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D190" s="21" t="s">
@@ -4075,7 +4075,7 @@
       <c r="B191" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C191" s="21" t="s">
+      <c r="C191" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D191" s="21" t="s">
@@ -4093,7 +4093,7 @@
       <c r="B192" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C192" s="21" t="s">
+      <c r="C192" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D192" s="21" t="s">
@@ -4111,7 +4111,7 @@
       <c r="B193" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C193" s="20" t="s">
+      <c r="C193" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D193" s="20" t="s">
@@ -4129,7 +4129,7 @@
       <c r="B194" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C194" s="20" t="s">
+      <c r="C194" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D194" s="20" t="s">
@@ -4147,7 +4147,7 @@
       <c r="B195" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C195" s="21" t="s">
+      <c r="C195" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D195" s="21" t="s">
@@ -4165,7 +4165,7 @@
       <c r="B196" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C196" s="21" t="s">
+      <c r="C196" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D196" s="21" t="s">
@@ -4183,7 +4183,7 @@
       <c r="B197" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C197" s="21" t="s">
+      <c r="C197" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D197" s="21" t="s">
@@ -4201,7 +4201,7 @@
       <c r="B198" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C198" s="21" t="s">
+      <c r="C198" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D198" s="21" t="s">
@@ -4219,7 +4219,7 @@
       <c r="B199" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C199" s="21" t="s">
+      <c r="C199" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D199" s="21" t="s">
@@ -4237,7 +4237,7 @@
       <c r="B200" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C200" s="21" t="s">
+      <c r="C200" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D200" s="21" t="s">
@@ -4255,7 +4255,7 @@
       <c r="B201" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C201" s="21" t="s">
+      <c r="C201" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D201" s="21" t="s">
@@ -4273,7 +4273,7 @@
       <c r="B202" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C202" s="21" t="s">
+      <c r="C202" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D202" s="21" t="s">
@@ -4291,7 +4291,7 @@
       <c r="B203" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C203" s="21" t="s">
+      <c r="C203" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D203" s="21" t="s">
@@ -4309,7 +4309,7 @@
       <c r="B204" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C204" s="20" t="s">
+      <c r="C204" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D204" s="20" t="s">
@@ -4327,7 +4327,7 @@
       <c r="B205" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C205" s="20" t="s">
+      <c r="C205" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D205" s="20" t="s">
@@ -4345,7 +4345,7 @@
       <c r="B206" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="21" t="s">
+      <c r="C206" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D206" s="21" t="s">
@@ -4363,7 +4363,7 @@
       <c r="B207" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C207" s="21" t="s">
+      <c r="C207" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D207" s="21" t="s">
@@ -4381,7 +4381,7 @@
       <c r="B208" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C208" s="21" t="s">
+      <c r="C208" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D208" s="21" t="s">
@@ -4399,7 +4399,7 @@
       <c r="B209" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C209" s="21" t="s">
+      <c r="C209" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D209" s="21" t="s">
@@ -4417,7 +4417,7 @@
       <c r="B210" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C210" s="21" t="s">
+      <c r="C210" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D210" s="21" t="s">
@@ -4435,7 +4435,7 @@
       <c r="B211" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="21" t="s">
+      <c r="C211" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D211" s="21" t="s">
@@ -4453,7 +4453,7 @@
       <c r="B212" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="21" t="s">
+      <c r="C212" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D212" s="21" t="s">
@@ -4471,7 +4471,7 @@
       <c r="B213" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C213" s="21" t="s">
+      <c r="C213" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D213" s="21" t="s">
@@ -4489,7 +4489,7 @@
       <c r="B214" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C214" s="21" t="s">
+      <c r="C214" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D214" s="21" t="s">
@@ -4507,7 +4507,7 @@
       <c r="B215" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C215" s="20" t="s">
+      <c r="C215" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D215" s="20" t="s">
@@ -4525,7 +4525,7 @@
       <c r="B216" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C216" s="20" t="s">
+      <c r="C216" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D216" s="20" t="s">
@@ -4543,7 +4543,7 @@
       <c r="B217" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C217" s="21" t="s">
+      <c r="C217" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D217" s="21" t="s">
@@ -4561,7 +4561,7 @@
       <c r="B218" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C218" s="21" t="s">
+      <c r="C218" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D218" s="21" t="s">
@@ -4579,7 +4579,7 @@
       <c r="B219" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C219" s="21" t="s">
+      <c r="C219" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D219" s="21" t="s">
@@ -4597,7 +4597,7 @@
       <c r="B220" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C220" s="21" t="s">
+      <c r="C220" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D220" s="21" t="s">
@@ -4615,7 +4615,7 @@
       <c r="B221" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C221" s="21" t="s">
+      <c r="C221" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D221" s="21" t="s">
@@ -4633,7 +4633,7 @@
       <c r="B222" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C222" s="21" t="s">
+      <c r="C222" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D222" s="21" t="s">
@@ -4651,7 +4651,7 @@
       <c r="B223" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C223" s="21" t="s">
+      <c r="C223" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D223" s="21" t="s">
@@ -4669,7 +4669,7 @@
       <c r="B224" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C224" s="21" t="s">
+      <c r="C224" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D224" s="21" t="s">
@@ -4687,7 +4687,7 @@
       <c r="B225" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C225" s="21" t="s">
+      <c r="C225" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D225" s="21" t="s">
@@ -4705,7 +4705,7 @@
       <c r="B226" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C226" s="20" t="s">
+      <c r="C226" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D226" s="20" t="s">
@@ -4723,7 +4723,7 @@
       <c r="B227" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C227" s="20" t="s">
+      <c r="C227" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D227" s="20" t="s">
@@ -4741,7 +4741,7 @@
       <c r="B228" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C228" s="21" t="s">
+      <c r="C228" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D228" s="21" t="s">
@@ -4759,7 +4759,7 @@
       <c r="B229" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C229" s="21" t="s">
+      <c r="C229" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D229" s="21" t="s">
@@ -4777,7 +4777,7 @@
       <c r="B230" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C230" s="21" t="s">
+      <c r="C230" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D230" s="21" t="s">
@@ -4793,7 +4793,7 @@
       <c r="B231" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C231" s="21" t="s">
+      <c r="C231" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D231" s="21" t="s">
@@ -4811,7 +4811,7 @@
       <c r="B232" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C232" s="21" t="s">
+      <c r="C232" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D232" s="21" t="s">
@@ -4829,7 +4829,7 @@
       <c r="B233" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C233" s="21" t="s">
+      <c r="C233" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D233" s="21" t="s">
@@ -4847,7 +4847,7 @@
       <c r="B234" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C234" s="21" t="s">
+      <c r="C234" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D234" s="21" t="s">
@@ -4865,7 +4865,7 @@
       <c r="B235" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C235" s="21" t="s">
+      <c r="C235" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D235" s="21" t="s">
@@ -4883,7 +4883,7 @@
       <c r="B236" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C236" s="21" t="s">
+      <c r="C236" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D236" s="21" t="s">
@@ -4901,7 +4901,7 @@
       <c r="B237" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C237" s="20" t="s">
+      <c r="C237" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D237" s="20" t="s">
@@ -4919,7 +4919,7 @@
       <c r="B238" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C238" s="20" t="s">
+      <c r="C238" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D238" s="20" t="s">
@@ -4937,7 +4937,7 @@
       <c r="B239" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C239" s="21" t="s">
+      <c r="C239" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D239" s="21" t="s">
@@ -4955,7 +4955,7 @@
       <c r="B240" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C240" s="21" t="s">
+      <c r="C240" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D240" s="21" t="s">
@@ -4973,7 +4973,7 @@
       <c r="B241" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C241" s="21" t="s">
+      <c r="C241" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D241" s="21" t="s">
@@ -4991,7 +4991,7 @@
       <c r="B242" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C242" s="21" t="s">
+      <c r="C242" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D242" s="21" t="s">
@@ -5009,7 +5009,7 @@
       <c r="B243" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C243" s="21" t="s">
+      <c r="C243" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D243" s="21" t="s">
@@ -5027,7 +5027,7 @@
       <c r="B244" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C244" s="21" t="s">
+      <c r="C244" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D244" s="21" t="s">
@@ -5045,7 +5045,7 @@
       <c r="B245" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C245" s="21" t="s">
+      <c r="C245" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D245" s="21" t="s">
@@ -5063,7 +5063,7 @@
       <c r="B246" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C246" s="21" t="s">
+      <c r="C246" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D246" s="21" t="s">
@@ -5081,7 +5081,7 @@
       <c r="B247" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C247" s="21" t="s">
+      <c r="C247" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D247" s="21" t="s">
@@ -5099,7 +5099,7 @@
       <c r="B248" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C248" s="20" t="s">
+      <c r="C248" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D248" s="20" t="s">
@@ -5117,7 +5117,7 @@
       <c r="B249" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C249" s="20" t="s">
+      <c r="C249" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D249" s="20" t="s">
@@ -5135,7 +5135,7 @@
       <c r="B250" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C250" s="21" t="s">
+      <c r="C250" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D250" s="21" t="s">
@@ -5153,7 +5153,7 @@
       <c r="B251" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C251" s="21" t="s">
+      <c r="C251" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D251" s="21" t="s">
@@ -5171,7 +5171,7 @@
       <c r="B252" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C252" s="21" t="s">
+      <c r="C252" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D252" s="21" t="s">
@@ -5189,7 +5189,7 @@
       <c r="B253" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C253" s="21" t="s">
+      <c r="C253" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D253" s="21" t="s">
@@ -5207,7 +5207,7 @@
       <c r="B254" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C254" s="21" t="s">
+      <c r="C254" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D254" s="21" t="s">
@@ -5225,7 +5225,7 @@
       <c r="B255" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C255" s="21" t="s">
+      <c r="C255" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D255" s="21" t="s">
@@ -5243,7 +5243,7 @@
       <c r="B256" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C256" s="21" t="s">
+      <c r="C256" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D256" s="21" t="s">
@@ -5261,7 +5261,7 @@
       <c r="B257" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C257" s="21" t="s">
+      <c r="C257" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D257" s="21" t="s">
@@ -5279,7 +5279,7 @@
       <c r="B258" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C258" s="21" t="s">
+      <c r="C258" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D258" s="21" t="s">
@@ -5297,7 +5297,7 @@
       <c r="B259" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C259" s="20" t="s">
+      <c r="C259" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D259" s="20" t="s">
@@ -5315,7 +5315,7 @@
       <c r="B260" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C260" s="20" t="s">
+      <c r="C260" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D260" s="20" t="s">
@@ -5333,7 +5333,7 @@
       <c r="B261" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C261" s="21" t="s">
+      <c r="C261" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D261" s="21" t="s">
@@ -5349,7 +5349,7 @@
       <c r="B262" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C262" s="21" t="s">
+      <c r="C262" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D262" s="21" t="s">
@@ -5367,7 +5367,7 @@
       <c r="B263" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C263" s="21" t="s">
+      <c r="C263" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D263" s="21" t="s">
@@ -5385,7 +5385,7 @@
       <c r="B264" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C264" s="21" t="s">
+      <c r="C264" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D264" s="21" t="s">
@@ -5403,7 +5403,7 @@
       <c r="B265" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C265" s="21" t="s">
+      <c r="C265" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D265" s="21" t="s">
@@ -5421,7 +5421,7 @@
       <c r="B266" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C266" s="21" t="s">
+      <c r="C266" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D266" s="21" t="s">
@@ -5439,7 +5439,7 @@
       <c r="B267" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C267" s="21" t="s">
+      <c r="C267" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D267" s="21" t="s">
@@ -5457,7 +5457,7 @@
       <c r="B268" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C268" s="21" t="s">
+      <c r="C268" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D268" s="21" t="s">
@@ -5475,7 +5475,7 @@
       <c r="B269" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C269" s="21" t="s">
+      <c r="C269" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D269" s="21" t="s">
@@ -5493,7 +5493,7 @@
       <c r="B270" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C270" s="20" t="s">
+      <c r="C270" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D270" s="20" t="s">
@@ -5511,7 +5511,7 @@
       <c r="B271" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C271" s="20" t="s">
+      <c r="C271" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D271" s="20" t="s">
@@ -5529,7 +5529,7 @@
       <c r="B272" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C272" s="21" t="s">
+      <c r="C272" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D272" s="21" t="s">
@@ -5547,7 +5547,7 @@
       <c r="B273" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C273" s="21" t="s">
+      <c r="C273" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D273" s="21" t="s">
@@ -5565,7 +5565,7 @@
       <c r="B274" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C274" s="21" t="s">
+      <c r="C274" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D274" s="21" t="s">
@@ -5583,7 +5583,7 @@
       <c r="B275" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C275" s="21" t="s">
+      <c r="C275" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D275" s="21" t="s">
@@ -5601,7 +5601,7 @@
       <c r="B276" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C276" s="21" t="s">
+      <c r="C276" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D276" s="21" t="s">
@@ -5619,7 +5619,7 @@
       <c r="B277" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C277" s="21" t="s">
+      <c r="C277" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D277" s="21" t="s">
@@ -5637,7 +5637,7 @@
       <c r="B278" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C278" s="21" t="s">
+      <c r="C278" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D278" s="21" t="s">
@@ -5655,7 +5655,7 @@
       <c r="B279" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C279" s="21" t="s">
+      <c r="C279" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D279" s="21" t="s">
@@ -5673,7 +5673,7 @@
       <c r="B280" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C280" s="21" t="s">
+      <c r="C280" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D280" s="21" t="s">
@@ -5691,7 +5691,7 @@
       <c r="B281" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C281" s="20" t="s">
+      <c r="C281" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D281" s="20" t="s">
@@ -5709,7 +5709,7 @@
       <c r="B282" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C282" s="20" t="s">
+      <c r="C282" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D282" s="20" t="s">
@@ -5727,7 +5727,7 @@
       <c r="B283" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C283" s="21" t="s">
+      <c r="C283" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D283" s="21" t="s">
@@ -5745,7 +5745,7 @@
       <c r="B284" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C284" s="21" t="s">
+      <c r="C284" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D284" s="21" t="s">
@@ -5763,7 +5763,7 @@
       <c r="B285" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C285" s="21" t="s">
+      <c r="C285" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D285" s="21" t="s">
@@ -5781,7 +5781,7 @@
       <c r="B286" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C286" s="21" t="s">
+      <c r="C286" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D286" s="21" t="s">
@@ -5799,7 +5799,7 @@
       <c r="B287" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C287" s="21" t="s">
+      <c r="C287" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D287" s="21" t="s">
@@ -5817,7 +5817,7 @@
       <c r="B288" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C288" s="21" t="s">
+      <c r="C288" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D288" s="21" t="s">
@@ -5835,7 +5835,7 @@
       <c r="B289" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C289" s="21" t="s">
+      <c r="C289" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D289" s="21" t="s">
@@ -5853,7 +5853,7 @@
       <c r="B290" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C290" s="21" t="s">
+      <c r="C290" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D290" s="21" t="s">
@@ -5871,7 +5871,7 @@
       <c r="B291" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C291" s="21" t="s">
+      <c r="C291" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D291" s="21" t="s">
@@ -5889,7 +5889,7 @@
       <c r="B292" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C292" s="20" t="s">
+      <c r="C292" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D292" s="20" t="s">
@@ -5905,7 +5905,7 @@
       <c r="B293" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C293" s="20" t="s">
+      <c r="C293" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D293" s="20" t="s">
@@ -5923,7 +5923,7 @@
       <c r="B294" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C294" s="21" t="s">
+      <c r="C294" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D294" s="21" t="s">
@@ -5941,7 +5941,7 @@
       <c r="B295" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C295" s="21" t="s">
+      <c r="C295" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D295" s="21" t="s">
@@ -5959,7 +5959,7 @@
       <c r="B296" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C296" s="21" t="s">
+      <c r="C296" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D296" s="21" t="s">
@@ -5977,7 +5977,7 @@
       <c r="B297" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C297" s="21" t="s">
+      <c r="C297" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D297" s="21" t="s">
@@ -5995,7 +5995,7 @@
       <c r="B298" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C298" s="21" t="s">
+      <c r="C298" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D298" s="21" t="s">
@@ -6013,7 +6013,7 @@
       <c r="B299" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C299" s="21" t="s">
+      <c r="C299" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D299" s="21" t="s">
@@ -6031,7 +6031,7 @@
       <c r="B300" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C300" s="21" t="s">
+      <c r="C300" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D300" s="21" t="s">
@@ -6049,7 +6049,7 @@
       <c r="B301" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C301" s="21" t="s">
+      <c r="C301" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D301" s="21" t="s">
@@ -6067,7 +6067,7 @@
       <c r="B302" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C302" s="21" t="s">
+      <c r="C302" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D302" s="21" t="s">
@@ -6085,7 +6085,7 @@
       <c r="B303" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C303" s="20" t="s">
+      <c r="C303" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D303" s="20" t="s">
@@ -6103,7 +6103,7 @@
       <c r="B304" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C304" s="20" t="s">
+      <c r="C304" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D304" s="20" t="s">
@@ -6121,7 +6121,7 @@
       <c r="B305" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C305" s="21" t="s">
+      <c r="C305" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D305" s="21" t="s">
@@ -6139,7 +6139,7 @@
       <c r="B306" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C306" s="21" t="s">
+      <c r="C306" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D306" s="21" t="s">
@@ -6157,7 +6157,7 @@
       <c r="B307" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C307" s="21" t="s">
+      <c r="C307" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D307" s="21" t="s">
@@ -6175,7 +6175,7 @@
       <c r="B308" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C308" s="21" t="s">
+      <c r="C308" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D308" s="21" t="s">
@@ -6193,7 +6193,7 @@
       <c r="B309" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C309" s="21" t="s">
+      <c r="C309" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D309" s="21" t="s">
@@ -6211,7 +6211,7 @@
       <c r="B310" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C310" s="21" t="s">
+      <c r="C310" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D310" s="21" t="s">
@@ -6229,7 +6229,7 @@
       <c r="B311" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C311" s="21" t="s">
+      <c r="C311" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D311" s="21" t="s">
@@ -6247,7 +6247,7 @@
       <c r="B312" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C312" s="21" t="s">
+      <c r="C312" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D312" s="21" t="s">
@@ -6265,7 +6265,7 @@
       <c r="B313" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C313" s="21" t="s">
+      <c r="C313" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D313" s="21" t="s">
@@ -6283,7 +6283,7 @@
       <c r="B314" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C314" s="20" t="s">
+      <c r="C314" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D314" s="20" t="s">
@@ -6301,7 +6301,7 @@
       <c r="B315" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C315" s="20" t="s">
+      <c r="C315" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D315" s="20" t="s">
@@ -6319,7 +6319,7 @@
       <c r="B316" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C316" s="21" t="s">
+      <c r="C316" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D316" s="21" t="s">
@@ -6337,7 +6337,7 @@
       <c r="B317" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C317" s="21" t="s">
+      <c r="C317" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D317" s="21" t="s">
@@ -6355,7 +6355,7 @@
       <c r="B318" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C318" s="21" t="s">
+      <c r="C318" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D318" s="21" t="s">
@@ -6373,7 +6373,7 @@
       <c r="B319" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C319" s="21" t="s">
+      <c r="C319" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D319" s="21" t="s">
@@ -6391,7 +6391,7 @@
       <c r="B320" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C320" s="21" t="s">
+      <c r="C320" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D320" s="21" t="s">
@@ -6409,7 +6409,7 @@
       <c r="B321" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C321" s="21" t="s">
+      <c r="C321" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D321" s="21" t="s">
@@ -6427,7 +6427,7 @@
       <c r="B322" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C322" s="21" t="s">
+      <c r="C322" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D322" s="21" t="s">
@@ -6445,7 +6445,7 @@
       <c r="B323" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C323" s="21" t="s">
+      <c r="C323" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D323" s="21" t="s">
@@ -6461,7 +6461,7 @@
       <c r="B324" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C324" s="21" t="s">
+      <c r="C324" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D324" s="21" t="s">
@@ -6479,7 +6479,7 @@
       <c r="B325" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C325" s="20" t="s">
+      <c r="C325" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D325" s="20" t="s">
@@ -6497,7 +6497,7 @@
       <c r="B326" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C326" s="20" t="s">
+      <c r="C326" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D326" s="20" t="s">
@@ -6515,7 +6515,7 @@
       <c r="B327" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C327" s="21" t="s">
+      <c r="C327" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D327" s="21" t="s">
@@ -6533,7 +6533,7 @@
       <c r="B328" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C328" s="21" t="s">
+      <c r="C328" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D328" s="21" t="s">
@@ -6551,7 +6551,7 @@
       <c r="B329" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C329" s="21" t="s">
+      <c r="C329" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D329" s="21" t="s">
@@ -6569,7 +6569,7 @@
       <c r="B330" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C330" s="21" t="s">
+      <c r="C330" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D330" s="21" t="s">
@@ -6587,7 +6587,7 @@
       <c r="B331" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C331" s="21" t="s">
+      <c r="C331" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D331" s="21" t="s">
@@ -6605,7 +6605,7 @@
       <c r="B332" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C332" s="21" t="s">
+      <c r="C332" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D332" s="21" t="s">
@@ -6623,7 +6623,7 @@
       <c r="B333" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C333" s="21" t="s">
+      <c r="C333" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D333" s="21" t="s">
@@ -6641,7 +6641,7 @@
       <c r="B334" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C334" s="21" t="s">
+      <c r="C334" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D334" s="21" t="s">
@@ -6659,7 +6659,7 @@
       <c r="B335" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C335" s="21" t="s">
+      <c r="C335" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D335" s="21" t="s">
@@ -6677,7 +6677,7 @@
       <c r="B336" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C336" s="20" t="s">
+      <c r="C336" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D336" s="20" t="s">
@@ -6695,7 +6695,7 @@
       <c r="B337" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C337" s="20" t="s">
+      <c r="C337" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D337" s="20" t="s">
@@ -6713,7 +6713,7 @@
       <c r="B338" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C338" s="21" t="s">
+      <c r="C338" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D338" s="21" t="s">
@@ -6731,7 +6731,7 @@
       <c r="B339" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C339" s="21" t="s">
+      <c r="C339" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D339" s="21" t="s">
@@ -6749,7 +6749,7 @@
       <c r="B340" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C340" s="21" t="s">
+      <c r="C340" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D340" s="21" t="s">
@@ -6767,7 +6767,7 @@
       <c r="B341" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C341" s="21" t="s">
+      <c r="C341" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D341" s="21" t="s">
@@ -6785,7 +6785,7 @@
       <c r="B342" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C342" s="21" t="s">
+      <c r="C342" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D342" s="21" t="s">
@@ -6803,7 +6803,7 @@
       <c r="B343" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C343" s="21" t="s">
+      <c r="C343" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D343" s="21" t="s">
@@ -6821,7 +6821,7 @@
       <c r="B344" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C344" s="21" t="s">
+      <c r="C344" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D344" s="21" t="s">
@@ -6839,7 +6839,7 @@
       <c r="B345" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C345" s="21" t="s">
+      <c r="C345" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D345" s="21" t="s">
@@ -6857,7 +6857,7 @@
       <c r="B346" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C346" s="21" t="s">
+      <c r="C346" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D346" s="21" t="s">
@@ -6875,7 +6875,7 @@
       <c r="B347" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C347" s="20" t="s">
+      <c r="C347" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D347" s="20" t="s">
@@ -6893,7 +6893,7 @@
       <c r="B348" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C348" s="20" t="s">
+      <c r="C348" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D348" s="20" t="s">
@@ -6911,7 +6911,7 @@
       <c r="B349" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C349" s="21" t="s">
+      <c r="C349" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D349" s="21" t="s">
@@ -6929,7 +6929,7 @@
       <c r="B350" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C350" s="21" t="s">
+      <c r="C350" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D350" s="21" t="s">
@@ -6947,7 +6947,7 @@
       <c r="B351" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C351" s="21" t="s">
+      <c r="C351" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D351" s="21" t="s">
@@ -6965,7 +6965,7 @@
       <c r="B352" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C352" s="21" t="s">
+      <c r="C352" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D352" s="21" t="s">
@@ -6983,7 +6983,7 @@
       <c r="B353" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C353" s="21" t="s">
+      <c r="C353" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D353" s="21" t="s">
@@ -7001,7 +7001,7 @@
       <c r="B354" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C354" s="21" t="s">
+      <c r="C354" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D354" s="21" t="s">
@@ -7017,7 +7017,7 @@
       <c r="B355" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C355" s="21" t="s">
+      <c r="C355" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D355" s="21" t="s">
@@ -7035,7 +7035,7 @@
       <c r="B356" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C356" s="21" t="s">
+      <c r="C356" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D356" s="21" t="s">
@@ -7053,7 +7053,7 @@
       <c r="B357" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C357" s="21" t="s">
+      <c r="C357" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D357" s="21" t="s">
@@ -7071,7 +7071,7 @@
       <c r="B358" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C358" s="20" t="s">
+      <c r="C358" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D358" s="20" t="s">
@@ -7089,7 +7089,7 @@
       <c r="B359" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C359" s="20" t="s">
+      <c r="C359" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D359" s="20" t="s">
@@ -7107,7 +7107,7 @@
       <c r="B360" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C360" s="21" t="s">
+      <c r="C360" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D360" s="21" t="s">
@@ -7123,7 +7123,7 @@
         <v>16</v>
       </c>
       <c r="B361" s="20"/>
-      <c r="C361" s="20"/>
+      <c r="C361" s="42"/>
       <c r="D361" s="20"/>
       <c r="E361" s="15"/>
       <c r="F361" s="15"/>
@@ -7137,7 +7137,7 @@
       <c r="B362" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C362" s="20" t="s">
+      <c r="C362" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D362" s="20" t="s">
@@ -7155,7 +7155,7 @@
       <c r="B363" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C363" s="21" t="s">
+      <c r="C363" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D363" s="21" t="s">
@@ -7173,7 +7173,7 @@
       <c r="B364" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C364" s="21" t="s">
+      <c r="C364" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D364" s="21" t="s">
@@ -7191,7 +7191,7 @@
       <c r="B365" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C365" s="21" t="s">
+      <c r="C365" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D365" s="21" t="s">
@@ -7209,7 +7209,7 @@
       <c r="B366" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C366" s="21" t="s">
+      <c r="C366" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D366" s="21" t="s">
@@ -7227,7 +7227,7 @@
       <c r="B367" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C367" s="21" t="s">
+      <c r="C367" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D367" s="21" t="s">
@@ -7245,7 +7245,7 @@
       <c r="B368" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C368" s="21" t="s">
+      <c r="C368" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D368" s="21" t="s">
@@ -7263,7 +7263,7 @@
       <c r="B369" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C369" s="21" t="s">
+      <c r="C369" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D369" s="21" t="s">
@@ -7281,7 +7281,7 @@
       <c r="B370" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C370" s="21" t="s">
+      <c r="C370" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D370" s="21" t="s">
@@ -7299,7 +7299,7 @@
       <c r="B371" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C371" s="21" t="s">
+      <c r="C371" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D371" s="21" t="s">
@@ -7317,7 +7317,7 @@
       <c r="B372" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C372" s="20" t="s">
+      <c r="C372" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D372" s="20" t="s">
@@ -7335,7 +7335,7 @@
       <c r="B373" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C373" s="20" t="s">
+      <c r="C373" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D373" s="20" t="s">
@@ -7353,7 +7353,7 @@
       <c r="B374" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C374" s="21" t="s">
+      <c r="C374" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D374" s="21" t="s">
@@ -7371,7 +7371,7 @@
       <c r="B375" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C375" s="21" t="s">
+      <c r="C375" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D375" s="21" t="s">
@@ -7389,7 +7389,7 @@
       <c r="B376" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C376" s="21" t="s">
+      <c r="C376" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D376" s="21" t="s">
@@ -7407,7 +7407,7 @@
       <c r="B377" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C377" s="21" t="s">
+      <c r="C377" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D377" s="21" t="s">
@@ -7425,7 +7425,7 @@
       <c r="B378" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C378" s="21" t="s">
+      <c r="C378" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D378" s="21" t="s">
@@ -7443,7 +7443,7 @@
       <c r="B379" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C379" s="21" t="s">
+      <c r="C379" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D379" s="21" t="s">
@@ -7461,7 +7461,7 @@
       <c r="B380" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C380" s="21" t="s">
+      <c r="C380" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D380" s="21" t="s">
@@ -7479,7 +7479,7 @@
       <c r="B381" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C381" s="21" t="s">
+      <c r="C381" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D381" s="21" t="s">
@@ -7497,7 +7497,7 @@
       <c r="B382" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C382" s="21" t="s">
+      <c r="C382" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D382" s="21" t="s">
@@ -7515,7 +7515,7 @@
       <c r="B383" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C383" s="20" t="s">
+      <c r="C383" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D383" s="20" t="s">
@@ -7533,7 +7533,7 @@
       <c r="B384" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C384" s="20" t="s">
+      <c r="C384" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D384" s="20" t="s">
@@ -7551,7 +7551,7 @@
       <c r="B385" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C385" s="21" t="s">
+      <c r="C385" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D385" s="21" t="s">
@@ -7569,7 +7569,7 @@
       <c r="B386" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C386" s="21" t="s">
+      <c r="C386" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D386" s="21" t="s">
@@ -7587,7 +7587,7 @@
       <c r="B387" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C387" s="21" t="s">
+      <c r="C387" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D387" s="21" t="s">
@@ -7605,7 +7605,7 @@
       <c r="B388" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C388" s="21" t="s">
+      <c r="C388" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D388" s="21" t="s">
@@ -7623,7 +7623,7 @@
       <c r="B389" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C389" s="21" t="s">
+      <c r="C389" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D389" s="21" t="s">
@@ -7641,7 +7641,7 @@
       <c r="B390" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C390" s="21" t="s">
+      <c r="C390" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D390" s="21" t="s">
@@ -7659,7 +7659,7 @@
       <c r="B391" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C391" s="21" t="s">
+      <c r="C391" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D391" s="21" t="s">
@@ -7677,7 +7677,7 @@
       <c r="B392" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C392" s="21" t="s">
+      <c r="C392" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D392" s="21" t="s">
@@ -7695,7 +7695,7 @@
       <c r="B393" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C393" s="21" t="s">
+      <c r="C393" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D393" s="21" t="s">
@@ -7713,7 +7713,7 @@
       <c r="B394" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C394" s="20" t="s">
+      <c r="C394" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D394" s="20" t="s">
@@ -7731,7 +7731,7 @@
       <c r="B395" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C395" s="20" t="s">
+      <c r="C395" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D395" s="20" t="s">
@@ -7749,7 +7749,7 @@
       <c r="B396" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C396" s="21" t="s">
+      <c r="C396" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D396" s="21" t="s">
@@ -7767,7 +7767,7 @@
       <c r="B397" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C397" s="21" t="s">
+      <c r="C397" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D397" s="21" t="s">
@@ -7785,7 +7785,7 @@
       <c r="B398" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C398" s="21" t="s">
+      <c r="C398" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D398" s="21" t="s">
@@ -7803,7 +7803,7 @@
       <c r="B399" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C399" s="21" t="s">
+      <c r="C399" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D399" s="21" t="s">
@@ -7821,7 +7821,7 @@
       <c r="B400" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C400" s="21" t="s">
+      <c r="C400" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D400" s="21" t="s">
@@ -7839,7 +7839,7 @@
       <c r="B401" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C401" s="21" t="s">
+      <c r="C401" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D401" s="21" t="s">
@@ -7857,7 +7857,7 @@
       <c r="B402" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C402" s="21" t="s">
+      <c r="C402" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D402" s="21" t="s">
@@ -7875,7 +7875,7 @@
       <c r="B403" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C403" s="21" t="s">
+      <c r="C403" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D403" s="21" t="s">
@@ -7893,7 +7893,7 @@
       <c r="B404" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C404" s="21" t="s">
+      <c r="C404" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D404" s="21" t="s">
@@ -7911,7 +7911,7 @@
       <c r="B405" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C405" s="20" t="s">
+      <c r="C405" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D405" s="20" t="s">
@@ -7929,7 +7929,7 @@
       <c r="B406" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C406" s="20" t="s">
+      <c r="C406" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D406" s="20" t="s">
@@ -7947,7 +7947,7 @@
       <c r="B407" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C407" s="21" t="s">
+      <c r="C407" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D407" s="21" t="s">
@@ -7965,7 +7965,7 @@
       <c r="B408" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C408" s="21" t="s">
+      <c r="C408" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D408" s="21" t="s">
@@ -7983,7 +7983,7 @@
       <c r="B409" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C409" s="21" t="s">
+      <c r="C409" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D409" s="21" t="s">
@@ -8001,7 +8001,7 @@
       <c r="B410" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C410" s="21" t="s">
+      <c r="C410" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D410" s="21" t="s">
@@ -8019,7 +8019,7 @@
       <c r="B411" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C411" s="21" t="s">
+      <c r="C411" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D411" s="21" t="s">
@@ -8037,7 +8037,7 @@
       <c r="B412" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C412" s="21" t="s">
+      <c r="C412" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D412" s="21" t="s">
@@ -8055,7 +8055,7 @@
       <c r="B413" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C413" s="21" t="s">
+      <c r="C413" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D413" s="21" t="s">
@@ -8073,7 +8073,7 @@
       <c r="B414" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C414" s="21" t="s">
+      <c r="C414" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D414" s="21" t="s">
@@ -8089,7 +8089,7 @@
       <c r="B415" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C415" s="21" t="s">
+      <c r="C415" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D415" s="21" t="s">
@@ -8107,7 +8107,7 @@
       <c r="B416" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C416" s="20" t="s">
+      <c r="C416" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D416" s="20" t="s">
@@ -8125,7 +8125,7 @@
       <c r="B417" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C417" s="20" t="s">
+      <c r="C417" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D417" s="20" t="s">
@@ -8143,7 +8143,7 @@
       <c r="B418" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C418" s="21" t="s">
+      <c r="C418" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D418" s="21" t="s">
@@ -8161,7 +8161,7 @@
       <c r="B419" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C419" s="21" t="s">
+      <c r="C419" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D419" s="21" t="s">
@@ -8179,7 +8179,7 @@
       <c r="B420" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C420" s="21" t="s">
+      <c r="C420" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D420" s="21" t="s">
@@ -8197,7 +8197,7 @@
       <c r="B421" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C421" s="21" t="s">
+      <c r="C421" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D421" s="21" t="s">
@@ -8215,7 +8215,7 @@
       <c r="B422" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C422" s="21" t="s">
+      <c r="C422" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D422" s="21" t="s">
@@ -8233,7 +8233,7 @@
       <c r="B423" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C423" s="21" t="s">
+      <c r="C423" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D423" s="21" t="s">
@@ -8251,7 +8251,7 @@
       <c r="B424" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C424" s="21" t="s">
+      <c r="C424" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D424" s="21" t="s">
@@ -8269,7 +8269,7 @@
       <c r="B425" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C425" s="21" t="s">
+      <c r="C425" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D425" s="21" t="s">
@@ -8287,7 +8287,7 @@
       <c r="B426" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C426" s="21" t="s">
+      <c r="C426" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D426" s="21" t="s">
@@ -8305,7 +8305,7 @@
       <c r="B427" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C427" s="20" t="s">
+      <c r="C427" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D427" s="20" t="s">
@@ -8323,7 +8323,7 @@
       <c r="B428" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C428" s="20" t="s">
+      <c r="C428" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D428" s="20" t="s">
@@ -8341,7 +8341,7 @@
       <c r="B429" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C429" s="21" t="s">
+      <c r="C429" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D429" s="21" t="s">
@@ -8359,7 +8359,7 @@
       <c r="B430" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C430" s="21" t="s">
+      <c r="C430" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D430" s="21" t="s">
@@ -8377,7 +8377,7 @@
       <c r="B431" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C431" s="21" t="s">
+      <c r="C431" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D431" s="21" t="s">
@@ -8395,7 +8395,7 @@
       <c r="B432" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C432" s="21" t="s">
+      <c r="C432" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D432" s="21" t="s">
@@ -8413,7 +8413,7 @@
       <c r="B433" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C433" s="21" t="s">
+      <c r="C433" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D433" s="21" t="s">
@@ -8431,7 +8431,7 @@
       <c r="B434" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C434" s="21" t="s">
+      <c r="C434" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D434" s="21" t="s">
@@ -8449,7 +8449,7 @@
       <c r="B435" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C435" s="21" t="s">
+      <c r="C435" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D435" s="21" t="s">
@@ -8467,7 +8467,7 @@
       <c r="B436" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C436" s="21" t="s">
+      <c r="C436" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D436" s="21" t="s">
@@ -8485,7 +8485,7 @@
       <c r="B437" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C437" s="21" t="s">
+      <c r="C437" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D437" s="21" t="s">
@@ -8503,7 +8503,7 @@
       <c r="B438" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C438" s="20" t="s">
+      <c r="C438" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D438" s="20" t="s">
@@ -8521,7 +8521,7 @@
       <c r="B439" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C439" s="20" t="s">
+      <c r="C439" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D439" s="20" t="s">
@@ -8539,7 +8539,7 @@
       <c r="B440" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C440" s="21" t="s">
+      <c r="C440" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D440" s="21" t="s">
@@ -8557,7 +8557,7 @@
       <c r="B441" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C441" s="21" t="s">
+      <c r="C441" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D441" s="21" t="s">
@@ -8575,7 +8575,7 @@
       <c r="B442" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C442" s="21" t="s">
+      <c r="C442" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D442" s="21" t="s">
@@ -8593,7 +8593,7 @@
       <c r="B443" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C443" s="21" t="s">
+      <c r="C443" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D443" s="21" t="s">
@@ -8611,7 +8611,7 @@
       <c r="B444" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C444" s="21" t="s">
+      <c r="C444" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D444" s="21" t="s">
@@ -8629,7 +8629,7 @@
       <c r="B445" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C445" s="21" t="s">
+      <c r="C445" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D445" s="21" t="s">
@@ -8645,7 +8645,7 @@
       <c r="B446" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C446" s="21" t="s">
+      <c r="C446" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D446" s="21" t="s">
@@ -8663,7 +8663,7 @@
       <c r="B447" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C447" s="21" t="s">
+      <c r="C447" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D447" s="21" t="s">
@@ -8681,7 +8681,7 @@
       <c r="B448" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C448" s="21" t="s">
+      <c r="C448" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D448" s="21" t="s">
@@ -8699,7 +8699,7 @@
       <c r="B449" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C449" s="20" t="s">
+      <c r="C449" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D449" s="20" t="s">
@@ -8717,7 +8717,7 @@
       <c r="B450" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C450" s="20" t="s">
+      <c r="C450" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D450" s="20" t="s">
@@ -8735,7 +8735,7 @@
       <c r="B451" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C451" s="21" t="s">
+      <c r="C451" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D451" s="21" t="s">
@@ -8753,7 +8753,7 @@
       <c r="B452" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C452" s="21" t="s">
+      <c r="C452" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D452" s="21" t="s">
@@ -8771,7 +8771,7 @@
       <c r="B453" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C453" s="21" t="s">
+      <c r="C453" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D453" s="21" t="s">
@@ -8789,7 +8789,7 @@
       <c r="B454" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C454" s="21" t="s">
+      <c r="C454" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D454" s="21" t="s">
@@ -8807,7 +8807,7 @@
       <c r="B455" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C455" s="21" t="s">
+      <c r="C455" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D455" s="21" t="s">
@@ -8825,7 +8825,7 @@
       <c r="B456" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C456" s="21" t="s">
+      <c r="C456" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D456" s="21" t="s">
@@ -8843,7 +8843,7 @@
       <c r="B457" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C457" s="21" t="s">
+      <c r="C457" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D457" s="21" t="s">
@@ -8861,7 +8861,7 @@
       <c r="B458" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C458" s="21" t="s">
+      <c r="C458" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D458" s="21" t="s">
@@ -8879,7 +8879,7 @@
       <c r="B459" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C459" s="21" t="s">
+      <c r="C459" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D459" s="21" t="s">
@@ -8897,7 +8897,7 @@
       <c r="B460" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C460" s="20" t="s">
+      <c r="C460" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D460" s="20" t="s">
@@ -8915,7 +8915,7 @@
       <c r="B461" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C461" s="20" t="s">
+      <c r="C461" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D461" s="20" t="s">
@@ -8933,7 +8933,7 @@
       <c r="B462" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C462" s="21" t="s">
+      <c r="C462" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D462" s="21" t="s">
@@ -8951,7 +8951,7 @@
       <c r="B463" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C463" s="21" t="s">
+      <c r="C463" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D463" s="21" t="s">
@@ -8969,7 +8969,7 @@
       <c r="B464" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C464" s="21" t="s">
+      <c r="C464" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D464" s="21" t="s">
@@ -8987,7 +8987,7 @@
       <c r="B465" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C465" s="21" t="s">
+      <c r="C465" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D465" s="21" t="s">
@@ -9005,7 +9005,7 @@
       <c r="B466" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C466" s="21" t="s">
+      <c r="C466" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D466" s="21" t="s">
@@ -9023,7 +9023,7 @@
       <c r="B467" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C467" s="21" t="s">
+      <c r="C467" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D467" s="21" t="s">
@@ -9041,7 +9041,7 @@
       <c r="B468" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C468" s="21" t="s">
+      <c r="C468" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D468" s="21" t="s">
@@ -9059,7 +9059,7 @@
       <c r="B469" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C469" s="21" t="s">
+      <c r="C469" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D469" s="21" t="s">
@@ -9077,7 +9077,7 @@
       <c r="B470" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C470" s="21" t="s">
+      <c r="C470" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D470" s="21" t="s">
@@ -9095,7 +9095,7 @@
       <c r="B471" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C471" s="20" t="s">
+      <c r="C471" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D471" s="20" t="s">
@@ -9113,7 +9113,7 @@
       <c r="B472" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C472" s="20" t="s">
+      <c r="C472" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D472" s="20" t="s">
@@ -9131,7 +9131,7 @@
       <c r="B473" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C473" s="21" t="s">
+      <c r="C473" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D473" s="21" t="s">
@@ -9149,7 +9149,7 @@
       <c r="B474" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C474" s="21" t="s">
+      <c r="C474" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D474" s="21" t="s">
@@ -9167,7 +9167,7 @@
       <c r="B475" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C475" s="21" t="s">
+      <c r="C475" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D475" s="21" t="s">
@@ -9185,7 +9185,7 @@
       <c r="B476" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C476" s="21" t="s">
+      <c r="C476" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D476" s="21" t="s">
@@ -9201,7 +9201,7 @@
       <c r="B477" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C477" s="21" t="s">
+      <c r="C477" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D477" s="21" t="s">
@@ -9219,7 +9219,7 @@
       <c r="B478" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C478" s="21" t="s">
+      <c r="C478" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D478" s="21" t="s">
@@ -9237,7 +9237,7 @@
       <c r="B479" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C479" s="21" t="s">
+      <c r="C479" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D479" s="21" t="s">
@@ -9255,7 +9255,7 @@
       <c r="B480" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C480" s="21" t="s">
+      <c r="C480" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D480" s="21" t="s">
@@ -9273,7 +9273,7 @@
       <c r="B481" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C481" s="21" t="s">
+      <c r="C481" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D481" s="21" t="s">
@@ -9291,7 +9291,7 @@
       <c r="B482" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C482" s="20" t="s">
+      <c r="C482" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D482" s="20" t="s">
@@ -9309,7 +9309,7 @@
       <c r="B483" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C483" s="20" t="s">
+      <c r="C483" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D483" s="20" t="s">
@@ -9327,7 +9327,7 @@
       <c r="B484" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C484" s="21" t="s">
+      <c r="C484" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D484" s="21" t="s">
@@ -9345,7 +9345,7 @@
       <c r="B485" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C485" s="21" t="s">
+      <c r="C485" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D485" s="21" t="s">
@@ -9363,7 +9363,7 @@
       <c r="B486" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C486" s="21" t="s">
+      <c r="C486" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D486" s="21" t="s">
@@ -9381,7 +9381,7 @@
       <c r="B487" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C487" s="21" t="s">
+      <c r="C487" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D487" s="21" t="s">
@@ -9399,7 +9399,7 @@
       <c r="B488" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C488" s="21" t="s">
+      <c r="C488" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D488" s="21" t="s">
@@ -9417,7 +9417,7 @@
       <c r="B489" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C489" s="21" t="s">
+      <c r="C489" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D489" s="21" t="s">
@@ -9435,7 +9435,7 @@
       <c r="B490" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C490" s="21" t="s">
+      <c r="C490" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D490" s="21" t="s">
@@ -9453,7 +9453,7 @@
       <c r="B491" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C491" s="21" t="s">
+      <c r="C491" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D491" s="21" t="s">
@@ -9471,7 +9471,7 @@
       <c r="B492" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C492" s="21" t="s">
+      <c r="C492" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D492" s="21" t="s">
@@ -9489,7 +9489,7 @@
       <c r="B493" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C493" s="20" t="s">
+      <c r="C493" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D493" s="20" t="s">
@@ -9507,7 +9507,7 @@
       <c r="B494" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C494" s="20" t="s">
+      <c r="C494" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D494" s="20" t="s">
@@ -9525,7 +9525,7 @@
       <c r="B495" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C495" s="21" t="s">
+      <c r="C495" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D495" s="21" t="s">
@@ -9543,7 +9543,7 @@
       <c r="B496" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C496" s="21" t="s">
+      <c r="C496" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D496" s="21" t="s">
@@ -9561,7 +9561,7 @@
       <c r="B497" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C497" s="21" t="s">
+      <c r="C497" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D497" s="21" t="s">
@@ -9579,7 +9579,7 @@
       <c r="B498" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C498" s="21" t="s">
+      <c r="C498" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D498" s="21" t="s">
@@ -9597,7 +9597,7 @@
       <c r="B499" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C499" s="21" t="s">
+      <c r="C499" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D499" s="21" t="s">
@@ -9615,7 +9615,7 @@
       <c r="B500" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C500" s="21" t="s">
+      <c r="C500" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D500" s="21" t="s">
@@ -9633,7 +9633,7 @@
       <c r="B501" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C501" s="21" t="s">
+      <c r="C501" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D501" s="21" t="s">
@@ -9651,7 +9651,7 @@
       <c r="B502" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C502" s="21" t="s">
+      <c r="C502" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D502" s="21" t="s">
@@ -9669,7 +9669,7 @@
       <c r="B503" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C503" s="21" t="s">
+      <c r="C503" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D503" s="21" t="s">
@@ -9687,7 +9687,7 @@
       <c r="B504" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C504" s="20" t="s">
+      <c r="C504" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D504" s="20" t="s">
@@ -9705,7 +9705,7 @@
       <c r="B505" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C505" s="20" t="s">
+      <c r="C505" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D505" s="20" t="s">
@@ -9723,7 +9723,7 @@
       <c r="B506" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C506" s="21" t="s">
+      <c r="C506" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D506" s="21" t="s">
@@ -9741,7 +9741,7 @@
       <c r="B507" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C507" s="21" t="s">
+      <c r="C507" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D507" s="21" t="s">
@@ -9757,7 +9757,7 @@
       <c r="B508" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C508" s="21" t="s">
+      <c r="C508" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D508" s="21" t="s">
@@ -9775,7 +9775,7 @@
       <c r="B509" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C509" s="21" t="s">
+      <c r="C509" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D509" s="21" t="s">
@@ -9793,7 +9793,7 @@
       <c r="B510" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C510" s="21" t="s">
+      <c r="C510" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D510" s="21" t="s">
@@ -9811,7 +9811,7 @@
       <c r="B511" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C511" s="21" t="s">
+      <c r="C511" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D511" s="21" t="s">
@@ -9829,7 +9829,7 @@
       <c r="B512" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C512" s="21" t="s">
+      <c r="C512" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D512" s="21" t="s">
@@ -9847,7 +9847,7 @@
       <c r="B513" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C513" s="21" t="s">
+      <c r="C513" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D513" s="21" t="s">
@@ -9865,7 +9865,7 @@
       <c r="B514" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C514" s="21" t="s">
+      <c r="C514" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D514" s="21" t="s">
@@ -9883,7 +9883,7 @@
       <c r="B515" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C515" s="20" t="s">
+      <c r="C515" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D515" s="20" t="s">
@@ -9901,7 +9901,7 @@
       <c r="B516" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C516" s="20" t="s">
+      <c r="C516" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D516" s="20" t="s">
@@ -9919,7 +9919,7 @@
       <c r="B517" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C517" s="21" t="s">
+      <c r="C517" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D517" s="21" t="s">
@@ -9937,7 +9937,7 @@
       <c r="B518" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C518" s="21" t="s">
+      <c r="C518" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D518" s="21" t="s">
@@ -9955,7 +9955,7 @@
       <c r="B519" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C519" s="21" t="s">
+      <c r="C519" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D519" s="21" t="s">
@@ -9973,7 +9973,7 @@
       <c r="B520" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C520" s="21" t="s">
+      <c r="C520" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D520" s="21" t="s">
@@ -9991,7 +9991,7 @@
       <c r="B521" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C521" s="21" t="s">
+      <c r="C521" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D521" s="21" t="s">
@@ -10009,7 +10009,7 @@
       <c r="B522" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C522" s="21" t="s">
+      <c r="C522" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D522" s="21" t="s">
@@ -10027,7 +10027,7 @@
       <c r="B523" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C523" s="21" t="s">
+      <c r="C523" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D523" s="21" t="s">
@@ -10045,7 +10045,7 @@
       <c r="B524" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C524" s="21" t="s">
+      <c r="C524" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D524" s="21" t="s">
@@ -10063,7 +10063,7 @@
       <c r="B525" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C525" s="21" t="s">
+      <c r="C525" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D525" s="21" t="s">
@@ -10081,7 +10081,7 @@
       <c r="B526" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C526" s="20" t="s">
+      <c r="C526" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D526" s="20" t="s">
@@ -10099,7 +10099,7 @@
       <c r="B527" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C527" s="20" t="s">
+      <c r="C527" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D527" s="20" t="s">
@@ -10117,7 +10117,7 @@
       <c r="B528" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C528" s="21" t="s">
+      <c r="C528" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D528" s="21" t="s">
@@ -10135,7 +10135,7 @@
       <c r="B529" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C529" s="21" t="s">
+      <c r="C529" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D529" s="21" t="s">
@@ -10153,7 +10153,7 @@
       <c r="B530" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C530" s="21" t="s">
+      <c r="C530" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D530" s="21" t="s">
@@ -10171,7 +10171,7 @@
       <c r="B531" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C531" s="21" t="s">
+      <c r="C531" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D531" s="21" t="s">
@@ -10189,7 +10189,7 @@
       <c r="B532" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C532" s="21" t="s">
+      <c r="C532" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D532" s="21" t="s">
@@ -10207,7 +10207,7 @@
       <c r="B533" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C533" s="21" t="s">
+      <c r="C533" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D533" s="21" t="s">
@@ -10225,7 +10225,7 @@
       <c r="B534" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C534" s="21" t="s">
+      <c r="C534" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D534" s="21" t="s">
@@ -10243,7 +10243,7 @@
       <c r="B535" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C535" s="21" t="s">
+      <c r="C535" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D535" s="21" t="s">
@@ -10261,7 +10261,7 @@
       <c r="B536" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C536" s="21" t="s">
+      <c r="C536" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D536" s="21" t="s">
@@ -10279,7 +10279,7 @@
       <c r="B537" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C537" s="20" t="s">
+      <c r="C537" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D537" s="20" t="s">
@@ -10297,7 +10297,7 @@
       <c r="B538" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C538" s="20" t="s">
+      <c r="C538" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D538" s="20" t="s">
@@ -10313,7 +10313,7 @@
       <c r="B539" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C539" s="21" t="s">
+      <c r="C539" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D539" s="21" t="s">
@@ -10331,7 +10331,7 @@
       <c r="B540" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C540" s="21" t="s">
+      <c r="C540" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D540" s="21" t="s">
@@ -10349,7 +10349,7 @@
       <c r="B541" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C541" s="21" t="s">
+      <c r="C541" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D541" s="21" t="s">
@@ -10367,7 +10367,7 @@
       <c r="B542" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C542" s="21" t="s">
+      <c r="C542" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D542" s="21" t="s">
@@ -10385,7 +10385,7 @@
       <c r="B543" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C543" s="21" t="s">
+      <c r="C543" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D543" s="21" t="s">
@@ -10403,7 +10403,7 @@
       <c r="B544" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C544" s="21" t="s">
+      <c r="C544" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D544" s="21" t="s">
@@ -10421,7 +10421,7 @@
       <c r="B545" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C545" s="21" t="s">
+      <c r="C545" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D545" s="21" t="s">
@@ -10439,7 +10439,7 @@
       <c r="B546" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C546" s="21" t="s">
+      <c r="C546" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D546" s="21" t="s">
@@ -10457,7 +10457,7 @@
       <c r="B547" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C547" s="21" t="s">
+      <c r="C547" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D547" s="21" t="s">
@@ -10475,7 +10475,7 @@
       <c r="B548" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C548" s="20" t="s">
+      <c r="C548" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D548" s="20" t="s">
@@ -10493,7 +10493,7 @@
       <c r="B549" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C549" s="20" t="s">
+      <c r="C549" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D549" s="20" t="s">
@@ -10511,7 +10511,7 @@
       <c r="B550" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C550" s="21" t="s">
+      <c r="C550" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D550" s="21" t="s">
@@ -10529,7 +10529,7 @@
       <c r="B551" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C551" s="21" t="s">
+      <c r="C551" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D551" s="21" t="s">
@@ -10547,7 +10547,7 @@
       <c r="B552" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C552" s="21" t="s">
+      <c r="C552" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D552" s="21" t="s">
@@ -10565,7 +10565,7 @@
       <c r="B553" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C553" s="21" t="s">
+      <c r="C553" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D553" s="21" t="s">
@@ -10583,7 +10583,7 @@
       <c r="B554" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C554" s="21" t="s">
+      <c r="C554" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D554" s="21" t="s">
@@ -10601,7 +10601,7 @@
       <c r="B555" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C555" s="21" t="s">
+      <c r="C555" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D555" s="21" t="s">
@@ -10619,7 +10619,7 @@
       <c r="B556" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C556" s="21" t="s">
+      <c r="C556" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D556" s="21" t="s">
@@ -10637,7 +10637,7 @@
       <c r="B557" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C557" s="21" t="s">
+      <c r="C557" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D557" s="21" t="s">
@@ -10655,7 +10655,7 @@
       <c r="B558" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C558" s="21" t="s">
+      <c r="C558" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D558" s="21" t="s">
@@ -10673,7 +10673,7 @@
       <c r="B559" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C559" s="20" t="s">
+      <c r="C559" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D559" s="20" t="s">
@@ -10691,7 +10691,7 @@
       <c r="B560" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C560" s="20" t="s">
+      <c r="C560" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D560" s="20" t="s">
@@ -10709,7 +10709,7 @@
       <c r="B561" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C561" s="21" t="s">
+      <c r="C561" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D561" s="21" t="s">
@@ -10727,7 +10727,7 @@
       <c r="B562" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C562" s="21" t="s">
+      <c r="C562" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D562" s="21" t="s">
@@ -10745,7 +10745,7 @@
       <c r="B563" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C563" s="21" t="s">
+      <c r="C563" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D563" s="21" t="s">
@@ -10763,7 +10763,7 @@
       <c r="B564" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C564" s="21" t="s">
+      <c r="C564" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D564" s="21" t="s">
@@ -10781,7 +10781,7 @@
       <c r="B565" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C565" s="21" t="s">
+      <c r="C565" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D565" s="21" t="s">
@@ -10799,7 +10799,7 @@
       <c r="B566" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C566" s="21" t="s">
+      <c r="C566" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D566" s="21" t="s">
@@ -10817,7 +10817,7 @@
       <c r="B567" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C567" s="21" t="s">
+      <c r="C567" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D567" s="21" t="s">
@@ -10835,7 +10835,7 @@
       <c r="B568" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C568" s="21" t="s">
+      <c r="C568" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D568" s="21" t="s">
@@ -10853,7 +10853,7 @@
       <c r="B569" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C569" s="21" t="s">
+      <c r="C569" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D569" s="21" t="s">
@@ -10871,7 +10871,7 @@
       <c r="B570" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C570" s="20" t="s">
+      <c r="C570" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D570" s="20" t="s">
@@ -10889,7 +10889,7 @@
       <c r="B571" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C571" s="20" t="s">
+      <c r="C571" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D571" s="20" t="s">
@@ -10907,7 +10907,7 @@
       <c r="B572" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C572" s="21" t="s">
+      <c r="C572" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D572" s="21" t="s">
@@ -10925,7 +10925,7 @@
       <c r="B573" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C573" s="21" t="s">
+      <c r="C573" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D573" s="21" t="s">
@@ -10943,7 +10943,7 @@
       <c r="B574" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C574" s="21" t="s">
+      <c r="C574" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D574" s="21" t="s">
@@ -10961,7 +10961,7 @@
       <c r="B575" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C575" s="21" t="s">
+      <c r="C575" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D575" s="21" t="s">
@@ -10979,7 +10979,7 @@
       <c r="B576" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C576" s="21" t="s">
+      <c r="C576" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D576" s="21" t="s">
@@ -10997,7 +10997,7 @@
       <c r="B577" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C577" s="21" t="s">
+      <c r="C577" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D577" s="21" t="s">
@@ -11015,7 +11015,7 @@
       <c r="B578" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C578" s="21" t="s">
+      <c r="C578" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D578" s="21" t="s">
@@ -11033,7 +11033,7 @@
       <c r="B579" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C579" s="21" t="s">
+      <c r="C579" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D579" s="21" t="s">
@@ -11051,7 +11051,7 @@
       <c r="B580" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C580" s="21" t="s">
+      <c r="C580" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D580" s="21" t="s">
@@ -11069,7 +11069,7 @@
       <c r="B581" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C581" s="20" t="s">
+      <c r="C581" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D581" s="20" t="s">
@@ -11087,7 +11087,7 @@
       <c r="B582" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C582" s="20" t="s">
+      <c r="C582" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D582" s="20" t="s">
@@ -11105,7 +11105,7 @@
       <c r="B583" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C583" s="21" t="s">
+      <c r="C583" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D583" s="21" t="s">
@@ -11123,7 +11123,7 @@
       <c r="B584" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C584" s="21" t="s">
+      <c r="C584" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D584" s="21" t="s">
@@ -11141,7 +11141,7 @@
       <c r="B585" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C585" s="21" t="s">
+      <c r="C585" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D585" s="21" t="s">
@@ -11159,7 +11159,7 @@
       <c r="B586" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C586" s="21" t="s">
+      <c r="C586" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D586" s="21" t="s">
@@ -11177,7 +11177,7 @@
       <c r="B587" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C587" s="21" t="s">
+      <c r="C587" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D587" s="21" t="s">
@@ -11195,7 +11195,7 @@
       <c r="B588" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C588" s="21" t="s">
+      <c r="C588" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D588" s="21" t="s">
@@ -11213,7 +11213,7 @@
       <c r="B589" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C589" s="21" t="s">
+      <c r="C589" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D589" s="21" t="s">
@@ -11231,7 +11231,7 @@
       <c r="B590" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C590" s="21" t="s">
+      <c r="C590" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D590" s="21" t="s">
@@ -11249,7 +11249,7 @@
       <c r="B591" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C591" s="21" t="s">
+      <c r="C591" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D591" s="21" t="s">
@@ -11267,7 +11267,7 @@
       <c r="B592" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C592" s="20" t="s">
+      <c r="C592" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D592" s="20" t="s">
@@ -11285,7 +11285,7 @@
       <c r="B593" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C593" s="20" t="s">
+      <c r="C593" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D593" s="20" t="s">
@@ -11303,7 +11303,7 @@
       <c r="B594" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C594" s="21" t="s">
+      <c r="C594" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D594" s="21" t="s">
@@ -11321,7 +11321,7 @@
       <c r="B595" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C595" s="21" t="s">
+      <c r="C595" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D595" s="21" t="s">
@@ -11339,7 +11339,7 @@
       <c r="B596" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C596" s="21" t="s">
+      <c r="C596" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D596" s="21" t="s">
@@ -11357,7 +11357,7 @@
       <c r="B597" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C597" s="21" t="s">
+      <c r="C597" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D597" s="21" t="s">
@@ -11375,7 +11375,7 @@
       <c r="B598" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C598" s="21" t="s">
+      <c r="C598" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D598" s="21" t="s">
@@ -11391,7 +11391,7 @@
       <c r="B599" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C599" s="21" t="s">
+      <c r="C599" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D599" s="21" t="s">
@@ -11409,7 +11409,7 @@
       <c r="B600" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C600" s="21" t="s">
+      <c r="C600" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D600" s="21" t="s">
@@ -11427,7 +11427,7 @@
       <c r="B601" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C601" s="21" t="s">
+      <c r="C601" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D601" s="21" t="s">
@@ -11445,7 +11445,7 @@
       <c r="B602" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C602" s="21" t="s">
+      <c r="C602" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D602" s="21" t="s">
@@ -11463,7 +11463,7 @@
       <c r="B603" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C603" s="20" t="s">
+      <c r="C603" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D603" s="20" t="s">
@@ -11481,7 +11481,7 @@
       <c r="B604" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C604" s="20" t="s">
+      <c r="C604" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D604" s="20" t="s">
@@ -11499,7 +11499,7 @@
       <c r="B605" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C605" s="21" t="s">
+      <c r="C605" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D605" s="21" t="s">
@@ -11517,7 +11517,7 @@
       <c r="B606" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C606" s="21" t="s">
+      <c r="C606" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D606" s="21" t="s">
@@ -11535,7 +11535,7 @@
       <c r="B607" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C607" s="21" t="s">
+      <c r="C607" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D607" s="21" t="s">
@@ -11553,7 +11553,7 @@
       <c r="B608" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C608" s="21" t="s">
+      <c r="C608" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D608" s="21" t="s">
@@ -11571,7 +11571,7 @@
       <c r="B609" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C609" s="21" t="s">
+      <c r="C609" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D609" s="21" t="s">
@@ -11589,7 +11589,7 @@
       <c r="B610" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C610" s="21" t="s">
+      <c r="C610" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D610" s="21" t="s">
@@ -11607,7 +11607,7 @@
       <c r="B611" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C611" s="21" t="s">
+      <c r="C611" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D611" s="21" t="s">
@@ -11625,7 +11625,7 @@
       <c r="B612" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C612" s="21" t="s">
+      <c r="C612" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D612" s="21" t="s">
@@ -11643,7 +11643,7 @@
       <c r="B613" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C613" s="21" t="s">
+      <c r="C613" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D613" s="21" t="s">
@@ -11661,7 +11661,7 @@
       <c r="B614" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C614" s="20" t="s">
+      <c r="C614" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D614" s="20" t="s">
@@ -11679,7 +11679,7 @@
       <c r="B615" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C615" s="20" t="s">
+      <c r="C615" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D615" s="20" t="s">
@@ -11697,7 +11697,7 @@
       <c r="B616" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C616" s="21" t="s">
+      <c r="C616" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D616" s="21" t="s">
@@ -11715,7 +11715,7 @@
       <c r="B617" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C617" s="21" t="s">
+      <c r="C617" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D617" s="21" t="s">
@@ -11733,7 +11733,7 @@
       <c r="B618" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C618" s="21" t="s">
+      <c r="C618" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D618" s="21" t="s">
@@ -11751,7 +11751,7 @@
       <c r="B619" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C619" s="21" t="s">
+      <c r="C619" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D619" s="21" t="s">
@@ -11769,7 +11769,7 @@
       <c r="B620" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C620" s="21" t="s">
+      <c r="C620" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D620" s="21" t="s">
@@ -11787,7 +11787,7 @@
       <c r="B621" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C621" s="21" t="s">
+      <c r="C621" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D621" s="21" t="s">
@@ -11805,7 +11805,7 @@
       <c r="B622" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C622" s="21" t="s">
+      <c r="C622" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D622" s="21" t="s">
@@ -11823,7 +11823,7 @@
       <c r="B623" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C623" s="21" t="s">
+      <c r="C623" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D623" s="21" t="s">
@@ -11841,7 +11841,7 @@
       <c r="B624" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C624" s="21" t="s">
+      <c r="C624" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D624" s="21" t="s">
@@ -11859,7 +11859,7 @@
       <c r="B625" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C625" s="20" t="s">
+      <c r="C625" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D625" s="20" t="s">
@@ -11877,7 +11877,7 @@
       <c r="B626" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C626" s="20" t="s">
+      <c r="C626" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D626" s="20" t="s">
@@ -11895,7 +11895,7 @@
       <c r="B627" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C627" s="21" t="s">
+      <c r="C627" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D627" s="21" t="s">
@@ -11913,7 +11913,7 @@
       <c r="B628" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C628" s="21" t="s">
+      <c r="C628" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D628" s="21" t="s">
@@ -11931,7 +11931,7 @@
       <c r="B629" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C629" s="21" t="s">
+      <c r="C629" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D629" s="21" t="s">
@@ -11947,7 +11947,7 @@
       <c r="B630" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C630" s="21" t="s">
+      <c r="C630" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D630" s="21" t="s">
@@ -11965,7 +11965,7 @@
       <c r="B631" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C631" s="21" t="s">
+      <c r="C631" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D631" s="21" t="s">
@@ -11983,7 +11983,7 @@
       <c r="B632" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C632" s="21" t="s">
+      <c r="C632" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D632" s="21" t="s">
@@ -12001,7 +12001,7 @@
       <c r="B633" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C633" s="21" t="s">
+      <c r="C633" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D633" s="21" t="s">
@@ -12019,7 +12019,7 @@
       <c r="B634" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C634" s="21" t="s">
+      <c r="C634" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D634" s="21" t="s">
@@ -12037,7 +12037,7 @@
       <c r="B635" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C635" s="21" t="s">
+      <c r="C635" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D635" s="21" t="s">
@@ -12055,7 +12055,7 @@
       <c r="B636" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C636" s="20" t="s">
+      <c r="C636" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D636" s="20" t="s">
@@ -12073,7 +12073,7 @@
       <c r="B637" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C637" s="20" t="s">
+      <c r="C637" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D637" s="20" t="s">
@@ -12091,7 +12091,7 @@
       <c r="B638" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C638" s="21" t="s">
+      <c r="C638" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D638" s="21" t="s">
@@ -12109,7 +12109,7 @@
       <c r="B639" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C639" s="21" t="s">
+      <c r="C639" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D639" s="21" t="s">
@@ -12127,7 +12127,7 @@
       <c r="B640" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C640" s="21" t="s">
+      <c r="C640" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D640" s="21" t="s">
@@ -12145,7 +12145,7 @@
       <c r="B641" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C641" s="21" t="s">
+      <c r="C641" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D641" s="21" t="s">
@@ -12163,7 +12163,7 @@
       <c r="B642" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C642" s="21" t="s">
+      <c r="C642" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D642" s="21" t="s">
@@ -12181,7 +12181,7 @@
       <c r="B643" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C643" s="21" t="s">
+      <c r="C643" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D643" s="21" t="s">
@@ -12199,7 +12199,7 @@
       <c r="B644" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C644" s="21" t="s">
+      <c r="C644" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D644" s="21" t="s">
@@ -12217,7 +12217,7 @@
       <c r="B645" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C645" s="21" t="s">
+      <c r="C645" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D645" s="21" t="s">
@@ -12235,7 +12235,7 @@
       <c r="B646" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C646" s="21" t="s">
+      <c r="C646" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D646" s="21" t="s">
@@ -12253,7 +12253,7 @@
       <c r="B647" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C647" s="20" t="s">
+      <c r="C647" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D647" s="20" t="s">
@@ -12271,7 +12271,7 @@
       <c r="B648" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C648" s="20" t="s">
+      <c r="C648" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D648" s="20" t="s">
@@ -12289,7 +12289,7 @@
       <c r="B649" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C649" s="21" t="s">
+      <c r="C649" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D649" s="21" t="s">
@@ -12307,7 +12307,7 @@
       <c r="B650" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C650" s="21" t="s">
+      <c r="C650" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D650" s="21" t="s">
@@ -12325,7 +12325,7 @@
       <c r="B651" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C651" s="21" t="s">
+      <c r="C651" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D651" s="21" t="s">
@@ -12343,7 +12343,7 @@
       <c r="B652" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C652" s="21" t="s">
+      <c r="C652" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D652" s="21" t="s">
@@ -12361,7 +12361,7 @@
       <c r="B653" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C653" s="21" t="s">
+      <c r="C653" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D653" s="21" t="s">
@@ -12379,7 +12379,7 @@
       <c r="B654" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C654" s="21" t="s">
+      <c r="C654" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D654" s="21" t="s">
@@ -12397,7 +12397,7 @@
       <c r="B655" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C655" s="21" t="s">
+      <c r="C655" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D655" s="21" t="s">
@@ -12415,7 +12415,7 @@
       <c r="B656" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C656" s="21" t="s">
+      <c r="C656" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D656" s="21" t="s">
@@ -12433,7 +12433,7 @@
       <c r="B657" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C657" s="21" t="s">
+      <c r="C657" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D657" s="21" t="s">
@@ -12451,7 +12451,7 @@
       <c r="B658" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C658" s="20" t="s">
+      <c r="C658" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D658" s="20" t="s">
@@ -12469,7 +12469,7 @@
       <c r="B659" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C659" s="20" t="s">
+      <c r="C659" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D659" s="20" t="s">
@@ -12487,7 +12487,7 @@
       <c r="B660" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C660" s="21" t="s">
+      <c r="C660" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D660" s="21" t="s">
@@ -12503,7 +12503,7 @@
       <c r="B661" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C661" s="21" t="s">
+      <c r="C661" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D661" s="21" t="s">
@@ -12521,7 +12521,7 @@
       <c r="B662" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C662" s="21" t="s">
+      <c r="C662" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D662" s="21" t="s">
@@ -12539,7 +12539,7 @@
       <c r="B663" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C663" s="21" t="s">
+      <c r="C663" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D663" s="21" t="s">
@@ -12557,7 +12557,7 @@
       <c r="B664" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C664" s="21" t="s">
+      <c r="C664" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D664" s="21" t="s">
@@ -12575,7 +12575,7 @@
       <c r="B665" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C665" s="21" t="s">
+      <c r="C665" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D665" s="21" t="s">
@@ -12593,7 +12593,7 @@
       <c r="B666" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C666" s="21" t="s">
+      <c r="C666" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D666" s="21" t="s">
@@ -12611,7 +12611,7 @@
       <c r="B667" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C667" s="21" t="s">
+      <c r="C667" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D667" s="21" t="s">
@@ -12629,7 +12629,7 @@
       <c r="B668" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C668" s="21" t="s">
+      <c r="C668" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D668" s="21" t="s">
@@ -12647,7 +12647,7 @@
       <c r="B669" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C669" s="20" t="s">
+      <c r="C669" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D669" s="20" t="s">
@@ -12665,7 +12665,7 @@
       <c r="B670" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C670" s="20" t="s">
+      <c r="C670" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D670" s="20" t="s">
@@ -12683,7 +12683,7 @@
       <c r="B671" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C671" s="21" t="s">
+      <c r="C671" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D671" s="21" t="s">
@@ -12701,7 +12701,7 @@
       <c r="B672" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C672" s="21" t="s">
+      <c r="C672" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D672" s="21" t="s">
@@ -12719,7 +12719,7 @@
       <c r="B673" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C673" s="21" t="s">
+      <c r="C673" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D673" s="21" t="s">
@@ -12737,7 +12737,7 @@
       <c r="B674" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C674" s="21" t="s">
+      <c r="C674" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D674" s="21" t="s">
@@ -12755,7 +12755,7 @@
       <c r="B675" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C675" s="21" t="s">
+      <c r="C675" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D675" s="21" t="s">
@@ -12773,7 +12773,7 @@
       <c r="B676" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C676" s="21" t="s">
+      <c r="C676" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D676" s="21" t="s">
@@ -12791,7 +12791,7 @@
       <c r="B677" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C677" s="21" t="s">
+      <c r="C677" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D677" s="21" t="s">
@@ -12809,7 +12809,7 @@
       <c r="B678" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C678" s="21" t="s">
+      <c r="C678" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D678" s="21" t="s">
@@ -12827,7 +12827,7 @@
       <c r="B679" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C679" s="21" t="s">
+      <c r="C679" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D679" s="21" t="s">
@@ -12845,7 +12845,7 @@
       <c r="B680" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C680" s="20" t="s">
+      <c r="C680" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D680" s="20" t="s">
@@ -12863,7 +12863,7 @@
       <c r="B681" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C681" s="20" t="s">
+      <c r="C681" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D681" s="20" t="s">
@@ -12881,7 +12881,7 @@
       <c r="B682" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C682" s="21" t="s">
+      <c r="C682" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D682" s="21" t="s">
@@ -12899,7 +12899,7 @@
       <c r="B683" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C683" s="21" t="s">
+      <c r="C683" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D683" s="21" t="s">
@@ -12917,7 +12917,7 @@
       <c r="B684" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C684" s="21" t="s">
+      <c r="C684" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D684" s="21" t="s">
@@ -12935,7 +12935,7 @@
       <c r="B685" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C685" s="21" t="s">
+      <c r="C685" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D685" s="21" t="s">
@@ -12953,7 +12953,7 @@
       <c r="B686" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C686" s="21" t="s">
+      <c r="C686" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D686" s="21" t="s">
@@ -12971,7 +12971,7 @@
       <c r="B687" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C687" s="21" t="s">
+      <c r="C687" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D687" s="21" t="s">
@@ -12989,7 +12989,7 @@
       <c r="B688" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C688" s="21" t="s">
+      <c r="C688" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D688" s="21" t="s">
@@ -13007,7 +13007,7 @@
       <c r="B689" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C689" s="21" t="s">
+      <c r="C689" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D689" s="21" t="s">
@@ -13025,7 +13025,7 @@
       <c r="B690" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C690" s="21" t="s">
+      <c r="C690" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D690" s="21" t="s">
@@ -13043,7 +13043,7 @@
       <c r="B691" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C691" s="20" t="s">
+      <c r="C691" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D691" s="20" t="s">
@@ -13059,7 +13059,7 @@
       <c r="B692" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C692" s="20" t="s">
+      <c r="C692" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D692" s="20" t="s">
@@ -13077,7 +13077,7 @@
       <c r="B693" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C693" s="21" t="s">
+      <c r="C693" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D693" s="21" t="s">
@@ -13095,7 +13095,7 @@
       <c r="B694" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C694" s="21" t="s">
+      <c r="C694" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D694" s="21" t="s">
@@ -13113,7 +13113,7 @@
       <c r="B695" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C695" s="21" t="s">
+      <c r="C695" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D695" s="21" t="s">
@@ -13131,7 +13131,7 @@
       <c r="B696" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C696" s="21" t="s">
+      <c r="C696" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D696" s="21" t="s">
@@ -13149,7 +13149,7 @@
       <c r="B697" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C697" s="21" t="s">
+      <c r="C697" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D697" s="21" t="s">
@@ -13167,7 +13167,7 @@
       <c r="B698" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C698" s="21" t="s">
+      <c r="C698" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D698" s="21" t="s">
@@ -13185,7 +13185,7 @@
       <c r="B699" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C699" s="21" t="s">
+      <c r="C699" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D699" s="21" t="s">
@@ -13203,7 +13203,7 @@
       <c r="B700" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C700" s="21" t="s">
+      <c r="C700" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D700" s="21" t="s">
@@ -13221,7 +13221,7 @@
       <c r="B701" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C701" s="21" t="s">
+      <c r="C701" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D701" s="21" t="s">
@@ -13239,7 +13239,7 @@
       <c r="B702" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C702" s="20" t="s">
+      <c r="C702" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D702" s="20" t="s">
@@ -13257,7 +13257,7 @@
       <c r="B703" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C703" s="20" t="s">
+      <c r="C703" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D703" s="20" t="s">
@@ -13275,7 +13275,7 @@
       <c r="B704" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C704" s="21" t="s">
+      <c r="C704" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D704" s="21" t="s">
@@ -13291,7 +13291,7 @@
         <v>16</v>
       </c>
       <c r="B705" s="20"/>
-      <c r="C705" s="20"/>
+      <c r="C705" s="42"/>
       <c r="D705" s="20"/>
       <c r="E705" s="15"/>
       <c r="F705" s="15"/>
@@ -13305,7 +13305,7 @@
       <c r="B706" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C706" s="20" t="s">
+      <c r="C706" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D706" s="20" t="s">
@@ -13323,7 +13323,7 @@
       <c r="B707" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C707" s="21" t="s">
+      <c r="C707" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D707" s="21" t="s">
@@ -13341,7 +13341,7 @@
       <c r="B708" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C708" s="21" t="s">
+      <c r="C708" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D708" s="21" t="s">
@@ -13359,7 +13359,7 @@
       <c r="B709" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C709" s="21" t="s">
+      <c r="C709" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D709" s="21" t="s">
@@ -13377,7 +13377,7 @@
       <c r="B710" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C710" s="21" t="s">
+      <c r="C710" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D710" s="21" t="s">
@@ -13395,7 +13395,7 @@
       <c r="B711" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C711" s="21" t="s">
+      <c r="C711" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D711" s="21" t="s">
@@ -13413,7 +13413,7 @@
       <c r="B712" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C712" s="21" t="s">
+      <c r="C712" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D712" s="21" t="s">
@@ -13431,7 +13431,7 @@
       <c r="B713" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C713" s="21" t="s">
+      <c r="C713" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D713" s="21" t="s">
@@ -13449,7 +13449,7 @@
       <c r="B714" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C714" s="21" t="s">
+      <c r="C714" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D714" s="21" t="s">
@@ -13467,7 +13467,7 @@
       <c r="B715" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C715" s="21" t="s">
+      <c r="C715" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D715" s="21" t="s">
@@ -13485,7 +13485,7 @@
       <c r="B716" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C716" s="20" t="s">
+      <c r="C716" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D716" s="20" t="s">
@@ -13503,7 +13503,7 @@
       <c r="B717" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C717" s="20" t="s">
+      <c r="C717" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D717" s="20" t="s">
@@ -13521,7 +13521,7 @@
       <c r="B718" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C718" s="21" t="s">
+      <c r="C718" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D718" s="21" t="s">
@@ -13539,7 +13539,7 @@
       <c r="B719" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C719" s="21" t="s">
+      <c r="C719" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D719" s="21" t="s">
@@ -13557,7 +13557,7 @@
       <c r="B720" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C720" s="21" t="s">
+      <c r="C720" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D720" s="21" t="s">
@@ -13575,7 +13575,7 @@
       <c r="B721" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C721" s="21" t="s">
+      <c r="C721" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D721" s="21" t="s">
@@ -13593,7 +13593,7 @@
       <c r="B722" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C722" s="21" t="s">
+      <c r="C722" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D722" s="21" t="s">
@@ -13609,7 +13609,7 @@
       <c r="B723" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C723" s="21" t="s">
+      <c r="C723" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D723" s="21" t="s">
@@ -13627,7 +13627,7 @@
       <c r="B724" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C724" s="21" t="s">
+      <c r="C724" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D724" s="21" t="s">
@@ -13645,7 +13645,7 @@
       <c r="B725" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C725" s="21" t="s">
+      <c r="C725" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D725" s="21" t="s">
@@ -13663,7 +13663,7 @@
       <c r="B726" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C726" s="21" t="s">
+      <c r="C726" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D726" s="21" t="s">
@@ -13681,7 +13681,7 @@
       <c r="B727" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C727" s="20" t="s">
+      <c r="C727" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D727" s="20" t="s">
@@ -13699,7 +13699,7 @@
       <c r="B728" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C728" s="20" t="s">
+      <c r="C728" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D728" s="20" t="s">
@@ -13717,7 +13717,7 @@
       <c r="B729" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C729" s="21" t="s">
+      <c r="C729" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D729" s="21" t="s">
@@ -13735,7 +13735,7 @@
       <c r="B730" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C730" s="21" t="s">
+      <c r="C730" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D730" s="21" t="s">
@@ -13753,7 +13753,7 @@
       <c r="B731" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C731" s="21" t="s">
+      <c r="C731" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D731" s="21" t="s">
@@ -13771,7 +13771,7 @@
       <c r="B732" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C732" s="21" t="s">
+      <c r="C732" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D732" s="21" t="s">
@@ -13789,7 +13789,7 @@
       <c r="B733" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C733" s="21" t="s">
+      <c r="C733" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D733" s="21" t="s">
@@ -13807,7 +13807,7 @@
       <c r="B734" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C734" s="21" t="s">
+      <c r="C734" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D734" s="21" t="s">
@@ -13825,7 +13825,7 @@
       <c r="B735" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C735" s="21" t="s">
+      <c r="C735" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D735" s="21" t="s">
@@ -13843,7 +13843,7 @@
       <c r="B736" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C736" s="21" t="s">
+      <c r="C736" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D736" s="21" t="s">
@@ -13861,7 +13861,7 @@
       <c r="B737" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C737" s="21" t="s">
+      <c r="C737" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D737" s="21" t="s">
@@ -13879,7 +13879,7 @@
       <c r="B738" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C738" s="20" t="s">
+      <c r="C738" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D738" s="20" t="s">
@@ -13897,7 +13897,7 @@
       <c r="B739" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C739" s="20" t="s">
+      <c r="C739" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D739" s="20" t="s">
@@ -13915,7 +13915,7 @@
       <c r="B740" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C740" s="21" t="s">
+      <c r="C740" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D740" s="21" t="s">
@@ -13933,7 +13933,7 @@
       <c r="B741" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C741" s="21" t="s">
+      <c r="C741" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D741" s="21" t="s">
@@ -13951,7 +13951,7 @@
       <c r="B742" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C742" s="21" t="s">
+      <c r="C742" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D742" s="21" t="s">
@@ -13969,7 +13969,7 @@
       <c r="B743" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C743" s="21" t="s">
+      <c r="C743" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D743" s="21" t="s">
@@ -13987,7 +13987,7 @@
       <c r="B744" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C744" s="21" t="s">
+      <c r="C744" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D744" s="21" t="s">
@@ -14005,7 +14005,7 @@
       <c r="B745" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C745" s="21" t="s">
+      <c r="C745" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D745" s="21" t="s">
@@ -14023,7 +14023,7 @@
       <c r="B746" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C746" s="21" t="s">
+      <c r="C746" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D746" s="21" t="s">
@@ -14041,7 +14041,7 @@
       <c r="B747" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C747" s="21" t="s">
+      <c r="C747" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D747" s="21" t="s">
@@ -14059,7 +14059,7 @@
       <c r="B748" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C748" s="21" t="s">
+      <c r="C748" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D748" s="21" t="s">
@@ -14077,7 +14077,7 @@
       <c r="B749" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C749" s="20" t="s">
+      <c r="C749" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D749" s="20" t="s">
@@ -14095,7 +14095,7 @@
       <c r="B750" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C750" s="20" t="s">
+      <c r="C750" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D750" s="20" t="s">
@@ -14113,7 +14113,7 @@
       <c r="B751" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C751" s="21" t="s">
+      <c r="C751" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D751" s="21" t="s">
@@ -14131,7 +14131,7 @@
       <c r="B752" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C752" s="21" t="s">
+      <c r="C752" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D752" s="21" t="s">
@@ -14149,7 +14149,7 @@
       <c r="B753" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C753" s="21" t="s">
+      <c r="C753" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D753" s="21" t="s">
@@ -14167,7 +14167,7 @@
       <c r="B754" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C754" s="21" t="s">
+      <c r="C754" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D754" s="21" t="s">
@@ -14185,7 +14185,7 @@
       <c r="B755" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C755" s="21" t="s">
+      <c r="C755" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D755" s="21" t="s">
@@ -14203,7 +14203,7 @@
       <c r="B756" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C756" s="21" t="s">
+      <c r="C756" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D756" s="21" t="s">
@@ -14221,7 +14221,7 @@
       <c r="B757" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C757" s="21" t="s">
+      <c r="C757" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D757" s="21" t="s">
@@ -14239,7 +14239,7 @@
       <c r="B758" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C758" s="21" t="s">
+      <c r="C758" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D758" s="21" t="s">
@@ -14257,7 +14257,7 @@
       <c r="B759" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C759" s="21" t="s">
+      <c r="C759" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D759" s="21" t="s">
@@ -14275,7 +14275,7 @@
       <c r="B760" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C760" s="20" t="s">
+      <c r="C760" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D760" s="20" t="s">
@@ -14293,7 +14293,7 @@
       <c r="B761" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C761" s="20" t="s">
+      <c r="C761" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D761" s="20" t="s">
@@ -14311,7 +14311,7 @@
       <c r="B762" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C762" s="21" t="s">
+      <c r="C762" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D762" s="21" t="s">
@@ -14329,7 +14329,7 @@
       <c r="B763" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C763" s="21" t="s">
+      <c r="C763" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D763" s="21" t="s">
@@ -14347,7 +14347,7 @@
       <c r="B764" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C764" s="21" t="s">
+      <c r="C764" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D764" s="21" t="s">
@@ -14365,7 +14365,7 @@
       <c r="B765" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C765" s="21" t="s">
+      <c r="C765" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D765" s="21" t="s">
@@ -14383,7 +14383,7 @@
       <c r="B766" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C766" s="21" t="s">
+      <c r="C766" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D766" s="21" t="s">
@@ -14401,7 +14401,7 @@
       <c r="B767" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C767" s="21" t="s">
+      <c r="C767" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D767" s="21" t="s">
@@ -14419,7 +14419,7 @@
       <c r="B768" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C768" s="21" t="s">
+      <c r="C768" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D768" s="21" t="s">
@@ -14437,7 +14437,7 @@
       <c r="B769" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C769" s="21" t="s">
+      <c r="C769" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D769" s="21" t="s">
@@ -14455,7 +14455,7 @@
       <c r="B770" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C770" s="21" t="s">
+      <c r="C770" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D770" s="21" t="s">
@@ -14473,7 +14473,7 @@
       <c r="B771" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C771" s="20" t="s">
+      <c r="C771" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D771" s="20" t="s">
@@ -14491,7 +14491,7 @@
       <c r="B772" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C772" s="20" t="s">
+      <c r="C772" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D772" s="20" t="s">
@@ -14509,7 +14509,7 @@
       <c r="B773" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C773" s="21" t="s">
+      <c r="C773" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D773" s="21" t="s">
@@ -14527,7 +14527,7 @@
       <c r="B774" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C774" s="21" t="s">
+      <c r="C774" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D774" s="21" t="s">
@@ -14545,7 +14545,7 @@
       <c r="B775" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C775" s="21" t="s">
+      <c r="C775" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D775" s="21" t="s">
@@ -14563,7 +14563,7 @@
       <c r="B776" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C776" s="21" t="s">
+      <c r="C776" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D776" s="21" t="s">
@@ -14581,7 +14581,7 @@
       <c r="B777" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C777" s="21" t="s">
+      <c r="C777" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D777" s="21" t="s">
@@ -14599,7 +14599,7 @@
       <c r="B778" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C778" s="21" t="s">
+      <c r="C778" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D778" s="21" t="s">
@@ -14617,7 +14617,7 @@
       <c r="B779" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C779" s="21" t="s">
+      <c r="C779" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D779" s="21" t="s">
@@ -14635,7 +14635,7 @@
       <c r="B780" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C780" s="21" t="s">
+      <c r="C780" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D780" s="21" t="s">
@@ -14653,7 +14653,7 @@
       <c r="B781" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C781" s="21" t="s">
+      <c r="C781" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D781" s="21" t="s">
@@ -14671,7 +14671,7 @@
       <c r="B782" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C782" s="20" t="s">
+      <c r="C782" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D782" s="20" t="s">
@@ -14687,7 +14687,7 @@
       <c r="B783" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C783" s="20" t="s">
+      <c r="C783" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D783" s="20" t="s">
@@ -14705,7 +14705,7 @@
       <c r="B784" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C784" s="21" t="s">
+      <c r="C784" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D784" s="21" t="s">
@@ -14723,7 +14723,7 @@
       <c r="B785" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C785" s="21" t="s">
+      <c r="C785" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D785" s="21" t="s">
@@ -14741,7 +14741,7 @@
       <c r="B786" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C786" s="21" t="s">
+      <c r="C786" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D786" s="21" t="s">
@@ -14759,7 +14759,7 @@
       <c r="B787" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C787" s="21" t="s">
+      <c r="C787" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D787" s="21" t="s">
@@ -14777,7 +14777,7 @@
       <c r="B788" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C788" s="21" t="s">
+      <c r="C788" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D788" s="21" t="s">
@@ -14795,7 +14795,7 @@
       <c r="B789" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C789" s="21" t="s">
+      <c r="C789" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D789" s="21" t="s">
@@ -14813,7 +14813,7 @@
       <c r="B790" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C790" s="21" t="s">
+      <c r="C790" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D790" s="21" t="s">
@@ -14831,7 +14831,7 @@
       <c r="B791" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C791" s="21" t="s">
+      <c r="C791" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D791" s="21" t="s">
@@ -14849,7 +14849,7 @@
       <c r="B792" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C792" s="21" t="s">
+      <c r="C792" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D792" s="21" t="s">
@@ -14867,7 +14867,7 @@
       <c r="B793" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C793" s="20" t="s">
+      <c r="C793" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D793" s="20" t="s">
@@ -14885,7 +14885,7 @@
       <c r="B794" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C794" s="20" t="s">
+      <c r="C794" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D794" s="20" t="s">
@@ -14903,7 +14903,7 @@
       <c r="B795" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C795" s="21" t="s">
+      <c r="C795" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D795" s="21" t="s">
@@ -14921,7 +14921,7 @@
       <c r="B796" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C796" s="21" t="s">
+      <c r="C796" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D796" s="21" t="s">
@@ -14939,7 +14939,7 @@
       <c r="B797" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C797" s="21" t="s">
+      <c r="C797" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D797" s="21" t="s">
@@ -14957,7 +14957,7 @@
       <c r="B798" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C798" s="21" t="s">
+      <c r="C798" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D798" s="21" t="s">
@@ -14975,7 +14975,7 @@
       <c r="B799" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C799" s="21" t="s">
+      <c r="C799" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D799" s="21" t="s">
@@ -14993,7 +14993,7 @@
       <c r="B800" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C800" s="21" t="s">
+      <c r="C800" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D800" s="21" t="s">
@@ -15011,7 +15011,7 @@
       <c r="B801" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C801" s="21" t="s">
+      <c r="C801" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D801" s="21" t="s">
@@ -15029,7 +15029,7 @@
       <c r="B802" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C802" s="21" t="s">
+      <c r="C802" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D802" s="21" t="s">
@@ -15047,7 +15047,7 @@
       <c r="B803" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C803" s="21" t="s">
+      <c r="C803" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D803" s="21" t="s">
@@ -15065,7 +15065,7 @@
       <c r="B804" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C804" s="20" t="s">
+      <c r="C804" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D804" s="20" t="s">
@@ -15083,7 +15083,7 @@
       <c r="B805" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C805" s="20" t="s">
+      <c r="C805" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D805" s="20" t="s">
@@ -15101,7 +15101,7 @@
       <c r="B806" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C806" s="21" t="s">
+      <c r="C806" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D806" s="21" t="s">
@@ -15119,7 +15119,7 @@
       <c r="B807" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C807" s="21" t="s">
+      <c r="C807" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D807" s="21" t="s">
@@ -15137,7 +15137,7 @@
       <c r="B808" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C808" s="21" t="s">
+      <c r="C808" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D808" s="21" t="s">
@@ -15155,7 +15155,7 @@
       <c r="B809" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C809" s="21" t="s">
+      <c r="C809" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D809" s="21" t="s">
@@ -15173,7 +15173,7 @@
       <c r="B810" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C810" s="21" t="s">
+      <c r="C810" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D810" s="21" t="s">
@@ -15191,7 +15191,7 @@
       <c r="B811" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C811" s="21" t="s">
+      <c r="C811" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D811" s="21" t="s">
@@ -15209,7 +15209,7 @@
       <c r="B812" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C812" s="21" t="s">
+      <c r="C812" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D812" s="21" t="s">
@@ -15227,7 +15227,7 @@
       <c r="B813" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C813" s="21" t="s">
+      <c r="C813" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D813" s="21" t="s">
@@ -15243,7 +15243,7 @@
       <c r="B814" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C814" s="21" t="s">
+      <c r="C814" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D814" s="21" t="s">
@@ -15261,7 +15261,7 @@
       <c r="B815" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C815" s="20" t="s">
+      <c r="C815" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D815" s="20" t="s">
@@ -15279,7 +15279,7 @@
       <c r="B816" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C816" s="20" t="s">
+      <c r="C816" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D816" s="20" t="s">
@@ -15297,7 +15297,7 @@
       <c r="B817" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C817" s="21" t="s">
+      <c r="C817" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D817" s="21" t="s">
@@ -15315,7 +15315,7 @@
       <c r="B818" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C818" s="21" t="s">
+      <c r="C818" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D818" s="21" t="s">
@@ -15333,7 +15333,7 @@
       <c r="B819" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C819" s="21" t="s">
+      <c r="C819" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D819" s="21" t="s">
@@ -15351,7 +15351,7 @@
       <c r="B820" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C820" s="21" t="s">
+      <c r="C820" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D820" s="21" t="s">
@@ -15369,7 +15369,7 @@
       <c r="B821" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C821" s="21" t="s">
+      <c r="C821" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D821" s="21" t="s">
@@ -15387,7 +15387,7 @@
       <c r="B822" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C822" s="21" t="s">
+      <c r="C822" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D822" s="21" t="s">
@@ -15405,7 +15405,7 @@
       <c r="B823" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C823" s="21" t="s">
+      <c r="C823" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D823" s="21" t="s">
@@ -15423,7 +15423,7 @@
       <c r="B824" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C824" s="21" t="s">
+      <c r="C824" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D824" s="21" t="s">
@@ -15441,7 +15441,7 @@
       <c r="B825" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C825" s="21" t="s">
+      <c r="C825" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D825" s="21" t="s">
@@ -15459,7 +15459,7 @@
       <c r="B826" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C826" s="20" t="s">
+      <c r="C826" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D826" s="20" t="s">
@@ -15477,7 +15477,7 @@
       <c r="B827" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C827" s="20" t="s">
+      <c r="C827" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D827" s="20" t="s">
@@ -15495,7 +15495,7 @@
       <c r="B828" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C828" s="21" t="s">
+      <c r="C828" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D828" s="21" t="s">
@@ -15513,7 +15513,7 @@
       <c r="B829" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C829" s="21" t="s">
+      <c r="C829" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D829" s="21" t="s">
@@ -15531,7 +15531,7 @@
       <c r="B830" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C830" s="21" t="s">
+      <c r="C830" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D830" s="21" t="s">
@@ -15549,7 +15549,7 @@
       <c r="B831" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C831" s="21" t="s">
+      <c r="C831" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D831" s="21" t="s">
@@ -15567,7 +15567,7 @@
       <c r="B832" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C832" s="21" t="s">
+      <c r="C832" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D832" s="21" t="s">
@@ -15585,7 +15585,7 @@
       <c r="B833" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C833" s="21" t="s">
+      <c r="C833" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D833" s="21" t="s">
@@ -15603,7 +15603,7 @@
       <c r="B834" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C834" s="21" t="s">
+      <c r="C834" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D834" s="21" t="s">
@@ -15621,7 +15621,7 @@
       <c r="B835" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C835" s="21" t="s">
+      <c r="C835" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D835" s="21" t="s">
@@ -15639,7 +15639,7 @@
       <c r="B836" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C836" s="21" t="s">
+      <c r="C836" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D836" s="21" t="s">
@@ -15657,7 +15657,7 @@
       <c r="B837" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C837" s="20" t="s">
+      <c r="C837" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D837" s="20" t="s">
@@ -15675,7 +15675,7 @@
       <c r="B838" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C838" s="20" t="s">
+      <c r="C838" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D838" s="20" t="s">
@@ -15693,7 +15693,7 @@
       <c r="B839" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C839" s="21" t="s">
+      <c r="C839" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D839" s="21" t="s">
@@ -15711,7 +15711,7 @@
       <c r="B840" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C840" s="21" t="s">
+      <c r="C840" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D840" s="21" t="s">
@@ -15729,7 +15729,7 @@
       <c r="B841" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C841" s="21" t="s">
+      <c r="C841" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D841" s="21" t="s">
@@ -15747,7 +15747,7 @@
       <c r="B842" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C842" s="21" t="s">
+      <c r="C842" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D842" s="21" t="s">
@@ -15765,7 +15765,7 @@
       <c r="B843" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C843" s="21" t="s">
+      <c r="C843" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D843" s="21" t="s">
@@ -15783,7 +15783,7 @@
       <c r="B844" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C844" s="21" t="s">
+      <c r="C844" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D844" s="21" t="s">
@@ -15799,7 +15799,7 @@
       <c r="B845" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C845" s="21" t="s">
+      <c r="C845" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D845" s="21" t="s">
@@ -15817,7 +15817,7 @@
       <c r="B846" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C846" s="21" t="s">
+      <c r="C846" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D846" s="21" t="s">
@@ -15835,7 +15835,7 @@
       <c r="B847" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C847" s="21" t="s">
+      <c r="C847" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D847" s="21" t="s">
@@ -15853,7 +15853,7 @@
       <c r="B848" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C848" s="20" t="s">
+      <c r="C848" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D848" s="20" t="s">
@@ -15871,7 +15871,7 @@
       <c r="B849" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C849" s="20" t="s">
+      <c r="C849" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D849" s="20" t="s">
@@ -15889,7 +15889,7 @@
       <c r="B850" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C850" s="21" t="s">
+      <c r="C850" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D850" s="21" t="s">
@@ -15907,7 +15907,7 @@
       <c r="B851" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C851" s="21" t="s">
+      <c r="C851" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D851" s="21" t="s">
@@ -15925,7 +15925,7 @@
       <c r="B852" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C852" s="21" t="s">
+      <c r="C852" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D852" s="21" t="s">
@@ -15943,7 +15943,7 @@
       <c r="B853" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C853" s="21" t="s">
+      <c r="C853" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D853" s="21" t="s">
@@ -15961,7 +15961,7 @@
       <c r="B854" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C854" s="21" t="s">
+      <c r="C854" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D854" s="21" t="s">
@@ -15979,7 +15979,7 @@
       <c r="B855" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C855" s="21" t="s">
+      <c r="C855" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D855" s="21" t="s">
@@ -15997,7 +15997,7 @@
       <c r="B856" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C856" s="21" t="s">
+      <c r="C856" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D856" s="21" t="s">
@@ -16015,7 +16015,7 @@
       <c r="B857" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C857" s="21" t="s">
+      <c r="C857" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D857" s="21" t="s">
@@ -16033,7 +16033,7 @@
       <c r="B858" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C858" s="21" t="s">
+      <c r="C858" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D858" s="21" t="s">
@@ -16051,7 +16051,7 @@
       <c r="B859" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C859" s="20" t="s">
+      <c r="C859" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D859" s="20" t="s">
@@ -16069,7 +16069,7 @@
       <c r="B860" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C860" s="20" t="s">
+      <c r="C860" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D860" s="20" t="s">
@@ -16087,7 +16087,7 @@
       <c r="B861" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C861" s="21" t="s">
+      <c r="C861" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D861" s="21" t="s">
@@ -16105,7 +16105,7 @@
       <c r="B862" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C862" s="21" t="s">
+      <c r="C862" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D862" s="21" t="s">
@@ -16123,7 +16123,7 @@
       <c r="B863" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C863" s="21" t="s">
+      <c r="C863" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D863" s="21" t="s">
@@ -16141,7 +16141,7 @@
       <c r="B864" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C864" s="21" t="s">
+      <c r="C864" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D864" s="21" t="s">
@@ -16159,7 +16159,7 @@
       <c r="B865" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C865" s="21" t="s">
+      <c r="C865" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D865" s="21" t="s">
@@ -16177,7 +16177,7 @@
       <c r="B866" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C866" s="21" t="s">
+      <c r="C866" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D866" s="21" t="s">
@@ -16195,7 +16195,7 @@
       <c r="B867" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C867" s="21" t="s">
+      <c r="C867" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D867" s="21" t="s">
@@ -16213,7 +16213,7 @@
       <c r="B868" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C868" s="21" t="s">
+      <c r="C868" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D868" s="21" t="s">
@@ -16231,7 +16231,7 @@
       <c r="B869" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C869" s="21" t="s">
+      <c r="C869" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D869" s="21" t="s">
@@ -16249,7 +16249,7 @@
       <c r="B870" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C870" s="20" t="s">
+      <c r="C870" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D870" s="20" t="s">
@@ -16267,7 +16267,7 @@
       <c r="B871" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C871" s="20" t="s">
+      <c r="C871" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D871" s="20" t="s">
@@ -16285,7 +16285,7 @@
       <c r="B872" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C872" s="21" t="s">
+      <c r="C872" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D872" s="21" t="s">
@@ -16303,7 +16303,7 @@
       <c r="B873" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C873" s="21" t="s">
+      <c r="C873" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D873" s="21" t="s">
@@ -16321,7 +16321,7 @@
       <c r="B874" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C874" s="21" t="s">
+      <c r="C874" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D874" s="21" t="s">
@@ -16339,7 +16339,7 @@
       <c r="B875" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C875" s="21" t="s">
+      <c r="C875" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D875" s="21" t="s">
@@ -16355,7 +16355,7 @@
       <c r="B876" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C876" s="21" t="s">
+      <c r="C876" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D876" s="21" t="s">
@@ -16373,7 +16373,7 @@
       <c r="B877" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C877" s="21" t="s">
+      <c r="C877" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D877" s="21" t="s">
@@ -16391,7 +16391,7 @@
       <c r="B878" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C878" s="21" t="s">
+      <c r="C878" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D878" s="21" t="s">
@@ -16409,7 +16409,7 @@
       <c r="B879" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C879" s="21" t="s">
+      <c r="C879" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D879" s="21" t="s">
@@ -16427,7 +16427,7 @@
       <c r="B880" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C880" s="21" t="s">
+      <c r="C880" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D880" s="21" t="s">
@@ -16445,7 +16445,7 @@
       <c r="B881" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C881" s="20" t="s">
+      <c r="C881" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D881" s="20" t="s">
@@ -16463,7 +16463,7 @@
       <c r="B882" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C882" s="20" t="s">
+      <c r="C882" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D882" s="20" t="s">
@@ -16481,7 +16481,7 @@
       <c r="B883" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C883" s="21" t="s">
+      <c r="C883" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D883" s="21" t="s">
@@ -16499,7 +16499,7 @@
       <c r="B884" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C884" s="21" t="s">
+      <c r="C884" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D884" s="21" t="s">
@@ -16517,7 +16517,7 @@
       <c r="B885" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C885" s="21" t="s">
+      <c r="C885" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D885" s="21" t="s">
@@ -16535,7 +16535,7 @@
       <c r="B886" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C886" s="21" t="s">
+      <c r="C886" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D886" s="21" t="s">
@@ -16553,7 +16553,7 @@
       <c r="B887" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C887" s="21" t="s">
+      <c r="C887" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D887" s="21" t="s">
@@ -16571,7 +16571,7 @@
       <c r="B888" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C888" s="21" t="s">
+      <c r="C888" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D888" s="21" t="s">
@@ -16589,7 +16589,7 @@
       <c r="B889" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C889" s="21" t="s">
+      <c r="C889" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D889" s="21" t="s">
@@ -16607,7 +16607,7 @@
       <c r="B890" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C890" s="21" t="s">
+      <c r="C890" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D890" s="21" t="s">
@@ -16625,7 +16625,7 @@
       <c r="B891" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C891" s="21" t="s">
+      <c r="C891" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D891" s="21" t="s">
@@ -16643,7 +16643,7 @@
       <c r="B892" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C892" s="20" t="s">
+      <c r="C892" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D892" s="20" t="s">
@@ -16661,7 +16661,7 @@
       <c r="B893" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C893" s="20" t="s">
+      <c r="C893" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D893" s="20" t="s">
@@ -16679,7 +16679,7 @@
       <c r="B894" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C894" s="21" t="s">
+      <c r="C894" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D894" s="21" t="s">
@@ -16697,7 +16697,7 @@
       <c r="B895" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C895" s="21" t="s">
+      <c r="C895" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D895" s="21" t="s">
@@ -16715,7 +16715,7 @@
       <c r="B896" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C896" s="21" t="s">
+      <c r="C896" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D896" s="21" t="s">
@@ -16733,7 +16733,7 @@
       <c r="B897" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C897" s="21" t="s">
+      <c r="C897" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D897" s="21" t="s">
@@ -16751,7 +16751,7 @@
       <c r="B898" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C898" s="21" t="s">
+      <c r="C898" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D898" s="21" t="s">
@@ -16769,7 +16769,7 @@
       <c r="B899" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C899" s="21" t="s">
+      <c r="C899" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D899" s="21" t="s">
@@ -16787,7 +16787,7 @@
       <c r="B900" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C900" s="21" t="s">
+      <c r="C900" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D900" s="21" t="s">
@@ -16805,7 +16805,7 @@
       <c r="B901" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C901" s="21" t="s">
+      <c r="C901" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D901" s="21" t="s">
@@ -16823,7 +16823,7 @@
       <c r="B902" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C902" s="21" t="s">
+      <c r="C902" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D902" s="21" t="s">
@@ -16841,7 +16841,7 @@
       <c r="B903" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C903" s="20" t="s">
+      <c r="C903" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D903" s="20" t="s">
@@ -16859,7 +16859,7 @@
       <c r="B904" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C904" s="20" t="s">
+      <c r="C904" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D904" s="20" t="s">
@@ -16877,7 +16877,7 @@
       <c r="B905" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C905" s="21" t="s">
+      <c r="C905" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D905" s="21" t="s">
@@ -16895,7 +16895,7 @@
       <c r="B906" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C906" s="21" t="s">
+      <c r="C906" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D906" s="21" t="s">
@@ -16911,7 +16911,7 @@
       <c r="B907" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C907" s="21" t="s">
+      <c r="C907" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D907" s="21" t="s">
@@ -16929,7 +16929,7 @@
       <c r="B908" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C908" s="21" t="s">
+      <c r="C908" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D908" s="21" t="s">
@@ -16947,7 +16947,7 @@
       <c r="B909" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C909" s="21" t="s">
+      <c r="C909" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D909" s="21" t="s">
@@ -16965,7 +16965,7 @@
       <c r="B910" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C910" s="21" t="s">
+      <c r="C910" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D910" s="21" t="s">
@@ -16983,7 +16983,7 @@
       <c r="B911" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C911" s="21" t="s">
+      <c r="C911" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D911" s="21" t="s">
@@ -17001,7 +17001,7 @@
       <c r="B912" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C912" s="21" t="s">
+      <c r="C912" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D912" s="21" t="s">
@@ -17019,7 +17019,7 @@
       <c r="B913" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C913" s="21" t="s">
+      <c r="C913" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D913" s="21" t="s">
@@ -17037,7 +17037,7 @@
       <c r="B914" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C914" s="20" t="s">
+      <c r="C914" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D914" s="20" t="s">
@@ -17055,7 +17055,7 @@
       <c r="B915" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C915" s="20" t="s">
+      <c r="C915" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D915" s="20" t="s">
@@ -17073,7 +17073,7 @@
       <c r="B916" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C916" s="21" t="s">
+      <c r="C916" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D916" s="21" t="s">
@@ -17091,7 +17091,7 @@
       <c r="B917" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C917" s="21" t="s">
+      <c r="C917" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D917" s="21" t="s">
@@ -17109,7 +17109,7 @@
       <c r="B918" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C918" s="21" t="s">
+      <c r="C918" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D918" s="21" t="s">
@@ -17127,7 +17127,7 @@
       <c r="B919" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C919" s="21" t="s">
+      <c r="C919" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D919" s="21" t="s">
@@ -17145,7 +17145,7 @@
       <c r="B920" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C920" s="21" t="s">
+      <c r="C920" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D920" s="21" t="s">
@@ -17163,7 +17163,7 @@
       <c r="B921" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C921" s="21" t="s">
+      <c r="C921" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D921" s="21" t="s">
@@ -17181,7 +17181,7 @@
       <c r="B922" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C922" s="21" t="s">
+      <c r="C922" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D922" s="21" t="s">
@@ -17199,7 +17199,7 @@
       <c r="B923" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C923" s="21" t="s">
+      <c r="C923" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D923" s="21" t="s">
@@ -17217,7 +17217,7 @@
       <c r="B924" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C924" s="21" t="s">
+      <c r="C924" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D924" s="21" t="s">
@@ -17235,7 +17235,7 @@
       <c r="B925" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C925" s="20" t="s">
+      <c r="C925" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D925" s="20" t="s">
@@ -17253,7 +17253,7 @@
       <c r="B926" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C926" s="20" t="s">
+      <c r="C926" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D926" s="20" t="s">
@@ -17271,7 +17271,7 @@
       <c r="B927" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C927" s="21" t="s">
+      <c r="C927" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D927" s="21" t="s">
@@ -17289,7 +17289,7 @@
       <c r="B928" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C928" s="21" t="s">
+      <c r="C928" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D928" s="21" t="s">
@@ -17307,7 +17307,7 @@
       <c r="B929" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C929" s="21" t="s">
+      <c r="C929" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D929" s="21" t="s">
@@ -17325,7 +17325,7 @@
       <c r="B930" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C930" s="21" t="s">
+      <c r="C930" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D930" s="21" t="s">
@@ -17343,7 +17343,7 @@
       <c r="B931" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C931" s="21" t="s">
+      <c r="C931" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D931" s="21" t="s">
@@ -17361,7 +17361,7 @@
       <c r="B932" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C932" s="21" t="s">
+      <c r="C932" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D932" s="21" t="s">
@@ -17379,7 +17379,7 @@
       <c r="B933" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C933" s="21" t="s">
+      <c r="C933" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D933" s="21" t="s">
@@ -17397,7 +17397,7 @@
       <c r="B934" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C934" s="21" t="s">
+      <c r="C934" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D934" s="21" t="s">
@@ -17415,7 +17415,7 @@
       <c r="B935" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C935" s="21" t="s">
+      <c r="C935" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D935" s="21" t="s">
@@ -17433,7 +17433,7 @@
       <c r="B936" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C936" s="20" t="s">
+      <c r="C936" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D936" s="20" t="s">
@@ -17451,7 +17451,7 @@
       <c r="B937" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C937" s="20" t="s">
+      <c r="C937" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D937" s="20" t="s">
@@ -17469,7 +17469,7 @@
       <c r="B938" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C938" s="21" t="s">
+      <c r="C938" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D938" s="21" t="s">
@@ -17487,7 +17487,7 @@
       <c r="B939" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C939" s="21" t="s">
+      <c r="C939" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D939" s="21" t="s">
@@ -17505,7 +17505,7 @@
       <c r="B940" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C940" s="21" t="s">
+      <c r="C940" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D940" s="21" t="s">
@@ -17523,7 +17523,7 @@
       <c r="B941" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C941" s="21" t="s">
+      <c r="C941" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D941" s="21" t="s">
@@ -17541,7 +17541,7 @@
       <c r="B942" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C942" s="21" t="s">
+      <c r="C942" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D942" s="21" t="s">
@@ -17559,7 +17559,7 @@
       <c r="B943" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C943" s="21" t="s">
+      <c r="C943" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D943" s="21" t="s">
@@ -17577,7 +17577,7 @@
       <c r="B944" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C944" s="21" t="s">
+      <c r="C944" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D944" s="21" t="s">
@@ -17595,7 +17595,7 @@
       <c r="B945" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C945" s="21" t="s">
+      <c r="C945" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D945" s="21" t="s">
@@ -17613,7 +17613,7 @@
       <c r="B946" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C946" s="21" t="s">
+      <c r="C946" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D946" s="21" t="s">
@@ -17631,7 +17631,7 @@
       <c r="B947" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C947" s="20" t="s">
+      <c r="C947" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D947" s="20" t="s">
@@ -17649,7 +17649,7 @@
       <c r="B948" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C948" s="20" t="s">
+      <c r="C948" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D948" s="20" t="s">
@@ -17667,7 +17667,7 @@
       <c r="B949" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C949" s="21" t="s">
+      <c r="C949" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D949" s="21" t="s">
@@ -17685,7 +17685,7 @@
       <c r="B950" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C950" s="21" t="s">
+      <c r="C950" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D950" s="21" t="s">
@@ -17703,7 +17703,7 @@
       <c r="B951" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C951" s="21" t="s">
+      <c r="C951" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D951" s="21" t="s">
@@ -17721,7 +17721,7 @@
       <c r="B952" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C952" s="21" t="s">
+      <c r="C952" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D952" s="21" t="s">
@@ -17739,7 +17739,7 @@
       <c r="B953" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C953" s="21" t="s">
+      <c r="C953" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D953" s="21" t="s">
@@ -17757,7 +17757,7 @@
       <c r="B954" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C954" s="21" t="s">
+      <c r="C954" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D954" s="21" t="s">
@@ -17775,7 +17775,7 @@
       <c r="B955" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C955" s="21" t="s">
+      <c r="C955" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D955" s="21" t="s">
@@ -17793,7 +17793,7 @@
       <c r="B956" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C956" s="21" t="s">
+      <c r="C956" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D956" s="21" t="s">
@@ -17811,7 +17811,7 @@
       <c r="B957" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C957" s="21" t="s">
+      <c r="C957" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D957" s="21" t="s">
@@ -17829,7 +17829,7 @@
       <c r="B958" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C958" s="20" t="s">
+      <c r="C958" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D958" s="20" t="s">
@@ -17847,7 +17847,7 @@
       <c r="B959" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C959" s="20" t="s">
+      <c r="C959" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D959" s="20" t="s">
@@ -17865,7 +17865,7 @@
       <c r="B960" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C960" s="21" t="s">
+      <c r="C960" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D960" s="21" t="s">
@@ -17883,7 +17883,7 @@
       <c r="B961" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C961" s="21" t="s">
+      <c r="C961" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D961" s="21" t="s">
@@ -17901,7 +17901,7 @@
       <c r="B962" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C962" s="21" t="s">
+      <c r="C962" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D962" s="21" t="s">
@@ -17919,7 +17919,7 @@
       <c r="B963" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C963" s="21" t="s">
+      <c r="C963" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D963" s="21" t="s">
@@ -17937,7 +17937,7 @@
       <c r="B964" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C964" s="21" t="s">
+      <c r="C964" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D964" s="21" t="s">
@@ -17955,7 +17955,7 @@
       <c r="B965" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C965" s="21" t="s">
+      <c r="C965" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D965" s="21" t="s">
@@ -17973,7 +17973,7 @@
       <c r="B966" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C966" s="21" t="s">
+      <c r="C966" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D966" s="21" t="s">
@@ -17989,7 +17989,7 @@
       <c r="B967" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C967" s="21" t="s">
+      <c r="C967" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D967" s="21" t="s">
@@ -18007,7 +18007,7 @@
       <c r="B968" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C968" s="21" t="s">
+      <c r="C968" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D968" s="21" t="s">
@@ -18025,7 +18025,7 @@
       <c r="B969" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C969" s="20" t="s">
+      <c r="C969" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D969" s="20" t="s">
@@ -18043,7 +18043,7 @@
       <c r="B970" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C970" s="20" t="s">
+      <c r="C970" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D970" s="20" t="s">
@@ -18061,7 +18061,7 @@
       <c r="B971" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C971" s="21" t="s">
+      <c r="C971" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D971" s="21" t="s">
@@ -18079,7 +18079,7 @@
       <c r="B972" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C972" s="21" t="s">
+      <c r="C972" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D972" s="21" t="s">
@@ -18097,7 +18097,7 @@
       <c r="B973" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C973" s="21" t="s">
+      <c r="C973" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D973" s="21" t="s">
@@ -18115,7 +18115,7 @@
       <c r="B974" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C974" s="21" t="s">
+      <c r="C974" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D974" s="21" t="s">
@@ -18133,7 +18133,7 @@
       <c r="B975" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C975" s="21" t="s">
+      <c r="C975" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D975" s="21" t="s">
@@ -18151,7 +18151,7 @@
       <c r="B976" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C976" s="21" t="s">
+      <c r="C976" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D976" s="21" t="s">
@@ -18169,7 +18169,7 @@
       <c r="B977" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C977" s="21" t="s">
+      <c r="C977" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D977" s="21" t="s">
@@ -18187,7 +18187,7 @@
       <c r="B978" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C978" s="21" t="s">
+      <c r="C978" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D978" s="21" t="s">
@@ -18205,7 +18205,7 @@
       <c r="B979" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C979" s="21" t="s">
+      <c r="C979" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D979" s="21" t="s">
@@ -18223,7 +18223,7 @@
       <c r="B980" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C980" s="20" t="s">
+      <c r="C980" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D980" s="20" t="s">
@@ -18241,7 +18241,7 @@
       <c r="B981" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C981" s="20" t="s">
+      <c r="C981" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D981" s="20" t="s">
@@ -18259,7 +18259,7 @@
       <c r="B982" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C982" s="21" t="s">
+      <c r="C982" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D982" s="21" t="s">
@@ -18277,7 +18277,7 @@
       <c r="B983" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C983" s="21" t="s">
+      <c r="C983" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D983" s="21" t="s">
@@ -18295,7 +18295,7 @@
       <c r="B984" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C984" s="21" t="s">
+      <c r="C984" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D984" s="21" t="s">
@@ -18313,7 +18313,7 @@
       <c r="B985" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C985" s="21" t="s">
+      <c r="C985" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D985" s="21" t="s">
@@ -18331,7 +18331,7 @@
       <c r="B986" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C986" s="21" t="s">
+      <c r="C986" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D986" s="21" t="s">
@@ -18349,7 +18349,7 @@
       <c r="B987" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C987" s="21" t="s">
+      <c r="C987" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D987" s="21" t="s">
@@ -18367,7 +18367,7 @@
       <c r="B988" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C988" s="21" t="s">
+      <c r="C988" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D988" s="21" t="s">
@@ -18385,7 +18385,7 @@
       <c r="B989" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C989" s="21" t="s">
+      <c r="C989" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D989" s="21" t="s">
@@ -18403,7 +18403,7 @@
       <c r="B990" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C990" s="21" t="s">
+      <c r="C990" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D990" s="21" t="s">
@@ -18421,7 +18421,7 @@
       <c r="B991" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C991" s="20" t="s">
+      <c r="C991" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D991" s="20" t="s">
@@ -18439,7 +18439,7 @@
       <c r="B992" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C992" s="20" t="s">
+      <c r="C992" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D992" s="20" t="s">
@@ -18590,17 +18590,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B14:C16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
     <mergeCell ref="H12:I14"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B14:C16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/rtw_excel_report/report_purchase_order_sheet/purchase_order_sheet.xlsx
+++ b/rtw_excel_report/report_purchase_order_sheet/purchase_order_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_purchase_order_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA51C10-62DF-4799-8173-EF1E7D85208B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47523B86-025B-47A0-AE7E-A09966BB3AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{525678E9-735B-4186-93A2-F2263A6AD281}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{525678E9-735B-4186-93A2-F2263A6AD281}"/>
   </bookViews>
   <sheets>
     <sheet name="発注書" sheetId="1" r:id="rId1"/>
@@ -285,27 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -323,10 +302,31 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,7 +729,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,13 +768,13 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="24"/>
-      <c r="C3" s="35"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="11"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -784,9 +784,9 @@
       <c r="C4" s="12"/>
       <c r="D4" s="11"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="9" t="s">
         <v>1</v>
       </c>
@@ -794,12 +794,12 @@
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="37"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="13" t="s">
         <v>2</v>
       </c>
@@ -812,9 +812,9 @@
       <c r="C6" s="12"/>
       <c r="D6" s="11"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="13" t="s">
         <v>3</v>
       </c>
@@ -827,9 +827,9 @@
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="13" t="s">
         <v>5</v>
       </c>
@@ -840,9 +840,9 @@
       <c r="C8" s="12"/>
       <c r="D8" s="14"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="13" t="s">
         <v>7</v>
       </c>
@@ -857,21 +857,21 @@
       <c r="E9" s="3"/>
       <c r="F9" s="13"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="36"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
-      <c r="B10" s="36"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="12"/>
       <c r="D10" s="11"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="36"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
@@ -880,13 +880,13 @@
       <c r="B11" s="3"/>
       <c r="C11" s="18"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="36"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -894,12 +894,12 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -907,49 +907,49 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="42"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
@@ -963,42 +963,42 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28" t="s">
+      <c r="F18" s="38"/>
+      <c r="G18" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -1007,7 +1007,7 @@
       <c r="B20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -1025,7 +1025,7 @@
       <c r="B21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="21" t="s">
@@ -1043,7 +1043,7 @@
       <c r="B22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="21" t="s">
@@ -1061,7 +1061,7 @@
       <c r="B23" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="21" t="s">
@@ -1079,7 +1079,7 @@
       <c r="B24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -1097,7 +1097,7 @@
       <c r="B25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="21" t="s">
@@ -1115,7 +1115,7 @@
       <c r="B26" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="21" t="s">
@@ -1133,7 +1133,7 @@
       <c r="B27" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -1151,7 +1151,7 @@
       <c r="B28" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -1169,7 +1169,7 @@
       <c r="B29" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -1187,7 +1187,7 @@
       <c r="B30" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="21" t="s">
@@ -1205,7 +1205,7 @@
       <c r="B31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="21" t="s">
@@ -1223,7 +1223,7 @@
       <c r="B32" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="21" t="s">
@@ -1241,7 +1241,7 @@
       <c r="B33" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="21" t="s">
@@ -1259,7 +1259,7 @@
       <c r="B34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -1277,7 +1277,7 @@
       <c r="B35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="21" t="s">
@@ -1295,7 +1295,7 @@
       <c r="B36" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -1313,7 +1313,7 @@
       <c r="B37" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="21" t="s">
@@ -1331,7 +1331,7 @@
       <c r="B38" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="21" t="s">
@@ -1349,7 +1349,7 @@
       <c r="B39" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="20" t="s">
@@ -1367,7 +1367,7 @@
       <c r="B40" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="20" t="s">
@@ -1385,7 +1385,7 @@
       <c r="B41" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="21" t="s">
@@ -1403,7 +1403,7 @@
       <c r="B42" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="21" t="s">
@@ -1421,7 +1421,7 @@
       <c r="B43" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="21" t="s">
@@ -1439,7 +1439,7 @@
       <c r="B44" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="21" t="s">
@@ -1457,7 +1457,7 @@
       <c r="B45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="21" t="s">
@@ -1475,7 +1475,7 @@
       <c r="B46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="21" t="s">
@@ -1491,7 +1491,7 @@
       <c r="B47" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="21" t="s">
@@ -1509,7 +1509,7 @@
       <c r="B48" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="21" t="s">
@@ -1527,7 +1527,7 @@
       <c r="B49" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="21" t="s">
@@ -1545,7 +1545,7 @@
       <c r="B50" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="20" t="s">
@@ -1563,7 +1563,7 @@
       <c r="B51" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -1581,7 +1581,7 @@
       <c r="B52" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="21" t="s">
@@ -1599,7 +1599,7 @@
       <c r="B53" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="21" t="s">
@@ -1617,7 +1617,7 @@
       <c r="B54" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="21" t="s">
@@ -1635,7 +1635,7 @@
       <c r="B55" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="21" t="s">
@@ -1653,7 +1653,7 @@
       <c r="B56" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="21" t="s">
@@ -1671,7 +1671,7 @@
       <c r="B57" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="21" t="s">
@@ -1689,7 +1689,7 @@
       <c r="B58" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="21" t="s">
@@ -1707,7 +1707,7 @@
       <c r="B59" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="21" t="s">
@@ -1725,7 +1725,7 @@
       <c r="B60" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="21" t="s">
@@ -1743,7 +1743,7 @@
       <c r="B61" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="20" t="s">
@@ -1761,7 +1761,7 @@
       <c r="B62" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="20" t="s">
@@ -1779,7 +1779,7 @@
       <c r="B63" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="21" t="s">
@@ -1797,7 +1797,7 @@
       <c r="B64" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="21" t="s">
@@ -1815,7 +1815,7 @@
       <c r="B65" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="21" t="s">
@@ -1833,7 +1833,7 @@
       <c r="B66" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="21" t="s">
@@ -1851,7 +1851,7 @@
       <c r="B67" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="21" t="s">
@@ -1869,7 +1869,7 @@
       <c r="B68" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="21" t="s">
@@ -1887,7 +1887,7 @@
       <c r="B69" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="21" t="s">
@@ -1905,7 +1905,7 @@
       <c r="B70" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="21" t="s">
@@ -1923,7 +1923,7 @@
       <c r="B71" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="21" t="s">
@@ -1941,7 +1941,7 @@
       <c r="B72" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="20" t="s">
@@ -1959,7 +1959,7 @@
       <c r="B73" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="20" t="s">
@@ -1977,7 +1977,7 @@
       <c r="B74" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="21" t="s">
@@ -1995,7 +1995,7 @@
       <c r="B75" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="21" t="s">
@@ -2013,7 +2013,7 @@
       <c r="B76" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="21" t="s">
@@ -2031,7 +2031,7 @@
       <c r="B77" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="21" t="s">
@@ -2047,7 +2047,7 @@
       <c r="B78" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="21" t="s">
@@ -2065,7 +2065,7 @@
       <c r="B79" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="21" t="s">
@@ -2083,7 +2083,7 @@
       <c r="B80" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="21" t="s">
@@ -2101,7 +2101,7 @@
       <c r="B81" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="21" t="s">
@@ -2119,7 +2119,7 @@
       <c r="B82" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="21" t="s">
@@ -2137,7 +2137,7 @@
       <c r="B83" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="20" t="s">
@@ -2155,7 +2155,7 @@
       <c r="B84" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="20" t="s">
@@ -2173,7 +2173,7 @@
       <c r="B85" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="21" t="s">
@@ -2191,7 +2191,7 @@
       <c r="B86" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="21" t="s">
@@ -2209,7 +2209,7 @@
       <c r="B87" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="21" t="s">
@@ -2227,7 +2227,7 @@
       <c r="B88" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="21" t="s">
@@ -2245,7 +2245,7 @@
       <c r="B89" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="21" t="s">
@@ -2263,7 +2263,7 @@
       <c r="B90" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="21" t="s">
@@ -2281,7 +2281,7 @@
       <c r="B91" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="21" t="s">
@@ -2299,7 +2299,7 @@
       <c r="B92" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="21" t="s">
@@ -2317,7 +2317,7 @@
       <c r="B93" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="21" t="s">
@@ -2335,7 +2335,7 @@
       <c r="B94" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="20" t="s">
@@ -2353,7 +2353,7 @@
       <c r="B95" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="20" t="s">
@@ -2371,7 +2371,7 @@
       <c r="B96" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="21" t="s">
@@ -2389,7 +2389,7 @@
       <c r="B97" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="21" t="s">
@@ -2407,7 +2407,7 @@
       <c r="B98" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="21" t="s">
@@ -2425,7 +2425,7 @@
       <c r="B99" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="21" t="s">
@@ -2443,7 +2443,7 @@
       <c r="B100" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="21" t="s">
@@ -2461,7 +2461,7 @@
       <c r="B101" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D101" s="21" t="s">
@@ -2479,7 +2479,7 @@
       <c r="B102" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="21" t="s">
@@ -2497,7 +2497,7 @@
       <c r="B103" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D103" s="21" t="s">
@@ -2515,7 +2515,7 @@
       <c r="B104" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="21" t="s">
@@ -2533,7 +2533,7 @@
       <c r="B105" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="20" t="s">
@@ -2551,7 +2551,7 @@
       <c r="B106" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="20" t="s">
@@ -2569,7 +2569,7 @@
       <c r="B107" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="21" t="s">
@@ -2587,7 +2587,7 @@
       <c r="B108" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="21" t="s">
@@ -2603,7 +2603,7 @@
       <c r="B109" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="21" t="s">
@@ -2621,7 +2621,7 @@
       <c r="B110" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="21" t="s">
@@ -2639,7 +2639,7 @@
       <c r="B111" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="21" t="s">
@@ -2657,7 +2657,7 @@
       <c r="B112" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D112" s="21" t="s">
@@ -2675,7 +2675,7 @@
       <c r="B113" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D113" s="21" t="s">
@@ -2693,7 +2693,7 @@
       <c r="B114" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="21" t="s">
@@ -2711,7 +2711,7 @@
       <c r="B115" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D115" s="21" t="s">
@@ -2729,7 +2729,7 @@
       <c r="B116" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D116" s="20" t="s">
@@ -2747,7 +2747,7 @@
       <c r="B117" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D117" s="20" t="s">
@@ -2765,7 +2765,7 @@
       <c r="B118" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D118" s="21" t="s">
@@ -2783,7 +2783,7 @@
       <c r="B119" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="21" t="s">
@@ -2801,7 +2801,7 @@
       <c r="B120" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D120" s="21" t="s">
@@ -2819,7 +2819,7 @@
       <c r="B121" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="21" t="s">
@@ -2837,7 +2837,7 @@
       <c r="B122" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="21" t="s">
@@ -2855,7 +2855,7 @@
       <c r="B123" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="21" t="s">
@@ -2873,7 +2873,7 @@
       <c r="B124" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D124" s="21" t="s">
@@ -2891,7 +2891,7 @@
       <c r="B125" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="21" t="s">
@@ -2909,7 +2909,7 @@
       <c r="B126" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D126" s="21" t="s">
@@ -2927,7 +2927,7 @@
       <c r="B127" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D127" s="20" t="s">
@@ -2945,7 +2945,7 @@
       <c r="B128" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D128" s="20" t="s">
@@ -2963,7 +2963,7 @@
       <c r="B129" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D129" s="21" t="s">
@@ -2981,7 +2981,7 @@
       <c r="B130" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D130" s="21" t="s">
@@ -2999,7 +2999,7 @@
       <c r="B131" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D131" s="21" t="s">
@@ -3017,7 +3017,7 @@
       <c r="B132" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D132" s="21" t="s">
@@ -3035,7 +3035,7 @@
       <c r="B133" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="21" t="s">
@@ -3053,7 +3053,7 @@
       <c r="B134" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D134" s="21" t="s">
@@ -3071,7 +3071,7 @@
       <c r="B135" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D135" s="21" t="s">
@@ -3089,7 +3089,7 @@
       <c r="B136" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D136" s="21" t="s">
@@ -3107,7 +3107,7 @@
       <c r="B137" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C137" s="21" t="s">
+      <c r="C137" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D137" s="21" t="s">
@@ -3125,7 +3125,7 @@
       <c r="B138" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D138" s="20" t="s">
@@ -3143,7 +3143,7 @@
       <c r="B139" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D139" s="20" t="s">
@@ -3159,7 +3159,7 @@
       <c r="B140" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D140" s="21" t="s">
@@ -3177,7 +3177,7 @@
       <c r="B141" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D141" s="21" t="s">
@@ -3195,7 +3195,7 @@
       <c r="B142" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D142" s="21" t="s">
@@ -3213,7 +3213,7 @@
       <c r="B143" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="21" t="s">
+      <c r="C143" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="21" t="s">
@@ -3231,7 +3231,7 @@
       <c r="B144" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C144" s="21" t="s">
+      <c r="C144" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D144" s="21" t="s">
@@ -3249,7 +3249,7 @@
       <c r="B145" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="21" t="s">
@@ -3267,7 +3267,7 @@
       <c r="B146" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="21" t="s">
+      <c r="C146" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D146" s="21" t="s">
@@ -3285,7 +3285,7 @@
       <c r="B147" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D147" s="21" t="s">
@@ -3303,7 +3303,7 @@
       <c r="B148" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D148" s="21" t="s">
@@ -3321,7 +3321,7 @@
       <c r="B149" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D149" s="20" t="s">
@@ -3339,7 +3339,7 @@
       <c r="B150" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D150" s="20" t="s">
@@ -3357,7 +3357,7 @@
       <c r="B151" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D151" s="21" t="s">
@@ -3375,7 +3375,7 @@
       <c r="B152" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C152" s="21" t="s">
+      <c r="C152" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D152" s="21" t="s">
@@ -3393,7 +3393,7 @@
       <c r="B153" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C153" s="21" t="s">
+      <c r="C153" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D153" s="21" t="s">
@@ -3411,7 +3411,7 @@
       <c r="B154" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D154" s="21" t="s">
@@ -3429,7 +3429,7 @@
       <c r="B155" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D155" s="21" t="s">
@@ -3447,7 +3447,7 @@
       <c r="B156" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C156" s="21" t="s">
+      <c r="C156" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D156" s="21" t="s">
@@ -3465,7 +3465,7 @@
       <c r="B157" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C157" s="21" t="s">
+      <c r="C157" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="21" t="s">
@@ -3483,7 +3483,7 @@
       <c r="B158" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C158" s="21" t="s">
+      <c r="C158" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D158" s="21" t="s">
@@ -3501,7 +3501,7 @@
       <c r="B159" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D159" s="21" t="s">
@@ -3519,7 +3519,7 @@
       <c r="B160" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D160" s="20" t="s">
@@ -3537,7 +3537,7 @@
       <c r="B161" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C161" s="20" t="s">
+      <c r="C161" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D161" s="20" t="s">
@@ -3555,7 +3555,7 @@
       <c r="B162" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C162" s="21" t="s">
+      <c r="C162" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D162" s="21" t="s">
@@ -3573,7 +3573,7 @@
       <c r="B163" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C163" s="21" t="s">
+      <c r="C163" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D163" s="21" t="s">
@@ -3591,7 +3591,7 @@
       <c r="B164" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C164" s="21" t="s">
+      <c r="C164" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D164" s="21" t="s">
@@ -3609,7 +3609,7 @@
       <c r="B165" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D165" s="21" t="s">
@@ -3627,7 +3627,7 @@
       <c r="B166" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C166" s="21" t="s">
+      <c r="C166" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D166" s="21" t="s">
@@ -3645,7 +3645,7 @@
       <c r="B167" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C167" s="21" t="s">
+      <c r="C167" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D167" s="21" t="s">
@@ -3663,7 +3663,7 @@
       <c r="B168" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D168" s="21" t="s">
@@ -3681,7 +3681,7 @@
       <c r="B169" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C169" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D169" s="21" t="s">
@@ -3699,7 +3699,7 @@
       <c r="B170" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D170" s="21" t="s">
@@ -3715,7 +3715,7 @@
       <c r="B171" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D171" s="20" t="s">
@@ -3733,7 +3733,7 @@
       <c r="B172" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D172" s="20" t="s">
@@ -3751,7 +3751,7 @@
       <c r="B173" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="C173" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D173" s="21" t="s">
@@ -3769,7 +3769,7 @@
       <c r="B174" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C174" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D174" s="21" t="s">
@@ -3787,7 +3787,7 @@
       <c r="B175" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D175" s="21" t="s">
@@ -3805,7 +3805,7 @@
       <c r="B176" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C176" s="21" t="s">
+      <c r="C176" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D176" s="21" t="s">
@@ -3823,7 +3823,7 @@
       <c r="B177" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="21" t="s">
+      <c r="C177" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D177" s="21" t="s">
@@ -3841,7 +3841,7 @@
       <c r="B178" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C178" s="21" t="s">
+      <c r="C178" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D178" s="21" t="s">
@@ -3859,7 +3859,7 @@
       <c r="B179" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C179" s="21" t="s">
+      <c r="C179" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D179" s="21" t="s">
@@ -3877,7 +3877,7 @@
       <c r="B180" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="21" t="s">
+      <c r="C180" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D180" s="21" t="s">
@@ -3895,7 +3895,7 @@
       <c r="B181" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C181" s="21" t="s">
+      <c r="C181" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D181" s="21" t="s">
@@ -3913,7 +3913,7 @@
       <c r="B182" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C182" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D182" s="20" t="s">
@@ -3931,7 +3931,7 @@
       <c r="B183" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C183" s="20" t="s">
+      <c r="C183" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D183" s="20" t="s">
@@ -3949,7 +3949,7 @@
       <c r="B184" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C184" s="21" t="s">
+      <c r="C184" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D184" s="21" t="s">
@@ -3967,7 +3967,7 @@
       <c r="B185" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="21" t="s">
+      <c r="C185" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D185" s="21" t="s">
@@ -3985,7 +3985,7 @@
       <c r="B186" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C186" s="21" t="s">
+      <c r="C186" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D186" s="21" t="s">
@@ -4003,7 +4003,7 @@
       <c r="B187" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C187" s="21" t="s">
+      <c r="C187" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D187" s="21" t="s">
@@ -4021,7 +4021,7 @@
       <c r="B188" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C188" s="21" t="s">
+      <c r="C188" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D188" s="21" t="s">
@@ -4039,7 +4039,7 @@
       <c r="B189" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C189" s="21" t="s">
+      <c r="C189" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D189" s="21" t="s">
@@ -4057,7 +4057,7 @@
       <c r="B190" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C190" s="21" t="s">
+      <c r="C190" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D190" s="21" t="s">
@@ -4075,7 +4075,7 @@
       <c r="B191" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C191" s="21" t="s">
+      <c r="C191" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D191" s="21" t="s">
@@ -4093,7 +4093,7 @@
       <c r="B192" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C192" s="21" t="s">
+      <c r="C192" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D192" s="21" t="s">
@@ -4111,7 +4111,7 @@
       <c r="B193" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C193" s="20" t="s">
+      <c r="C193" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D193" s="20" t="s">
@@ -4129,7 +4129,7 @@
       <c r="B194" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C194" s="20" t="s">
+      <c r="C194" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D194" s="20" t="s">
@@ -4147,7 +4147,7 @@
       <c r="B195" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C195" s="21" t="s">
+      <c r="C195" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D195" s="21" t="s">
@@ -4165,7 +4165,7 @@
       <c r="B196" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C196" s="21" t="s">
+      <c r="C196" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D196" s="21" t="s">
@@ -4183,7 +4183,7 @@
       <c r="B197" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C197" s="21" t="s">
+      <c r="C197" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D197" s="21" t="s">
@@ -4201,7 +4201,7 @@
       <c r="B198" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C198" s="21" t="s">
+      <c r="C198" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D198" s="21" t="s">
@@ -4219,7 +4219,7 @@
       <c r="B199" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C199" s="21" t="s">
+      <c r="C199" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D199" s="21" t="s">
@@ -4237,7 +4237,7 @@
       <c r="B200" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C200" s="21" t="s">
+      <c r="C200" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D200" s="21" t="s">
@@ -4255,7 +4255,7 @@
       <c r="B201" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C201" s="21" t="s">
+      <c r="C201" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D201" s="21" t="s">
@@ -4273,7 +4273,7 @@
       <c r="B202" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C202" s="21" t="s">
+      <c r="C202" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D202" s="21" t="s">
@@ -4291,7 +4291,7 @@
       <c r="B203" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C203" s="21" t="s">
+      <c r="C203" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D203" s="21" t="s">
@@ -4309,7 +4309,7 @@
       <c r="B204" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C204" s="20" t="s">
+      <c r="C204" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D204" s="20" t="s">
@@ -4327,7 +4327,7 @@
       <c r="B205" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C205" s="20" t="s">
+      <c r="C205" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D205" s="20" t="s">
@@ -4345,7 +4345,7 @@
       <c r="B206" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="21" t="s">
+      <c r="C206" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D206" s="21" t="s">
@@ -4363,7 +4363,7 @@
       <c r="B207" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C207" s="21" t="s">
+      <c r="C207" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D207" s="21" t="s">
@@ -4381,7 +4381,7 @@
       <c r="B208" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C208" s="21" t="s">
+      <c r="C208" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D208" s="21" t="s">
@@ -4399,7 +4399,7 @@
       <c r="B209" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C209" s="21" t="s">
+      <c r="C209" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D209" s="21" t="s">
@@ -4417,7 +4417,7 @@
       <c r="B210" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C210" s="21" t="s">
+      <c r="C210" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D210" s="21" t="s">
@@ -4435,7 +4435,7 @@
       <c r="B211" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="21" t="s">
+      <c r="C211" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D211" s="21" t="s">
@@ -4453,7 +4453,7 @@
       <c r="B212" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="21" t="s">
+      <c r="C212" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D212" s="21" t="s">
@@ -4471,7 +4471,7 @@
       <c r="B213" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C213" s="21" t="s">
+      <c r="C213" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D213" s="21" t="s">
@@ -4489,7 +4489,7 @@
       <c r="B214" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C214" s="21" t="s">
+      <c r="C214" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D214" s="21" t="s">
@@ -4507,7 +4507,7 @@
       <c r="B215" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C215" s="20" t="s">
+      <c r="C215" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D215" s="20" t="s">
@@ -4525,7 +4525,7 @@
       <c r="B216" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C216" s="20" t="s">
+      <c r="C216" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D216" s="20" t="s">
@@ -4543,7 +4543,7 @@
       <c r="B217" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C217" s="21" t="s">
+      <c r="C217" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D217" s="21" t="s">
@@ -4561,7 +4561,7 @@
       <c r="B218" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C218" s="21" t="s">
+      <c r="C218" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D218" s="21" t="s">
@@ -4579,7 +4579,7 @@
       <c r="B219" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C219" s="21" t="s">
+      <c r="C219" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D219" s="21" t="s">
@@ -4597,7 +4597,7 @@
       <c r="B220" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C220" s="21" t="s">
+      <c r="C220" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D220" s="21" t="s">
@@ -4615,7 +4615,7 @@
       <c r="B221" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C221" s="21" t="s">
+      <c r="C221" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D221" s="21" t="s">
@@ -4633,7 +4633,7 @@
       <c r="B222" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C222" s="21" t="s">
+      <c r="C222" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D222" s="21" t="s">
@@ -4651,7 +4651,7 @@
       <c r="B223" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C223" s="21" t="s">
+      <c r="C223" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D223" s="21" t="s">
@@ -4669,7 +4669,7 @@
       <c r="B224" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C224" s="21" t="s">
+      <c r="C224" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D224" s="21" t="s">
@@ -4687,7 +4687,7 @@
       <c r="B225" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C225" s="21" t="s">
+      <c r="C225" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D225" s="21" t="s">
@@ -4705,7 +4705,7 @@
       <c r="B226" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C226" s="20" t="s">
+      <c r="C226" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D226" s="20" t="s">
@@ -4723,7 +4723,7 @@
       <c r="B227" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C227" s="20" t="s">
+      <c r="C227" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D227" s="20" t="s">
@@ -4741,7 +4741,7 @@
       <c r="B228" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C228" s="21" t="s">
+      <c r="C228" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D228" s="21" t="s">
@@ -4759,7 +4759,7 @@
       <c r="B229" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C229" s="21" t="s">
+      <c r="C229" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D229" s="21" t="s">
@@ -4777,7 +4777,7 @@
       <c r="B230" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C230" s="21" t="s">
+      <c r="C230" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D230" s="21" t="s">
@@ -4793,7 +4793,7 @@
       <c r="B231" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C231" s="21" t="s">
+      <c r="C231" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D231" s="21" t="s">
@@ -4811,7 +4811,7 @@
       <c r="B232" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C232" s="21" t="s">
+      <c r="C232" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D232" s="21" t="s">
@@ -4829,7 +4829,7 @@
       <c r="B233" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C233" s="21" t="s">
+      <c r="C233" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D233" s="21" t="s">
@@ -4847,7 +4847,7 @@
       <c r="B234" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C234" s="21" t="s">
+      <c r="C234" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D234" s="21" t="s">
@@ -4865,7 +4865,7 @@
       <c r="B235" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C235" s="21" t="s">
+      <c r="C235" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D235" s="21" t="s">
@@ -4883,7 +4883,7 @@
       <c r="B236" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C236" s="21" t="s">
+      <c r="C236" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D236" s="21" t="s">
@@ -4901,7 +4901,7 @@
       <c r="B237" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C237" s="20" t="s">
+      <c r="C237" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D237" s="20" t="s">
@@ -4919,7 +4919,7 @@
       <c r="B238" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C238" s="20" t="s">
+      <c r="C238" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D238" s="20" t="s">
@@ -4937,7 +4937,7 @@
       <c r="B239" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C239" s="21" t="s">
+      <c r="C239" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D239" s="21" t="s">
@@ -4955,7 +4955,7 @@
       <c r="B240" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C240" s="21" t="s">
+      <c r="C240" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D240" s="21" t="s">
@@ -4973,7 +4973,7 @@
       <c r="B241" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C241" s="21" t="s">
+      <c r="C241" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D241" s="21" t="s">
@@ -4991,7 +4991,7 @@
       <c r="B242" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C242" s="21" t="s">
+      <c r="C242" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D242" s="21" t="s">
@@ -5009,7 +5009,7 @@
       <c r="B243" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C243" s="21" t="s">
+      <c r="C243" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D243" s="21" t="s">
@@ -5027,7 +5027,7 @@
       <c r="B244" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C244" s="21" t="s">
+      <c r="C244" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D244" s="21" t="s">
@@ -5045,7 +5045,7 @@
       <c r="B245" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C245" s="21" t="s">
+      <c r="C245" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D245" s="21" t="s">
@@ -5063,7 +5063,7 @@
       <c r="B246" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C246" s="21" t="s">
+      <c r="C246" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D246" s="21" t="s">
@@ -5081,7 +5081,7 @@
       <c r="B247" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C247" s="21" t="s">
+      <c r="C247" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D247" s="21" t="s">
@@ -5099,7 +5099,7 @@
       <c r="B248" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C248" s="20" t="s">
+      <c r="C248" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D248" s="20" t="s">
@@ -5117,7 +5117,7 @@
       <c r="B249" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C249" s="20" t="s">
+      <c r="C249" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D249" s="20" t="s">
@@ -5135,7 +5135,7 @@
       <c r="B250" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C250" s="21" t="s">
+      <c r="C250" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D250" s="21" t="s">
@@ -5153,7 +5153,7 @@
       <c r="B251" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C251" s="21" t="s">
+      <c r="C251" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D251" s="21" t="s">
@@ -5171,7 +5171,7 @@
       <c r="B252" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C252" s="21" t="s">
+      <c r="C252" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D252" s="21" t="s">
@@ -5189,7 +5189,7 @@
       <c r="B253" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C253" s="21" t="s">
+      <c r="C253" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D253" s="21" t="s">
@@ -5207,7 +5207,7 @@
       <c r="B254" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C254" s="21" t="s">
+      <c r="C254" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D254" s="21" t="s">
@@ -5225,7 +5225,7 @@
       <c r="B255" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C255" s="21" t="s">
+      <c r="C255" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D255" s="21" t="s">
@@ -5243,7 +5243,7 @@
       <c r="B256" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C256" s="21" t="s">
+      <c r="C256" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D256" s="21" t="s">
@@ -5261,7 +5261,7 @@
       <c r="B257" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C257" s="21" t="s">
+      <c r="C257" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D257" s="21" t="s">
@@ -5279,7 +5279,7 @@
       <c r="B258" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C258" s="21" t="s">
+      <c r="C258" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D258" s="21" t="s">
@@ -5297,7 +5297,7 @@
       <c r="B259" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C259" s="20" t="s">
+      <c r="C259" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D259" s="20" t="s">
@@ -5315,7 +5315,7 @@
       <c r="B260" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C260" s="20" t="s">
+      <c r="C260" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D260" s="20" t="s">
@@ -5333,7 +5333,7 @@
       <c r="B261" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C261" s="21" t="s">
+      <c r="C261" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D261" s="21" t="s">
@@ -5349,7 +5349,7 @@
       <c r="B262" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C262" s="21" t="s">
+      <c r="C262" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D262" s="21" t="s">
@@ -5367,7 +5367,7 @@
       <c r="B263" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C263" s="21" t="s">
+      <c r="C263" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D263" s="21" t="s">
@@ -5385,7 +5385,7 @@
       <c r="B264" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C264" s="21" t="s">
+      <c r="C264" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D264" s="21" t="s">
@@ -5403,7 +5403,7 @@
       <c r="B265" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C265" s="21" t="s">
+      <c r="C265" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D265" s="21" t="s">
@@ -5421,7 +5421,7 @@
       <c r="B266" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C266" s="21" t="s">
+      <c r="C266" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D266" s="21" t="s">
@@ -5439,7 +5439,7 @@
       <c r="B267" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C267" s="21" t="s">
+      <c r="C267" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D267" s="21" t="s">
@@ -5457,7 +5457,7 @@
       <c r="B268" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C268" s="21" t="s">
+      <c r="C268" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D268" s="21" t="s">
@@ -5475,7 +5475,7 @@
       <c r="B269" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C269" s="21" t="s">
+      <c r="C269" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D269" s="21" t="s">
@@ -5493,7 +5493,7 @@
       <c r="B270" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C270" s="20" t="s">
+      <c r="C270" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D270" s="20" t="s">
@@ -5511,7 +5511,7 @@
       <c r="B271" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C271" s="20" t="s">
+      <c r="C271" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D271" s="20" t="s">
@@ -5529,7 +5529,7 @@
       <c r="B272" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C272" s="21" t="s">
+      <c r="C272" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D272" s="21" t="s">
@@ -5547,7 +5547,7 @@
       <c r="B273" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C273" s="21" t="s">
+      <c r="C273" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D273" s="21" t="s">
@@ -5565,7 +5565,7 @@
       <c r="B274" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C274" s="21" t="s">
+      <c r="C274" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D274" s="21" t="s">
@@ -5583,7 +5583,7 @@
       <c r="B275" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C275" s="21" t="s">
+      <c r="C275" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D275" s="21" t="s">
@@ -5601,7 +5601,7 @@
       <c r="B276" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C276" s="21" t="s">
+      <c r="C276" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D276" s="21" t="s">
@@ -5619,7 +5619,7 @@
       <c r="B277" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C277" s="21" t="s">
+      <c r="C277" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D277" s="21" t="s">
@@ -5637,7 +5637,7 @@
       <c r="B278" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C278" s="21" t="s">
+      <c r="C278" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D278" s="21" t="s">
@@ -5655,7 +5655,7 @@
       <c r="B279" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C279" s="21" t="s">
+      <c r="C279" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D279" s="21" t="s">
@@ -5673,7 +5673,7 @@
       <c r="B280" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C280" s="21" t="s">
+      <c r="C280" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D280" s="21" t="s">
@@ -5691,7 +5691,7 @@
       <c r="B281" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C281" s="20" t="s">
+      <c r="C281" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D281" s="20" t="s">
@@ -5709,7 +5709,7 @@
       <c r="B282" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C282" s="20" t="s">
+      <c r="C282" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D282" s="20" t="s">
@@ -5727,7 +5727,7 @@
       <c r="B283" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C283" s="21" t="s">
+      <c r="C283" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D283" s="21" t="s">
@@ -5745,7 +5745,7 @@
       <c r="B284" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C284" s="21" t="s">
+      <c r="C284" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D284" s="21" t="s">
@@ -5763,7 +5763,7 @@
       <c r="B285" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C285" s="21" t="s">
+      <c r="C285" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D285" s="21" t="s">
@@ -5781,7 +5781,7 @@
       <c r="B286" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C286" s="21" t="s">
+      <c r="C286" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D286" s="21" t="s">
@@ -5799,7 +5799,7 @@
       <c r="B287" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C287" s="21" t="s">
+      <c r="C287" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D287" s="21" t="s">
@@ -5817,7 +5817,7 @@
       <c r="B288" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C288" s="21" t="s">
+      <c r="C288" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D288" s="21" t="s">
@@ -5835,7 +5835,7 @@
       <c r="B289" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C289" s="21" t="s">
+      <c r="C289" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D289" s="21" t="s">
@@ -5853,7 +5853,7 @@
       <c r="B290" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C290" s="21" t="s">
+      <c r="C290" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D290" s="21" t="s">
@@ -5871,7 +5871,7 @@
       <c r="B291" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C291" s="21" t="s">
+      <c r="C291" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D291" s="21" t="s">
@@ -5889,7 +5889,7 @@
       <c r="B292" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C292" s="20" t="s">
+      <c r="C292" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D292" s="20" t="s">
@@ -5905,7 +5905,7 @@
       <c r="B293" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C293" s="20" t="s">
+      <c r="C293" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D293" s="20" t="s">
@@ -5923,7 +5923,7 @@
       <c r="B294" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C294" s="21" t="s">
+      <c r="C294" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D294" s="21" t="s">
@@ -5941,7 +5941,7 @@
       <c r="B295" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C295" s="21" t="s">
+      <c r="C295" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D295" s="21" t="s">
@@ -5959,7 +5959,7 @@
       <c r="B296" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C296" s="21" t="s">
+      <c r="C296" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D296" s="21" t="s">
@@ -5977,7 +5977,7 @@
       <c r="B297" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C297" s="21" t="s">
+      <c r="C297" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D297" s="21" t="s">
@@ -5995,7 +5995,7 @@
       <c r="B298" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C298" s="21" t="s">
+      <c r="C298" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D298" s="21" t="s">
@@ -6013,7 +6013,7 @@
       <c r="B299" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C299" s="21" t="s">
+      <c r="C299" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D299" s="21" t="s">
@@ -6031,7 +6031,7 @@
       <c r="B300" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C300" s="21" t="s">
+      <c r="C300" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D300" s="21" t="s">
@@ -6049,7 +6049,7 @@
       <c r="B301" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C301" s="21" t="s">
+      <c r="C301" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D301" s="21" t="s">
@@ -6067,7 +6067,7 @@
       <c r="B302" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C302" s="21" t="s">
+      <c r="C302" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D302" s="21" t="s">
@@ -6085,7 +6085,7 @@
       <c r="B303" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C303" s="20" t="s">
+      <c r="C303" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D303" s="20" t="s">
@@ -6103,7 +6103,7 @@
       <c r="B304" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C304" s="20" t="s">
+      <c r="C304" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D304" s="20" t="s">
@@ -6121,7 +6121,7 @@
       <c r="B305" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C305" s="21" t="s">
+      <c r="C305" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D305" s="21" t="s">
@@ -6139,7 +6139,7 @@
       <c r="B306" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C306" s="21" t="s">
+      <c r="C306" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D306" s="21" t="s">
@@ -6157,7 +6157,7 @@
       <c r="B307" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C307" s="21" t="s">
+      <c r="C307" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D307" s="21" t="s">
@@ -6175,7 +6175,7 @@
       <c r="B308" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C308" s="21" t="s">
+      <c r="C308" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D308" s="21" t="s">
@@ -6193,7 +6193,7 @@
       <c r="B309" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C309" s="21" t="s">
+      <c r="C309" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D309" s="21" t="s">
@@ -6211,7 +6211,7 @@
       <c r="B310" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C310" s="21" t="s">
+      <c r="C310" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D310" s="21" t="s">
@@ -6229,7 +6229,7 @@
       <c r="B311" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C311" s="21" t="s">
+      <c r="C311" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D311" s="21" t="s">
@@ -6247,7 +6247,7 @@
       <c r="B312" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C312" s="21" t="s">
+      <c r="C312" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D312" s="21" t="s">
@@ -6265,7 +6265,7 @@
       <c r="B313" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C313" s="21" t="s">
+      <c r="C313" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D313" s="21" t="s">
@@ -6283,7 +6283,7 @@
       <c r="B314" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C314" s="20" t="s">
+      <c r="C314" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D314" s="20" t="s">
@@ -6301,7 +6301,7 @@
       <c r="B315" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C315" s="20" t="s">
+      <c r="C315" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D315" s="20" t="s">
@@ -6319,7 +6319,7 @@
       <c r="B316" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C316" s="21" t="s">
+      <c r="C316" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D316" s="21" t="s">
@@ -6337,7 +6337,7 @@
       <c r="B317" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C317" s="21" t="s">
+      <c r="C317" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D317" s="21" t="s">
@@ -6355,7 +6355,7 @@
       <c r="B318" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C318" s="21" t="s">
+      <c r="C318" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D318" s="21" t="s">
@@ -6373,7 +6373,7 @@
       <c r="B319" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C319" s="21" t="s">
+      <c r="C319" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D319" s="21" t="s">
@@ -6391,7 +6391,7 @@
       <c r="B320" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C320" s="21" t="s">
+      <c r="C320" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D320" s="21" t="s">
@@ -6409,7 +6409,7 @@
       <c r="B321" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C321" s="21" t="s">
+      <c r="C321" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D321" s="21" t="s">
@@ -6427,7 +6427,7 @@
       <c r="B322" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C322" s="21" t="s">
+      <c r="C322" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D322" s="21" t="s">
@@ -6445,7 +6445,7 @@
       <c r="B323" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C323" s="21" t="s">
+      <c r="C323" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D323" s="21" t="s">
@@ -6461,7 +6461,7 @@
       <c r="B324" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C324" s="21" t="s">
+      <c r="C324" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D324" s="21" t="s">
@@ -6479,7 +6479,7 @@
       <c r="B325" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C325" s="20" t="s">
+      <c r="C325" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D325" s="20" t="s">
@@ -6497,7 +6497,7 @@
       <c r="B326" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C326" s="20" t="s">
+      <c r="C326" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D326" s="20" t="s">
@@ -6515,7 +6515,7 @@
       <c r="B327" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C327" s="21" t="s">
+      <c r="C327" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D327" s="21" t="s">
@@ -6533,7 +6533,7 @@
       <c r="B328" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C328" s="21" t="s">
+      <c r="C328" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D328" s="21" t="s">
@@ -6551,7 +6551,7 @@
       <c r="B329" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C329" s="21" t="s">
+      <c r="C329" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D329" s="21" t="s">
@@ -6569,7 +6569,7 @@
       <c r="B330" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C330" s="21" t="s">
+      <c r="C330" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D330" s="21" t="s">
@@ -6587,7 +6587,7 @@
       <c r="B331" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C331" s="21" t="s">
+      <c r="C331" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D331" s="21" t="s">
@@ -6605,7 +6605,7 @@
       <c r="B332" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C332" s="21" t="s">
+      <c r="C332" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D332" s="21" t="s">
@@ -6623,7 +6623,7 @@
       <c r="B333" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C333" s="21" t="s">
+      <c r="C333" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D333" s="21" t="s">
@@ -6641,7 +6641,7 @@
       <c r="B334" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C334" s="21" t="s">
+      <c r="C334" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D334" s="21" t="s">
@@ -6659,7 +6659,7 @@
       <c r="B335" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C335" s="21" t="s">
+      <c r="C335" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D335" s="21" t="s">
@@ -6677,7 +6677,7 @@
       <c r="B336" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C336" s="20" t="s">
+      <c r="C336" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D336" s="20" t="s">
@@ -6695,7 +6695,7 @@
       <c r="B337" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C337" s="20" t="s">
+      <c r="C337" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D337" s="20" t="s">
@@ -6713,7 +6713,7 @@
       <c r="B338" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C338" s="21" t="s">
+      <c r="C338" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D338" s="21" t="s">
@@ -6731,7 +6731,7 @@
       <c r="B339" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C339" s="21" t="s">
+      <c r="C339" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D339" s="21" t="s">
@@ -6749,7 +6749,7 @@
       <c r="B340" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C340" s="21" t="s">
+      <c r="C340" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D340" s="21" t="s">
@@ -6767,7 +6767,7 @@
       <c r="B341" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C341" s="21" t="s">
+      <c r="C341" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D341" s="21" t="s">
@@ -6785,7 +6785,7 @@
       <c r="B342" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C342" s="21" t="s">
+      <c r="C342" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D342" s="21" t="s">
@@ -6803,7 +6803,7 @@
       <c r="B343" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C343" s="21" t="s">
+      <c r="C343" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D343" s="21" t="s">
@@ -6821,7 +6821,7 @@
       <c r="B344" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C344" s="21" t="s">
+      <c r="C344" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D344" s="21" t="s">
@@ -6839,7 +6839,7 @@
       <c r="B345" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C345" s="21" t="s">
+      <c r="C345" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D345" s="21" t="s">
@@ -6857,7 +6857,7 @@
       <c r="B346" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C346" s="21" t="s">
+      <c r="C346" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D346" s="21" t="s">
@@ -6875,7 +6875,7 @@
       <c r="B347" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C347" s="20" t="s">
+      <c r="C347" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D347" s="20" t="s">
@@ -6893,7 +6893,7 @@
       <c r="B348" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C348" s="20" t="s">
+      <c r="C348" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D348" s="20" t="s">
@@ -6911,7 +6911,7 @@
       <c r="B349" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C349" s="21" t="s">
+      <c r="C349" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D349" s="21" t="s">
@@ -6929,7 +6929,7 @@
       <c r="B350" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C350" s="21" t="s">
+      <c r="C350" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D350" s="21" t="s">
@@ -6947,7 +6947,7 @@
       <c r="B351" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C351" s="21" t="s">
+      <c r="C351" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D351" s="21" t="s">
@@ -6965,7 +6965,7 @@
       <c r="B352" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C352" s="21" t="s">
+      <c r="C352" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D352" s="21" t="s">
@@ -6983,7 +6983,7 @@
       <c r="B353" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C353" s="21" t="s">
+      <c r="C353" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D353" s="21" t="s">
@@ -7001,7 +7001,7 @@
       <c r="B354" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C354" s="21" t="s">
+      <c r="C354" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D354" s="21" t="s">
@@ -7017,7 +7017,7 @@
       <c r="B355" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C355" s="21" t="s">
+      <c r="C355" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D355" s="21" t="s">
@@ -7035,7 +7035,7 @@
       <c r="B356" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C356" s="21" t="s">
+      <c r="C356" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D356" s="21" t="s">
@@ -7053,7 +7053,7 @@
       <c r="B357" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C357" s="21" t="s">
+      <c r="C357" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D357" s="21" t="s">
@@ -7071,7 +7071,7 @@
       <c r="B358" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C358" s="20" t="s">
+      <c r="C358" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D358" s="20" t="s">
@@ -7089,7 +7089,7 @@
       <c r="B359" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C359" s="20" t="s">
+      <c r="C359" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D359" s="20" t="s">
@@ -7107,7 +7107,7 @@
       <c r="B360" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C360" s="21" t="s">
+      <c r="C360" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D360" s="21" t="s">
@@ -7123,7 +7123,7 @@
         <v>16</v>
       </c>
       <c r="B361" s="20"/>
-      <c r="C361" s="20"/>
+      <c r="C361" s="36"/>
       <c r="D361" s="20"/>
       <c r="E361" s="15"/>
       <c r="F361" s="15"/>
@@ -7137,7 +7137,7 @@
       <c r="B362" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C362" s="20" t="s">
+      <c r="C362" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D362" s="20" t="s">
@@ -7155,7 +7155,7 @@
       <c r="B363" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C363" s="21" t="s">
+      <c r="C363" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D363" s="21" t="s">
@@ -7173,7 +7173,7 @@
       <c r="B364" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C364" s="21" t="s">
+      <c r="C364" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D364" s="21" t="s">
@@ -7191,7 +7191,7 @@
       <c r="B365" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C365" s="21" t="s">
+      <c r="C365" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D365" s="21" t="s">
@@ -7209,7 +7209,7 @@
       <c r="B366" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C366" s="21" t="s">
+      <c r="C366" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D366" s="21" t="s">
@@ -7227,7 +7227,7 @@
       <c r="B367" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C367" s="21" t="s">
+      <c r="C367" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D367" s="21" t="s">
@@ -7245,7 +7245,7 @@
       <c r="B368" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C368" s="21" t="s">
+      <c r="C368" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D368" s="21" t="s">
@@ -7263,7 +7263,7 @@
       <c r="B369" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C369" s="21" t="s">
+      <c r="C369" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D369" s="21" t="s">
@@ -7281,7 +7281,7 @@
       <c r="B370" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C370" s="21" t="s">
+      <c r="C370" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D370" s="21" t="s">
@@ -7299,7 +7299,7 @@
       <c r="B371" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C371" s="21" t="s">
+      <c r="C371" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D371" s="21" t="s">
@@ -7317,7 +7317,7 @@
       <c r="B372" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C372" s="20" t="s">
+      <c r="C372" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D372" s="20" t="s">
@@ -7335,7 +7335,7 @@
       <c r="B373" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C373" s="20" t="s">
+      <c r="C373" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D373" s="20" t="s">
@@ -7353,7 +7353,7 @@
       <c r="B374" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C374" s="21" t="s">
+      <c r="C374" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D374" s="21" t="s">
@@ -7371,7 +7371,7 @@
       <c r="B375" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C375" s="21" t="s">
+      <c r="C375" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D375" s="21" t="s">
@@ -7389,7 +7389,7 @@
       <c r="B376" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C376" s="21" t="s">
+      <c r="C376" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D376" s="21" t="s">
@@ -7407,7 +7407,7 @@
       <c r="B377" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C377" s="21" t="s">
+      <c r="C377" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D377" s="21" t="s">
@@ -7425,7 +7425,7 @@
       <c r="B378" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C378" s="21" t="s">
+      <c r="C378" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D378" s="21" t="s">
@@ -7443,7 +7443,7 @@
       <c r="B379" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C379" s="21" t="s">
+      <c r="C379" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D379" s="21" t="s">
@@ -7461,7 +7461,7 @@
       <c r="B380" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C380" s="21" t="s">
+      <c r="C380" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D380" s="21" t="s">
@@ -7479,7 +7479,7 @@
       <c r="B381" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C381" s="21" t="s">
+      <c r="C381" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D381" s="21" t="s">
@@ -7497,7 +7497,7 @@
       <c r="B382" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C382" s="21" t="s">
+      <c r="C382" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D382" s="21" t="s">
@@ -7515,7 +7515,7 @@
       <c r="B383" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C383" s="20" t="s">
+      <c r="C383" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D383" s="20" t="s">
@@ -7533,7 +7533,7 @@
       <c r="B384" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C384" s="20" t="s">
+      <c r="C384" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D384" s="20" t="s">
@@ -7551,7 +7551,7 @@
       <c r="B385" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C385" s="21" t="s">
+      <c r="C385" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D385" s="21" t="s">
@@ -7569,7 +7569,7 @@
       <c r="B386" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C386" s="21" t="s">
+      <c r="C386" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D386" s="21" t="s">
@@ -7587,7 +7587,7 @@
       <c r="B387" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C387" s="21" t="s">
+      <c r="C387" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D387" s="21" t="s">
@@ -7605,7 +7605,7 @@
       <c r="B388" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C388" s="21" t="s">
+      <c r="C388" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D388" s="21" t="s">
@@ -7623,7 +7623,7 @@
       <c r="B389" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C389" s="21" t="s">
+      <c r="C389" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D389" s="21" t="s">
@@ -7641,7 +7641,7 @@
       <c r="B390" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C390" s="21" t="s">
+      <c r="C390" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D390" s="21" t="s">
@@ -7659,7 +7659,7 @@
       <c r="B391" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C391" s="21" t="s">
+      <c r="C391" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D391" s="21" t="s">
@@ -7677,7 +7677,7 @@
       <c r="B392" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C392" s="21" t="s">
+      <c r="C392" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D392" s="21" t="s">
@@ -7695,7 +7695,7 @@
       <c r="B393" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C393" s="21" t="s">
+      <c r="C393" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D393" s="21" t="s">
@@ -7713,7 +7713,7 @@
       <c r="B394" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C394" s="20" t="s">
+      <c r="C394" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D394" s="20" t="s">
@@ -7731,7 +7731,7 @@
       <c r="B395" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C395" s="20" t="s">
+      <c r="C395" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D395" s="20" t="s">
@@ -7749,7 +7749,7 @@
       <c r="B396" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C396" s="21" t="s">
+      <c r="C396" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D396" s="21" t="s">
@@ -7767,7 +7767,7 @@
       <c r="B397" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C397" s="21" t="s">
+      <c r="C397" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D397" s="21" t="s">
@@ -7785,7 +7785,7 @@
       <c r="B398" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C398" s="21" t="s">
+      <c r="C398" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D398" s="21" t="s">
@@ -7803,7 +7803,7 @@
       <c r="B399" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C399" s="21" t="s">
+      <c r="C399" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D399" s="21" t="s">
@@ -7821,7 +7821,7 @@
       <c r="B400" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C400" s="21" t="s">
+      <c r="C400" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D400" s="21" t="s">
@@ -7839,7 +7839,7 @@
       <c r="B401" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C401" s="21" t="s">
+      <c r="C401" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D401" s="21" t="s">
@@ -7857,7 +7857,7 @@
       <c r="B402" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C402" s="21" t="s">
+      <c r="C402" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D402" s="21" t="s">
@@ -7875,7 +7875,7 @@
       <c r="B403" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C403" s="21" t="s">
+      <c r="C403" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D403" s="21" t="s">
@@ -7893,7 +7893,7 @@
       <c r="B404" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C404" s="21" t="s">
+      <c r="C404" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D404" s="21" t="s">
@@ -7911,7 +7911,7 @@
       <c r="B405" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C405" s="20" t="s">
+      <c r="C405" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D405" s="20" t="s">
@@ -7929,7 +7929,7 @@
       <c r="B406" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C406" s="20" t="s">
+      <c r="C406" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D406" s="20" t="s">
@@ -7947,7 +7947,7 @@
       <c r="B407" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C407" s="21" t="s">
+      <c r="C407" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D407" s="21" t="s">
@@ -7965,7 +7965,7 @@
       <c r="B408" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C408" s="21" t="s">
+      <c r="C408" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D408" s="21" t="s">
@@ -7983,7 +7983,7 @@
       <c r="B409" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C409" s="21" t="s">
+      <c r="C409" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D409" s="21" t="s">
@@ -8001,7 +8001,7 @@
       <c r="B410" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C410" s="21" t="s">
+      <c r="C410" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D410" s="21" t="s">
@@ -8019,7 +8019,7 @@
       <c r="B411" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C411" s="21" t="s">
+      <c r="C411" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D411" s="21" t="s">
@@ -8037,7 +8037,7 @@
       <c r="B412" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C412" s="21" t="s">
+      <c r="C412" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D412" s="21" t="s">
@@ -8055,7 +8055,7 @@
       <c r="B413" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C413" s="21" t="s">
+      <c r="C413" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D413" s="21" t="s">
@@ -8073,7 +8073,7 @@
       <c r="B414" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C414" s="21" t="s">
+      <c r="C414" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D414" s="21" t="s">
@@ -8089,7 +8089,7 @@
       <c r="B415" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C415" s="21" t="s">
+      <c r="C415" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D415" s="21" t="s">
@@ -8107,7 +8107,7 @@
       <c r="B416" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C416" s="20" t="s">
+      <c r="C416" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D416" s="20" t="s">
@@ -8125,7 +8125,7 @@
       <c r="B417" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C417" s="20" t="s">
+      <c r="C417" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D417" s="20" t="s">
@@ -8143,7 +8143,7 @@
       <c r="B418" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C418" s="21" t="s">
+      <c r="C418" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D418" s="21" t="s">
@@ -8161,7 +8161,7 @@
       <c r="B419" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C419" s="21" t="s">
+      <c r="C419" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D419" s="21" t="s">
@@ -8179,7 +8179,7 @@
       <c r="B420" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C420" s="21" t="s">
+      <c r="C420" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D420" s="21" t="s">
@@ -8197,7 +8197,7 @@
       <c r="B421" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C421" s="21" t="s">
+      <c r="C421" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D421" s="21" t="s">
@@ -8215,7 +8215,7 @@
       <c r="B422" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C422" s="21" t="s">
+      <c r="C422" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D422" s="21" t="s">
@@ -8233,7 +8233,7 @@
       <c r="B423" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C423" s="21" t="s">
+      <c r="C423" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D423" s="21" t="s">
@@ -8251,7 +8251,7 @@
       <c r="B424" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C424" s="21" t="s">
+      <c r="C424" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D424" s="21" t="s">
@@ -8269,7 +8269,7 @@
       <c r="B425" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C425" s="21" t="s">
+      <c r="C425" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D425" s="21" t="s">
@@ -8287,7 +8287,7 @@
       <c r="B426" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C426" s="21" t="s">
+      <c r="C426" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D426" s="21" t="s">
@@ -8305,7 +8305,7 @@
       <c r="B427" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C427" s="20" t="s">
+      <c r="C427" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D427" s="20" t="s">
@@ -8323,7 +8323,7 @@
       <c r="B428" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C428" s="20" t="s">
+      <c r="C428" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D428" s="20" t="s">
@@ -8341,7 +8341,7 @@
       <c r="B429" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C429" s="21" t="s">
+      <c r="C429" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D429" s="21" t="s">
@@ -8359,7 +8359,7 @@
       <c r="B430" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C430" s="21" t="s">
+      <c r="C430" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D430" s="21" t="s">
@@ -8377,7 +8377,7 @@
       <c r="B431" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C431" s="21" t="s">
+      <c r="C431" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D431" s="21" t="s">
@@ -8395,7 +8395,7 @@
       <c r="B432" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C432" s="21" t="s">
+      <c r="C432" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D432" s="21" t="s">
@@ -8413,7 +8413,7 @@
       <c r="B433" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C433" s="21" t="s">
+      <c r="C433" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D433" s="21" t="s">
@@ -8431,7 +8431,7 @@
       <c r="B434" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C434" s="21" t="s">
+      <c r="C434" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D434" s="21" t="s">
@@ -8449,7 +8449,7 @@
       <c r="B435" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C435" s="21" t="s">
+      <c r="C435" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D435" s="21" t="s">
@@ -8467,7 +8467,7 @@
       <c r="B436" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C436" s="21" t="s">
+      <c r="C436" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D436" s="21" t="s">
@@ -8485,7 +8485,7 @@
       <c r="B437" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C437" s="21" t="s">
+      <c r="C437" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D437" s="21" t="s">
@@ -8503,7 +8503,7 @@
       <c r="B438" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C438" s="20" t="s">
+      <c r="C438" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D438" s="20" t="s">
@@ -8521,7 +8521,7 @@
       <c r="B439" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C439" s="20" t="s">
+      <c r="C439" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D439" s="20" t="s">
@@ -8539,7 +8539,7 @@
       <c r="B440" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C440" s="21" t="s">
+      <c r="C440" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D440" s="21" t="s">
@@ -8557,7 +8557,7 @@
       <c r="B441" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C441" s="21" t="s">
+      <c r="C441" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D441" s="21" t="s">
@@ -8575,7 +8575,7 @@
       <c r="B442" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C442" s="21" t="s">
+      <c r="C442" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D442" s="21" t="s">
@@ -8593,7 +8593,7 @@
       <c r="B443" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C443" s="21" t="s">
+      <c r="C443" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D443" s="21" t="s">
@@ -8611,7 +8611,7 @@
       <c r="B444" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C444" s="21" t="s">
+      <c r="C444" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D444" s="21" t="s">
@@ -8629,7 +8629,7 @@
       <c r="B445" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C445" s="21" t="s">
+      <c r="C445" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D445" s="21" t="s">
@@ -8645,7 +8645,7 @@
       <c r="B446" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C446" s="21" t="s">
+      <c r="C446" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D446" s="21" t="s">
@@ -8663,7 +8663,7 @@
       <c r="B447" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C447" s="21" t="s">
+      <c r="C447" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D447" s="21" t="s">
@@ -8681,7 +8681,7 @@
       <c r="B448" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C448" s="21" t="s">
+      <c r="C448" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D448" s="21" t="s">
@@ -8699,7 +8699,7 @@
       <c r="B449" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C449" s="20" t="s">
+      <c r="C449" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D449" s="20" t="s">
@@ -8717,7 +8717,7 @@
       <c r="B450" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C450" s="20" t="s">
+      <c r="C450" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D450" s="20" t="s">
@@ -8735,7 +8735,7 @@
       <c r="B451" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C451" s="21" t="s">
+      <c r="C451" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D451" s="21" t="s">
@@ -8753,7 +8753,7 @@
       <c r="B452" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C452" s="21" t="s">
+      <c r="C452" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D452" s="21" t="s">
@@ -8771,7 +8771,7 @@
       <c r="B453" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C453" s="21" t="s">
+      <c r="C453" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D453" s="21" t="s">
@@ -8789,7 +8789,7 @@
       <c r="B454" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C454" s="21" t="s">
+      <c r="C454" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D454" s="21" t="s">
@@ -8807,7 +8807,7 @@
       <c r="B455" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C455" s="21" t="s">
+      <c r="C455" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D455" s="21" t="s">
@@ -8825,7 +8825,7 @@
       <c r="B456" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C456" s="21" t="s">
+      <c r="C456" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D456" s="21" t="s">
@@ -8843,7 +8843,7 @@
       <c r="B457" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C457" s="21" t="s">
+      <c r="C457" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D457" s="21" t="s">
@@ -8861,7 +8861,7 @@
       <c r="B458" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C458" s="21" t="s">
+      <c r="C458" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D458" s="21" t="s">
@@ -8879,7 +8879,7 @@
       <c r="B459" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C459" s="21" t="s">
+      <c r="C459" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D459" s="21" t="s">
@@ -8897,7 +8897,7 @@
       <c r="B460" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C460" s="20" t="s">
+      <c r="C460" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D460" s="20" t="s">
@@ -8915,7 +8915,7 @@
       <c r="B461" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C461" s="20" t="s">
+      <c r="C461" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D461" s="20" t="s">
@@ -8933,7 +8933,7 @@
       <c r="B462" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C462" s="21" t="s">
+      <c r="C462" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D462" s="21" t="s">
@@ -8951,7 +8951,7 @@
       <c r="B463" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C463" s="21" t="s">
+      <c r="C463" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D463" s="21" t="s">
@@ -8969,7 +8969,7 @@
       <c r="B464" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C464" s="21" t="s">
+      <c r="C464" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D464" s="21" t="s">
@@ -8987,7 +8987,7 @@
       <c r="B465" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C465" s="21" t="s">
+      <c r="C465" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D465" s="21" t="s">
@@ -9005,7 +9005,7 @@
       <c r="B466" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C466" s="21" t="s">
+      <c r="C466" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D466" s="21" t="s">
@@ -9023,7 +9023,7 @@
       <c r="B467" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C467" s="21" t="s">
+      <c r="C467" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D467" s="21" t="s">
@@ -9041,7 +9041,7 @@
       <c r="B468" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C468" s="21" t="s">
+      <c r="C468" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D468" s="21" t="s">
@@ -9059,7 +9059,7 @@
       <c r="B469" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C469" s="21" t="s">
+      <c r="C469" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D469" s="21" t="s">
@@ -9077,7 +9077,7 @@
       <c r="B470" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C470" s="21" t="s">
+      <c r="C470" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D470" s="21" t="s">
@@ -9095,7 +9095,7 @@
       <c r="B471" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C471" s="20" t="s">
+      <c r="C471" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D471" s="20" t="s">
@@ -9113,7 +9113,7 @@
       <c r="B472" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C472" s="20" t="s">
+      <c r="C472" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D472" s="20" t="s">
@@ -9131,7 +9131,7 @@
       <c r="B473" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C473" s="21" t="s">
+      <c r="C473" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D473" s="21" t="s">
@@ -9149,7 +9149,7 @@
       <c r="B474" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C474" s="21" t="s">
+      <c r="C474" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D474" s="21" t="s">
@@ -9167,7 +9167,7 @@
       <c r="B475" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C475" s="21" t="s">
+      <c r="C475" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D475" s="21" t="s">
@@ -9185,7 +9185,7 @@
       <c r="B476" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C476" s="21" t="s">
+      <c r="C476" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D476" s="21" t="s">
@@ -9201,7 +9201,7 @@
       <c r="B477" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C477" s="21" t="s">
+      <c r="C477" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D477" s="21" t="s">
@@ -9219,7 +9219,7 @@
       <c r="B478" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C478" s="21" t="s">
+      <c r="C478" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D478" s="21" t="s">
@@ -9237,7 +9237,7 @@
       <c r="B479" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C479" s="21" t="s">
+      <c r="C479" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D479" s="21" t="s">
@@ -9255,7 +9255,7 @@
       <c r="B480" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C480" s="21" t="s">
+      <c r="C480" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D480" s="21" t="s">
@@ -9273,7 +9273,7 @@
       <c r="B481" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C481" s="21" t="s">
+      <c r="C481" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D481" s="21" t="s">
@@ -9291,7 +9291,7 @@
       <c r="B482" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C482" s="20" t="s">
+      <c r="C482" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D482" s="20" t="s">
@@ -9309,7 +9309,7 @@
       <c r="B483" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C483" s="20" t="s">
+      <c r="C483" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D483" s="20" t="s">
@@ -9327,7 +9327,7 @@
       <c r="B484" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C484" s="21" t="s">
+      <c r="C484" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D484" s="21" t="s">
@@ -9345,7 +9345,7 @@
       <c r="B485" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C485" s="21" t="s">
+      <c r="C485" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D485" s="21" t="s">
@@ -9363,7 +9363,7 @@
       <c r="B486" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C486" s="21" t="s">
+      <c r="C486" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D486" s="21" t="s">
@@ -9381,7 +9381,7 @@
       <c r="B487" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C487" s="21" t="s">
+      <c r="C487" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D487" s="21" t="s">
@@ -9399,7 +9399,7 @@
       <c r="B488" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C488" s="21" t="s">
+      <c r="C488" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D488" s="21" t="s">
@@ -9417,7 +9417,7 @@
       <c r="B489" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C489" s="21" t="s">
+      <c r="C489" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D489" s="21" t="s">
@@ -9435,7 +9435,7 @@
       <c r="B490" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C490" s="21" t="s">
+      <c r="C490" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D490" s="21" t="s">
@@ -9453,7 +9453,7 @@
       <c r="B491" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C491" s="21" t="s">
+      <c r="C491" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D491" s="21" t="s">
@@ -9471,7 +9471,7 @@
       <c r="B492" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C492" s="21" t="s">
+      <c r="C492" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D492" s="21" t="s">
@@ -9489,7 +9489,7 @@
       <c r="B493" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C493" s="20" t="s">
+      <c r="C493" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D493" s="20" t="s">
@@ -9507,7 +9507,7 @@
       <c r="B494" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C494" s="20" t="s">
+      <c r="C494" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D494" s="20" t="s">
@@ -9525,7 +9525,7 @@
       <c r="B495" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C495" s="21" t="s">
+      <c r="C495" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D495" s="21" t="s">
@@ -9543,7 +9543,7 @@
       <c r="B496" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C496" s="21" t="s">
+      <c r="C496" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D496" s="21" t="s">
@@ -9561,7 +9561,7 @@
       <c r="B497" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C497" s="21" t="s">
+      <c r="C497" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D497" s="21" t="s">
@@ -9579,7 +9579,7 @@
       <c r="B498" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C498" s="21" t="s">
+      <c r="C498" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D498" s="21" t="s">
@@ -9597,7 +9597,7 @@
       <c r="B499" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C499" s="21" t="s">
+      <c r="C499" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D499" s="21" t="s">
@@ -9615,7 +9615,7 @@
       <c r="B500" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C500" s="21" t="s">
+      <c r="C500" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D500" s="21" t="s">
@@ -9633,7 +9633,7 @@
       <c r="B501" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C501" s="21" t="s">
+      <c r="C501" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D501" s="21" t="s">
@@ -9651,7 +9651,7 @@
       <c r="B502" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C502" s="21" t="s">
+      <c r="C502" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D502" s="21" t="s">
@@ -9669,7 +9669,7 @@
       <c r="B503" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C503" s="21" t="s">
+      <c r="C503" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D503" s="21" t="s">
@@ -9687,7 +9687,7 @@
       <c r="B504" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C504" s="20" t="s">
+      <c r="C504" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D504" s="20" t="s">
@@ -9705,7 +9705,7 @@
       <c r="B505" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C505" s="20" t="s">
+      <c r="C505" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D505" s="20" t="s">
@@ -9723,7 +9723,7 @@
       <c r="B506" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C506" s="21" t="s">
+      <c r="C506" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D506" s="21" t="s">
@@ -9741,7 +9741,7 @@
       <c r="B507" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C507" s="21" t="s">
+      <c r="C507" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D507" s="21" t="s">
@@ -9757,7 +9757,7 @@
       <c r="B508" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C508" s="21" t="s">
+      <c r="C508" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D508" s="21" t="s">
@@ -9775,7 +9775,7 @@
       <c r="B509" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C509" s="21" t="s">
+      <c r="C509" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D509" s="21" t="s">
@@ -9793,7 +9793,7 @@
       <c r="B510" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C510" s="21" t="s">
+      <c r="C510" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D510" s="21" t="s">
@@ -9811,7 +9811,7 @@
       <c r="B511" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C511" s="21" t="s">
+      <c r="C511" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D511" s="21" t="s">
@@ -9829,7 +9829,7 @@
       <c r="B512" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C512" s="21" t="s">
+      <c r="C512" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D512" s="21" t="s">
@@ -9847,7 +9847,7 @@
       <c r="B513" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C513" s="21" t="s">
+      <c r="C513" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D513" s="21" t="s">
@@ -9865,7 +9865,7 @@
       <c r="B514" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C514" s="21" t="s">
+      <c r="C514" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D514" s="21" t="s">
@@ -9883,7 +9883,7 @@
       <c r="B515" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C515" s="20" t="s">
+      <c r="C515" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D515" s="20" t="s">
@@ -9901,7 +9901,7 @@
       <c r="B516" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C516" s="20" t="s">
+      <c r="C516" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D516" s="20" t="s">
@@ -9919,7 +9919,7 @@
       <c r="B517" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C517" s="21" t="s">
+      <c r="C517" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D517" s="21" t="s">
@@ -9937,7 +9937,7 @@
       <c r="B518" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C518" s="21" t="s">
+      <c r="C518" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D518" s="21" t="s">
@@ -9955,7 +9955,7 @@
       <c r="B519" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C519" s="21" t="s">
+      <c r="C519" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D519" s="21" t="s">
@@ -9973,7 +9973,7 @@
       <c r="B520" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C520" s="21" t="s">
+      <c r="C520" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D520" s="21" t="s">
@@ -9991,7 +9991,7 @@
       <c r="B521" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C521" s="21" t="s">
+      <c r="C521" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D521" s="21" t="s">
@@ -10009,7 +10009,7 @@
       <c r="B522" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C522" s="21" t="s">
+      <c r="C522" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D522" s="21" t="s">
@@ -10027,7 +10027,7 @@
       <c r="B523" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C523" s="21" t="s">
+      <c r="C523" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D523" s="21" t="s">
@@ -10045,7 +10045,7 @@
       <c r="B524" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C524" s="21" t="s">
+      <c r="C524" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D524" s="21" t="s">
@@ -10063,7 +10063,7 @@
       <c r="B525" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C525" s="21" t="s">
+      <c r="C525" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D525" s="21" t="s">
@@ -10081,7 +10081,7 @@
       <c r="B526" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C526" s="20" t="s">
+      <c r="C526" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D526" s="20" t="s">
@@ -10099,7 +10099,7 @@
       <c r="B527" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C527" s="20" t="s">
+      <c r="C527" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D527" s="20" t="s">
@@ -10117,7 +10117,7 @@
       <c r="B528" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C528" s="21" t="s">
+      <c r="C528" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D528" s="21" t="s">
@@ -10135,7 +10135,7 @@
       <c r="B529" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C529" s="21" t="s">
+      <c r="C529" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D529" s="21" t="s">
@@ -10153,7 +10153,7 @@
       <c r="B530" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C530" s="21" t="s">
+      <c r="C530" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D530" s="21" t="s">
@@ -10171,7 +10171,7 @@
       <c r="B531" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C531" s="21" t="s">
+      <c r="C531" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D531" s="21" t="s">
@@ -10189,7 +10189,7 @@
       <c r="B532" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C532" s="21" t="s">
+      <c r="C532" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D532" s="21" t="s">
@@ -10207,7 +10207,7 @@
       <c r="B533" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C533" s="21" t="s">
+      <c r="C533" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D533" s="21" t="s">
@@ -10225,7 +10225,7 @@
       <c r="B534" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C534" s="21" t="s">
+      <c r="C534" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D534" s="21" t="s">
@@ -10243,7 +10243,7 @@
       <c r="B535" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C535" s="21" t="s">
+      <c r="C535" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D535" s="21" t="s">
@@ -10261,7 +10261,7 @@
       <c r="B536" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C536" s="21" t="s">
+      <c r="C536" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D536" s="21" t="s">
@@ -10279,7 +10279,7 @@
       <c r="B537" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C537" s="20" t="s">
+      <c r="C537" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D537" s="20" t="s">
@@ -10297,7 +10297,7 @@
       <c r="B538" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C538" s="20" t="s">
+      <c r="C538" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D538" s="20" t="s">
@@ -10313,7 +10313,7 @@
       <c r="B539" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C539" s="21" t="s">
+      <c r="C539" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D539" s="21" t="s">
@@ -10331,7 +10331,7 @@
       <c r="B540" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C540" s="21" t="s">
+      <c r="C540" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D540" s="21" t="s">
@@ -10349,7 +10349,7 @@
       <c r="B541" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C541" s="21" t="s">
+      <c r="C541" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D541" s="21" t="s">
@@ -10367,7 +10367,7 @@
       <c r="B542" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C542" s="21" t="s">
+      <c r="C542" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D542" s="21" t="s">
@@ -10385,7 +10385,7 @@
       <c r="B543" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C543" s="21" t="s">
+      <c r="C543" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D543" s="21" t="s">
@@ -10403,7 +10403,7 @@
       <c r="B544" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C544" s="21" t="s">
+      <c r="C544" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D544" s="21" t="s">
@@ -10421,7 +10421,7 @@
       <c r="B545" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C545" s="21" t="s">
+      <c r="C545" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D545" s="21" t="s">
@@ -10439,7 +10439,7 @@
       <c r="B546" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C546" s="21" t="s">
+      <c r="C546" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D546" s="21" t="s">
@@ -10457,7 +10457,7 @@
       <c r="B547" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C547" s="21" t="s">
+      <c r="C547" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D547" s="21" t="s">
@@ -10475,7 +10475,7 @@
       <c r="B548" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C548" s="20" t="s">
+      <c r="C548" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D548" s="20" t="s">
@@ -10493,7 +10493,7 @@
       <c r="B549" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C549" s="20" t="s">
+      <c r="C549" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D549" s="20" t="s">
@@ -10511,7 +10511,7 @@
       <c r="B550" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C550" s="21" t="s">
+      <c r="C550" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D550" s="21" t="s">
@@ -10529,7 +10529,7 @@
       <c r="B551" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C551" s="21" t="s">
+      <c r="C551" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D551" s="21" t="s">
@@ -10547,7 +10547,7 @@
       <c r="B552" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C552" s="21" t="s">
+      <c r="C552" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D552" s="21" t="s">
@@ -10565,7 +10565,7 @@
       <c r="B553" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C553" s="21" t="s">
+      <c r="C553" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D553" s="21" t="s">
@@ -10583,7 +10583,7 @@
       <c r="B554" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C554" s="21" t="s">
+      <c r="C554" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D554" s="21" t="s">
@@ -10601,7 +10601,7 @@
       <c r="B555" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C555" s="21" t="s">
+      <c r="C555" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D555" s="21" t="s">
@@ -10619,7 +10619,7 @@
       <c r="B556" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C556" s="21" t="s">
+      <c r="C556" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D556" s="21" t="s">
@@ -10637,7 +10637,7 @@
       <c r="B557" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C557" s="21" t="s">
+      <c r="C557" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D557" s="21" t="s">
@@ -10655,7 +10655,7 @@
       <c r="B558" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C558" s="21" t="s">
+      <c r="C558" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D558" s="21" t="s">
@@ -10673,7 +10673,7 @@
       <c r="B559" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C559" s="20" t="s">
+      <c r="C559" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D559" s="20" t="s">
@@ -10691,7 +10691,7 @@
       <c r="B560" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C560" s="20" t="s">
+      <c r="C560" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D560" s="20" t="s">
@@ -10709,7 +10709,7 @@
       <c r="B561" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C561" s="21" t="s">
+      <c r="C561" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D561" s="21" t="s">
@@ -10727,7 +10727,7 @@
       <c r="B562" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C562" s="21" t="s">
+      <c r="C562" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D562" s="21" t="s">
@@ -10745,7 +10745,7 @@
       <c r="B563" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C563" s="21" t="s">
+      <c r="C563" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D563" s="21" t="s">
@@ -10763,7 +10763,7 @@
       <c r="B564" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C564" s="21" t="s">
+      <c r="C564" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D564" s="21" t="s">
@@ -10781,7 +10781,7 @@
       <c r="B565" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C565" s="21" t="s">
+      <c r="C565" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D565" s="21" t="s">
@@ -10799,7 +10799,7 @@
       <c r="B566" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C566" s="21" t="s">
+      <c r="C566" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D566" s="21" t="s">
@@ -10817,7 +10817,7 @@
       <c r="B567" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C567" s="21" t="s">
+      <c r="C567" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D567" s="21" t="s">
@@ -10835,7 +10835,7 @@
       <c r="B568" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C568" s="21" t="s">
+      <c r="C568" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D568" s="21" t="s">
@@ -10853,7 +10853,7 @@
       <c r="B569" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C569" s="21" t="s">
+      <c r="C569" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D569" s="21" t="s">
@@ -10871,7 +10871,7 @@
       <c r="B570" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C570" s="20" t="s">
+      <c r="C570" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D570" s="20" t="s">
@@ -10889,7 +10889,7 @@
       <c r="B571" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C571" s="20" t="s">
+      <c r="C571" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D571" s="20" t="s">
@@ -10907,7 +10907,7 @@
       <c r="B572" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C572" s="21" t="s">
+      <c r="C572" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D572" s="21" t="s">
@@ -10925,7 +10925,7 @@
       <c r="B573" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C573" s="21" t="s">
+      <c r="C573" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D573" s="21" t="s">
@@ -10943,7 +10943,7 @@
       <c r="B574" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C574" s="21" t="s">
+      <c r="C574" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D574" s="21" t="s">
@@ -10961,7 +10961,7 @@
       <c r="B575" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C575" s="21" t="s">
+      <c r="C575" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D575" s="21" t="s">
@@ -10979,7 +10979,7 @@
       <c r="B576" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C576" s="21" t="s">
+      <c r="C576" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D576" s="21" t="s">
@@ -10997,7 +10997,7 @@
       <c r="B577" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C577" s="21" t="s">
+      <c r="C577" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D577" s="21" t="s">
@@ -11015,7 +11015,7 @@
       <c r="B578" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C578" s="21" t="s">
+      <c r="C578" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D578" s="21" t="s">
@@ -11033,7 +11033,7 @@
       <c r="B579" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C579" s="21" t="s">
+      <c r="C579" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D579" s="21" t="s">
@@ -11051,7 +11051,7 @@
       <c r="B580" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C580" s="21" t="s">
+      <c r="C580" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D580" s="21" t="s">
@@ -11069,7 +11069,7 @@
       <c r="B581" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C581" s="20" t="s">
+      <c r="C581" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D581" s="20" t="s">
@@ -11087,7 +11087,7 @@
       <c r="B582" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C582" s="20" t="s">
+      <c r="C582" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D582" s="20" t="s">
@@ -11105,7 +11105,7 @@
       <c r="B583" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C583" s="21" t="s">
+      <c r="C583" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D583" s="21" t="s">
@@ -11123,7 +11123,7 @@
       <c r="B584" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C584" s="21" t="s">
+      <c r="C584" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D584" s="21" t="s">
@@ -11141,7 +11141,7 @@
       <c r="B585" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C585" s="21" t="s">
+      <c r="C585" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D585" s="21" t="s">
@@ -11159,7 +11159,7 @@
       <c r="B586" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C586" s="21" t="s">
+      <c r="C586" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D586" s="21" t="s">
@@ -11177,7 +11177,7 @@
       <c r="B587" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C587" s="21" t="s">
+      <c r="C587" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D587" s="21" t="s">
@@ -11195,7 +11195,7 @@
       <c r="B588" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C588" s="21" t="s">
+      <c r="C588" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D588" s="21" t="s">
@@ -11213,7 +11213,7 @@
       <c r="B589" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C589" s="21" t="s">
+      <c r="C589" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D589" s="21" t="s">
@@ -11231,7 +11231,7 @@
       <c r="B590" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C590" s="21" t="s">
+      <c r="C590" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D590" s="21" t="s">
@@ -11249,7 +11249,7 @@
       <c r="B591" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C591" s="21" t="s">
+      <c r="C591" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D591" s="21" t="s">
@@ -11267,7 +11267,7 @@
       <c r="B592" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C592" s="20" t="s">
+      <c r="C592" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D592" s="20" t="s">
@@ -11285,7 +11285,7 @@
       <c r="B593" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C593" s="20" t="s">
+      <c r="C593" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D593" s="20" t="s">
@@ -11303,7 +11303,7 @@
       <c r="B594" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C594" s="21" t="s">
+      <c r="C594" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D594" s="21" t="s">
@@ -11321,7 +11321,7 @@
       <c r="B595" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C595" s="21" t="s">
+      <c r="C595" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D595" s="21" t="s">
@@ -11339,7 +11339,7 @@
       <c r="B596" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C596" s="21" t="s">
+      <c r="C596" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D596" s="21" t="s">
@@ -11357,7 +11357,7 @@
       <c r="B597" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C597" s="21" t="s">
+      <c r="C597" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D597" s="21" t="s">
@@ -11375,7 +11375,7 @@
       <c r="B598" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C598" s="21" t="s">
+      <c r="C598" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D598" s="21" t="s">
@@ -11391,7 +11391,7 @@
       <c r="B599" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C599" s="21" t="s">
+      <c r="C599" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D599" s="21" t="s">
@@ -11409,7 +11409,7 @@
       <c r="B600" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C600" s="21" t="s">
+      <c r="C600" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D600" s="21" t="s">
@@ -11427,7 +11427,7 @@
       <c r="B601" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C601" s="21" t="s">
+      <c r="C601" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D601" s="21" t="s">
@@ -11445,7 +11445,7 @@
       <c r="B602" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C602" s="21" t="s">
+      <c r="C602" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D602" s="21" t="s">
@@ -11463,7 +11463,7 @@
       <c r="B603" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C603" s="20" t="s">
+      <c r="C603" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D603" s="20" t="s">
@@ -11481,7 +11481,7 @@
       <c r="B604" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C604" s="20" t="s">
+      <c r="C604" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D604" s="20" t="s">
@@ -11499,7 +11499,7 @@
       <c r="B605" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C605" s="21" t="s">
+      <c r="C605" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D605" s="21" t="s">
@@ -11517,7 +11517,7 @@
       <c r="B606" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C606" s="21" t="s">
+      <c r="C606" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D606" s="21" t="s">
@@ -11535,7 +11535,7 @@
       <c r="B607" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C607" s="21" t="s">
+      <c r="C607" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D607" s="21" t="s">
@@ -11553,7 +11553,7 @@
       <c r="B608" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C608" s="21" t="s">
+      <c r="C608" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D608" s="21" t="s">
@@ -11571,7 +11571,7 @@
       <c r="B609" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C609" s="21" t="s">
+      <c r="C609" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D609" s="21" t="s">
@@ -11589,7 +11589,7 @@
       <c r="B610" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C610" s="21" t="s">
+      <c r="C610" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D610" s="21" t="s">
@@ -11607,7 +11607,7 @@
       <c r="B611" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C611" s="21" t="s">
+      <c r="C611" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D611" s="21" t="s">
@@ -11625,7 +11625,7 @@
       <c r="B612" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C612" s="21" t="s">
+      <c r="C612" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D612" s="21" t="s">
@@ -11643,7 +11643,7 @@
       <c r="B613" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C613" s="21" t="s">
+      <c r="C613" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D613" s="21" t="s">
@@ -11661,7 +11661,7 @@
       <c r="B614" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C614" s="20" t="s">
+      <c r="C614" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D614" s="20" t="s">
@@ -11679,7 +11679,7 @@
       <c r="B615" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C615" s="20" t="s">
+      <c r="C615" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D615" s="20" t="s">
@@ -11697,7 +11697,7 @@
       <c r="B616" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C616" s="21" t="s">
+      <c r="C616" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D616" s="21" t="s">
@@ -11715,7 +11715,7 @@
       <c r="B617" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C617" s="21" t="s">
+      <c r="C617" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D617" s="21" t="s">
@@ -11733,7 +11733,7 @@
       <c r="B618" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C618" s="21" t="s">
+      <c r="C618" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D618" s="21" t="s">
@@ -11751,7 +11751,7 @@
       <c r="B619" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C619" s="21" t="s">
+      <c r="C619" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D619" s="21" t="s">
@@ -11769,7 +11769,7 @@
       <c r="B620" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C620" s="21" t="s">
+      <c r="C620" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D620" s="21" t="s">
@@ -11787,7 +11787,7 @@
       <c r="B621" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C621" s="21" t="s">
+      <c r="C621" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D621" s="21" t="s">
@@ -11805,7 +11805,7 @@
       <c r="B622" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C622" s="21" t="s">
+      <c r="C622" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D622" s="21" t="s">
@@ -11823,7 +11823,7 @@
       <c r="B623" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C623" s="21" t="s">
+      <c r="C623" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D623" s="21" t="s">
@@ -11841,7 +11841,7 @@
       <c r="B624" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C624" s="21" t="s">
+      <c r="C624" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D624" s="21" t="s">
@@ -11859,7 +11859,7 @@
       <c r="B625" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C625" s="20" t="s">
+      <c r="C625" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D625" s="20" t="s">
@@ -11877,7 +11877,7 @@
       <c r="B626" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C626" s="20" t="s">
+      <c r="C626" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D626" s="20" t="s">
@@ -11895,7 +11895,7 @@
       <c r="B627" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C627" s="21" t="s">
+      <c r="C627" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D627" s="21" t="s">
@@ -11913,7 +11913,7 @@
       <c r="B628" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C628" s="21" t="s">
+      <c r="C628" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D628" s="21" t="s">
@@ -11931,7 +11931,7 @@
       <c r="B629" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C629" s="21" t="s">
+      <c r="C629" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D629" s="21" t="s">
@@ -11947,7 +11947,7 @@
       <c r="B630" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C630" s="21" t="s">
+      <c r="C630" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D630" s="21" t="s">
@@ -11965,7 +11965,7 @@
       <c r="B631" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C631" s="21" t="s">
+      <c r="C631" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D631" s="21" t="s">
@@ -11983,7 +11983,7 @@
       <c r="B632" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C632" s="21" t="s">
+      <c r="C632" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D632" s="21" t="s">
@@ -12001,7 +12001,7 @@
       <c r="B633" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C633" s="21" t="s">
+      <c r="C633" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D633" s="21" t="s">
@@ -12019,7 +12019,7 @@
       <c r="B634" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C634" s="21" t="s">
+      <c r="C634" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D634" s="21" t="s">
@@ -12037,7 +12037,7 @@
       <c r="B635" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C635" s="21" t="s">
+      <c r="C635" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D635" s="21" t="s">
@@ -12055,7 +12055,7 @@
       <c r="B636" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C636" s="20" t="s">
+      <c r="C636" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D636" s="20" t="s">
@@ -12073,7 +12073,7 @@
       <c r="B637" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C637" s="20" t="s">
+      <c r="C637" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D637" s="20" t="s">
@@ -12091,7 +12091,7 @@
       <c r="B638" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C638" s="21" t="s">
+      <c r="C638" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D638" s="21" t="s">
@@ -12109,7 +12109,7 @@
       <c r="B639" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C639" s="21" t="s">
+      <c r="C639" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D639" s="21" t="s">
@@ -12127,7 +12127,7 @@
       <c r="B640" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C640" s="21" t="s">
+      <c r="C640" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D640" s="21" t="s">
@@ -12145,7 +12145,7 @@
       <c r="B641" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C641" s="21" t="s">
+      <c r="C641" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D641" s="21" t="s">
@@ -12163,7 +12163,7 @@
       <c r="B642" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C642" s="21" t="s">
+      <c r="C642" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D642" s="21" t="s">
@@ -12181,7 +12181,7 @@
       <c r="B643" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C643" s="21" t="s">
+      <c r="C643" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D643" s="21" t="s">
@@ -12199,7 +12199,7 @@
       <c r="B644" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C644" s="21" t="s">
+      <c r="C644" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D644" s="21" t="s">
@@ -12217,7 +12217,7 @@
       <c r="B645" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C645" s="21" t="s">
+      <c r="C645" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D645" s="21" t="s">
@@ -12235,7 +12235,7 @@
       <c r="B646" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C646" s="21" t="s">
+      <c r="C646" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D646" s="21" t="s">
@@ -12253,7 +12253,7 @@
       <c r="B647" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C647" s="20" t="s">
+      <c r="C647" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D647" s="20" t="s">
@@ -12271,7 +12271,7 @@
       <c r="B648" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C648" s="20" t="s">
+      <c r="C648" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D648" s="20" t="s">
@@ -12289,7 +12289,7 @@
       <c r="B649" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C649" s="21" t="s">
+      <c r="C649" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D649" s="21" t="s">
@@ -12307,7 +12307,7 @@
       <c r="B650" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C650" s="21" t="s">
+      <c r="C650" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D650" s="21" t="s">
@@ -12325,7 +12325,7 @@
       <c r="B651" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C651" s="21" t="s">
+      <c r="C651" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D651" s="21" t="s">
@@ -12343,7 +12343,7 @@
       <c r="B652" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C652" s="21" t="s">
+      <c r="C652" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D652" s="21" t="s">
@@ -12361,7 +12361,7 @@
       <c r="B653" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C653" s="21" t="s">
+      <c r="C653" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D653" s="21" t="s">
@@ -12379,7 +12379,7 @@
       <c r="B654" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C654" s="21" t="s">
+      <c r="C654" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D654" s="21" t="s">
@@ -12397,7 +12397,7 @@
       <c r="B655" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C655" s="21" t="s">
+      <c r="C655" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D655" s="21" t="s">
@@ -12415,7 +12415,7 @@
       <c r="B656" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C656" s="21" t="s">
+      <c r="C656" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D656" s="21" t="s">
@@ -12433,7 +12433,7 @@
       <c r="B657" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C657" s="21" t="s">
+      <c r="C657" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D657" s="21" t="s">
@@ -12451,7 +12451,7 @@
       <c r="B658" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C658" s="20" t="s">
+      <c r="C658" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D658" s="20" t="s">
@@ -12469,7 +12469,7 @@
       <c r="B659" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C659" s="20" t="s">
+      <c r="C659" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D659" s="20" t="s">
@@ -12487,7 +12487,7 @@
       <c r="B660" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C660" s="21" t="s">
+      <c r="C660" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D660" s="21" t="s">
@@ -12503,7 +12503,7 @@
       <c r="B661" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C661" s="21" t="s">
+      <c r="C661" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D661" s="21" t="s">
@@ -12521,7 +12521,7 @@
       <c r="B662" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C662" s="21" t="s">
+      <c r="C662" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D662" s="21" t="s">
@@ -12539,7 +12539,7 @@
       <c r="B663" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C663" s="21" t="s">
+      <c r="C663" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D663" s="21" t="s">
@@ -12557,7 +12557,7 @@
       <c r="B664" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C664" s="21" t="s">
+      <c r="C664" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D664" s="21" t="s">
@@ -12575,7 +12575,7 @@
       <c r="B665" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C665" s="21" t="s">
+      <c r="C665" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D665" s="21" t="s">
@@ -12593,7 +12593,7 @@
       <c r="B666" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C666" s="21" t="s">
+      <c r="C666" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D666" s="21" t="s">
@@ -12611,7 +12611,7 @@
       <c r="B667" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C667" s="21" t="s">
+      <c r="C667" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D667" s="21" t="s">
@@ -12629,7 +12629,7 @@
       <c r="B668" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C668" s="21" t="s">
+      <c r="C668" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D668" s="21" t="s">
@@ -12647,7 +12647,7 @@
       <c r="B669" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C669" s="20" t="s">
+      <c r="C669" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D669" s="20" t="s">
@@ -12665,7 +12665,7 @@
       <c r="B670" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C670" s="20" t="s">
+      <c r="C670" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D670" s="20" t="s">
@@ -12683,7 +12683,7 @@
       <c r="B671" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C671" s="21" t="s">
+      <c r="C671" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D671" s="21" t="s">
@@ -12701,7 +12701,7 @@
       <c r="B672" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C672" s="21" t="s">
+      <c r="C672" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D672" s="21" t="s">
@@ -12719,7 +12719,7 @@
       <c r="B673" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C673" s="21" t="s">
+      <c r="C673" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D673" s="21" t="s">
@@ -12737,7 +12737,7 @@
       <c r="B674" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C674" s="21" t="s">
+      <c r="C674" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D674" s="21" t="s">
@@ -12755,7 +12755,7 @@
       <c r="B675" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C675" s="21" t="s">
+      <c r="C675" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D675" s="21" t="s">
@@ -12773,7 +12773,7 @@
       <c r="B676" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C676" s="21" t="s">
+      <c r="C676" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D676" s="21" t="s">
@@ -12791,7 +12791,7 @@
       <c r="B677" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C677" s="21" t="s">
+      <c r="C677" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D677" s="21" t="s">
@@ -12809,7 +12809,7 @@
       <c r="B678" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C678" s="21" t="s">
+      <c r="C678" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D678" s="21" t="s">
@@ -12827,7 +12827,7 @@
       <c r="B679" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C679" s="21" t="s">
+      <c r="C679" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D679" s="21" t="s">
@@ -12845,7 +12845,7 @@
       <c r="B680" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C680" s="20" t="s">
+      <c r="C680" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D680" s="20" t="s">
@@ -12863,7 +12863,7 @@
       <c r="B681" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C681" s="20" t="s">
+      <c r="C681" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D681" s="20" t="s">
@@ -12881,7 +12881,7 @@
       <c r="B682" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C682" s="21" t="s">
+      <c r="C682" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D682" s="21" t="s">
@@ -12899,7 +12899,7 @@
       <c r="B683" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C683" s="21" t="s">
+      <c r="C683" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D683" s="21" t="s">
@@ -12917,7 +12917,7 @@
       <c r="B684" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C684" s="21" t="s">
+      <c r="C684" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D684" s="21" t="s">
@@ -12935,7 +12935,7 @@
       <c r="B685" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C685" s="21" t="s">
+      <c r="C685" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D685" s="21" t="s">
@@ -12953,7 +12953,7 @@
       <c r="B686" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C686" s="21" t="s">
+      <c r="C686" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D686" s="21" t="s">
@@ -12971,7 +12971,7 @@
       <c r="B687" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C687" s="21" t="s">
+      <c r="C687" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D687" s="21" t="s">
@@ -12989,7 +12989,7 @@
       <c r="B688" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C688" s="21" t="s">
+      <c r="C688" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D688" s="21" t="s">
@@ -13007,7 +13007,7 @@
       <c r="B689" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C689" s="21" t="s">
+      <c r="C689" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D689" s="21" t="s">
@@ -13025,7 +13025,7 @@
       <c r="B690" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C690" s="21" t="s">
+      <c r="C690" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D690" s="21" t="s">
@@ -13043,7 +13043,7 @@
       <c r="B691" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C691" s="20" t="s">
+      <c r="C691" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D691" s="20" t="s">
@@ -13059,7 +13059,7 @@
       <c r="B692" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C692" s="20" t="s">
+      <c r="C692" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D692" s="20" t="s">
@@ -13077,7 +13077,7 @@
       <c r="B693" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C693" s="21" t="s">
+      <c r="C693" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D693" s="21" t="s">
@@ -13095,7 +13095,7 @@
       <c r="B694" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C694" s="21" t="s">
+      <c r="C694" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D694" s="21" t="s">
@@ -13113,7 +13113,7 @@
       <c r="B695" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C695" s="21" t="s">
+      <c r="C695" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D695" s="21" t="s">
@@ -13131,7 +13131,7 @@
       <c r="B696" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C696" s="21" t="s">
+      <c r="C696" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D696" s="21" t="s">
@@ -13149,7 +13149,7 @@
       <c r="B697" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C697" s="21" t="s">
+      <c r="C697" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D697" s="21" t="s">
@@ -13167,7 +13167,7 @@
       <c r="B698" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C698" s="21" t="s">
+      <c r="C698" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D698" s="21" t="s">
@@ -13185,7 +13185,7 @@
       <c r="B699" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C699" s="21" t="s">
+      <c r="C699" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D699" s="21" t="s">
@@ -13203,7 +13203,7 @@
       <c r="B700" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C700" s="21" t="s">
+      <c r="C700" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D700" s="21" t="s">
@@ -13221,7 +13221,7 @@
       <c r="B701" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C701" s="21" t="s">
+      <c r="C701" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D701" s="21" t="s">
@@ -13239,7 +13239,7 @@
       <c r="B702" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C702" s="20" t="s">
+      <c r="C702" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D702" s="20" t="s">
@@ -13257,7 +13257,7 @@
       <c r="B703" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C703" s="20" t="s">
+      <c r="C703" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D703" s="20" t="s">
@@ -13275,7 +13275,7 @@
       <c r="B704" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C704" s="21" t="s">
+      <c r="C704" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D704" s="21" t="s">
@@ -13291,7 +13291,7 @@
         <v>16</v>
       </c>
       <c r="B705" s="20"/>
-      <c r="C705" s="20"/>
+      <c r="C705" s="36"/>
       <c r="D705" s="20"/>
       <c r="E705" s="15"/>
       <c r="F705" s="15"/>
@@ -13305,7 +13305,7 @@
       <c r="B706" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C706" s="20" t="s">
+      <c r="C706" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D706" s="20" t="s">
@@ -13323,7 +13323,7 @@
       <c r="B707" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C707" s="21" t="s">
+      <c r="C707" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D707" s="21" t="s">
@@ -13341,7 +13341,7 @@
       <c r="B708" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C708" s="21" t="s">
+      <c r="C708" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D708" s="21" t="s">
@@ -13359,7 +13359,7 @@
       <c r="B709" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C709" s="21" t="s">
+      <c r="C709" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D709" s="21" t="s">
@@ -13377,7 +13377,7 @@
       <c r="B710" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C710" s="21" t="s">
+      <c r="C710" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D710" s="21" t="s">
@@ -13395,7 +13395,7 @@
       <c r="B711" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C711" s="21" t="s">
+      <c r="C711" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D711" s="21" t="s">
@@ -13413,7 +13413,7 @@
       <c r="B712" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C712" s="21" t="s">
+      <c r="C712" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D712" s="21" t="s">
@@ -13431,7 +13431,7 @@
       <c r="B713" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C713" s="21" t="s">
+      <c r="C713" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D713" s="21" t="s">
@@ -13449,7 +13449,7 @@
       <c r="B714" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C714" s="21" t="s">
+      <c r="C714" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D714" s="21" t="s">
@@ -13467,7 +13467,7 @@
       <c r="B715" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C715" s="21" t="s">
+      <c r="C715" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D715" s="21" t="s">
@@ -13485,7 +13485,7 @@
       <c r="B716" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C716" s="20" t="s">
+      <c r="C716" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D716" s="20" t="s">
@@ -13503,7 +13503,7 @@
       <c r="B717" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C717" s="20" t="s">
+      <c r="C717" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D717" s="20" t="s">
@@ -13521,7 +13521,7 @@
       <c r="B718" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C718" s="21" t="s">
+      <c r="C718" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D718" s="21" t="s">
@@ -13539,7 +13539,7 @@
       <c r="B719" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C719" s="21" t="s">
+      <c r="C719" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D719" s="21" t="s">
@@ -13557,7 +13557,7 @@
       <c r="B720" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C720" s="21" t="s">
+      <c r="C720" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D720" s="21" t="s">
@@ -13575,7 +13575,7 @@
       <c r="B721" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C721" s="21" t="s">
+      <c r="C721" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D721" s="21" t="s">
@@ -13593,7 +13593,7 @@
       <c r="B722" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C722" s="21" t="s">
+      <c r="C722" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D722" s="21" t="s">
@@ -13609,7 +13609,7 @@
       <c r="B723" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C723" s="21" t="s">
+      <c r="C723" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D723" s="21" t="s">
@@ -13627,7 +13627,7 @@
       <c r="B724" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C724" s="21" t="s">
+      <c r="C724" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D724" s="21" t="s">
@@ -13645,7 +13645,7 @@
       <c r="B725" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C725" s="21" t="s">
+      <c r="C725" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D725" s="21" t="s">
@@ -13663,7 +13663,7 @@
       <c r="B726" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C726" s="21" t="s">
+      <c r="C726" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D726" s="21" t="s">
@@ -13681,7 +13681,7 @@
       <c r="B727" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C727" s="20" t="s">
+      <c r="C727" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D727" s="20" t="s">
@@ -13699,7 +13699,7 @@
       <c r="B728" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C728" s="20" t="s">
+      <c r="C728" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D728" s="20" t="s">
@@ -13717,7 +13717,7 @@
       <c r="B729" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C729" s="21" t="s">
+      <c r="C729" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D729" s="21" t="s">
@@ -13735,7 +13735,7 @@
       <c r="B730" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C730" s="21" t="s">
+      <c r="C730" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D730" s="21" t="s">
@@ -13753,7 +13753,7 @@
       <c r="B731" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C731" s="21" t="s">
+      <c r="C731" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D731" s="21" t="s">
@@ -13771,7 +13771,7 @@
       <c r="B732" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C732" s="21" t="s">
+      <c r="C732" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D732" s="21" t="s">
@@ -13789,7 +13789,7 @@
       <c r="B733" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C733" s="21" t="s">
+      <c r="C733" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D733" s="21" t="s">
@@ -13807,7 +13807,7 @@
       <c r="B734" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C734" s="21" t="s">
+      <c r="C734" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D734" s="21" t="s">
@@ -13825,7 +13825,7 @@
       <c r="B735" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C735" s="21" t="s">
+      <c r="C735" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D735" s="21" t="s">
@@ -13843,7 +13843,7 @@
       <c r="B736" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C736" s="21" t="s">
+      <c r="C736" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D736" s="21" t="s">
@@ -13861,7 +13861,7 @@
       <c r="B737" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C737" s="21" t="s">
+      <c r="C737" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D737" s="21" t="s">
@@ -13879,7 +13879,7 @@
       <c r="B738" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C738" s="20" t="s">
+      <c r="C738" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D738" s="20" t="s">
@@ -13897,7 +13897,7 @@
       <c r="B739" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C739" s="20" t="s">
+      <c r="C739" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D739" s="20" t="s">
@@ -13915,7 +13915,7 @@
       <c r="B740" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C740" s="21" t="s">
+      <c r="C740" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D740" s="21" t="s">
@@ -13933,7 +13933,7 @@
       <c r="B741" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C741" s="21" t="s">
+      <c r="C741" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D741" s="21" t="s">
@@ -13951,7 +13951,7 @@
       <c r="B742" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C742" s="21" t="s">
+      <c r="C742" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D742" s="21" t="s">
@@ -13969,7 +13969,7 @@
       <c r="B743" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C743" s="21" t="s">
+      <c r="C743" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D743" s="21" t="s">
@@ -13987,7 +13987,7 @@
       <c r="B744" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C744" s="21" t="s">
+      <c r="C744" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D744" s="21" t="s">
@@ -14005,7 +14005,7 @@
       <c r="B745" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C745" s="21" t="s">
+      <c r="C745" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D745" s="21" t="s">
@@ -14023,7 +14023,7 @@
       <c r="B746" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C746" s="21" t="s">
+      <c r="C746" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D746" s="21" t="s">
@@ -14041,7 +14041,7 @@
       <c r="B747" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C747" s="21" t="s">
+      <c r="C747" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D747" s="21" t="s">
@@ -14059,7 +14059,7 @@
       <c r="B748" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C748" s="21" t="s">
+      <c r="C748" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D748" s="21" t="s">
@@ -14077,7 +14077,7 @@
       <c r="B749" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C749" s="20" t="s">
+      <c r="C749" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D749" s="20" t="s">
@@ -14095,7 +14095,7 @@
       <c r="B750" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C750" s="20" t="s">
+      <c r="C750" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D750" s="20" t="s">
@@ -14113,7 +14113,7 @@
       <c r="B751" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C751" s="21" t="s">
+      <c r="C751" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D751" s="21" t="s">
@@ -14131,7 +14131,7 @@
       <c r="B752" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C752" s="21" t="s">
+      <c r="C752" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D752" s="21" t="s">
@@ -14149,7 +14149,7 @@
       <c r="B753" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C753" s="21" t="s">
+      <c r="C753" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D753" s="21" t="s">
@@ -14167,7 +14167,7 @@
       <c r="B754" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C754" s="21" t="s">
+      <c r="C754" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D754" s="21" t="s">
@@ -14185,7 +14185,7 @@
       <c r="B755" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C755" s="21" t="s">
+      <c r="C755" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D755" s="21" t="s">
@@ -14203,7 +14203,7 @@
       <c r="B756" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C756" s="21" t="s">
+      <c r="C756" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D756" s="21" t="s">
@@ -14221,7 +14221,7 @@
       <c r="B757" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C757" s="21" t="s">
+      <c r="C757" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D757" s="21" t="s">
@@ -14239,7 +14239,7 @@
       <c r="B758" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C758" s="21" t="s">
+      <c r="C758" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D758" s="21" t="s">
@@ -14257,7 +14257,7 @@
       <c r="B759" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C759" s="21" t="s">
+      <c r="C759" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D759" s="21" t="s">
@@ -14275,7 +14275,7 @@
       <c r="B760" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C760" s="20" t="s">
+      <c r="C760" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D760" s="20" t="s">
@@ -14293,7 +14293,7 @@
       <c r="B761" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C761" s="20" t="s">
+      <c r="C761" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D761" s="20" t="s">
@@ -14311,7 +14311,7 @@
       <c r="B762" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C762" s="21" t="s">
+      <c r="C762" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D762" s="21" t="s">
@@ -14329,7 +14329,7 @@
       <c r="B763" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C763" s="21" t="s">
+      <c r="C763" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D763" s="21" t="s">
@@ -14347,7 +14347,7 @@
       <c r="B764" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C764" s="21" t="s">
+      <c r="C764" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D764" s="21" t="s">
@@ -14365,7 +14365,7 @@
       <c r="B765" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C765" s="21" t="s">
+      <c r="C765" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D765" s="21" t="s">
@@ -14383,7 +14383,7 @@
       <c r="B766" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C766" s="21" t="s">
+      <c r="C766" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D766" s="21" t="s">
@@ -14401,7 +14401,7 @@
       <c r="B767" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C767" s="21" t="s">
+      <c r="C767" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D767" s="21" t="s">
@@ -14419,7 +14419,7 @@
       <c r="B768" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C768" s="21" t="s">
+      <c r="C768" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D768" s="21" t="s">
@@ -14437,7 +14437,7 @@
       <c r="B769" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C769" s="21" t="s">
+      <c r="C769" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D769" s="21" t="s">
@@ -14455,7 +14455,7 @@
       <c r="B770" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C770" s="21" t="s">
+      <c r="C770" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D770" s="21" t="s">
@@ -14473,7 +14473,7 @@
       <c r="B771" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C771" s="20" t="s">
+      <c r="C771" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D771" s="20" t="s">
@@ -14491,7 +14491,7 @@
       <c r="B772" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C772" s="20" t="s">
+      <c r="C772" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D772" s="20" t="s">
@@ -14509,7 +14509,7 @@
       <c r="B773" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C773" s="21" t="s">
+      <c r="C773" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D773" s="21" t="s">
@@ -14527,7 +14527,7 @@
       <c r="B774" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C774" s="21" t="s">
+      <c r="C774" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D774" s="21" t="s">
@@ -14545,7 +14545,7 @@
       <c r="B775" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C775" s="21" t="s">
+      <c r="C775" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D775" s="21" t="s">
@@ -14563,7 +14563,7 @@
       <c r="B776" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C776" s="21" t="s">
+      <c r="C776" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D776" s="21" t="s">
@@ -14581,7 +14581,7 @@
       <c r="B777" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C777" s="21" t="s">
+      <c r="C777" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D777" s="21" t="s">
@@ -14599,7 +14599,7 @@
       <c r="B778" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C778" s="21" t="s">
+      <c r="C778" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D778" s="21" t="s">
@@ -14617,7 +14617,7 @@
       <c r="B779" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C779" s="21" t="s">
+      <c r="C779" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D779" s="21" t="s">
@@ -14635,7 +14635,7 @@
       <c r="B780" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C780" s="21" t="s">
+      <c r="C780" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D780" s="21" t="s">
@@ -14653,7 +14653,7 @@
       <c r="B781" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C781" s="21" t="s">
+      <c r="C781" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D781" s="21" t="s">
@@ -14671,7 +14671,7 @@
       <c r="B782" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C782" s="20" t="s">
+      <c r="C782" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D782" s="20" t="s">
@@ -14687,7 +14687,7 @@
       <c r="B783" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C783" s="20" t="s">
+      <c r="C783" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D783" s="20" t="s">
@@ -14705,7 +14705,7 @@
       <c r="B784" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C784" s="21" t="s">
+      <c r="C784" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D784" s="21" t="s">
@@ -14723,7 +14723,7 @@
       <c r="B785" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C785" s="21" t="s">
+      <c r="C785" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D785" s="21" t="s">
@@ -14741,7 +14741,7 @@
       <c r="B786" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C786" s="21" t="s">
+      <c r="C786" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D786" s="21" t="s">
@@ -14759,7 +14759,7 @@
       <c r="B787" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C787" s="21" t="s">
+      <c r="C787" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D787" s="21" t="s">
@@ -14777,7 +14777,7 @@
       <c r="B788" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C788" s="21" t="s">
+      <c r="C788" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D788" s="21" t="s">
@@ -14795,7 +14795,7 @@
       <c r="B789" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C789" s="21" t="s">
+      <c r="C789" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D789" s="21" t="s">
@@ -14813,7 +14813,7 @@
       <c r="B790" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C790" s="21" t="s">
+      <c r="C790" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D790" s="21" t="s">
@@ -14831,7 +14831,7 @@
       <c r="B791" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C791" s="21" t="s">
+      <c r="C791" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D791" s="21" t="s">
@@ -14849,7 +14849,7 @@
       <c r="B792" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C792" s="21" t="s">
+      <c r="C792" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D792" s="21" t="s">
@@ -14867,7 +14867,7 @@
       <c r="B793" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C793" s="20" t="s">
+      <c r="C793" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D793" s="20" t="s">
@@ -14885,7 +14885,7 @@
       <c r="B794" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C794" s="20" t="s">
+      <c r="C794" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D794" s="20" t="s">
@@ -14903,7 +14903,7 @@
       <c r="B795" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C795" s="21" t="s">
+      <c r="C795" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D795" s="21" t="s">
@@ -14921,7 +14921,7 @@
       <c r="B796" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C796" s="21" t="s">
+      <c r="C796" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D796" s="21" t="s">
@@ -14939,7 +14939,7 @@
       <c r="B797" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C797" s="21" t="s">
+      <c r="C797" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D797" s="21" t="s">
@@ -14957,7 +14957,7 @@
       <c r="B798" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C798" s="21" t="s">
+      <c r="C798" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D798" s="21" t="s">
@@ -14975,7 +14975,7 @@
       <c r="B799" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C799" s="21" t="s">
+      <c r="C799" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D799" s="21" t="s">
@@ -14993,7 +14993,7 @@
       <c r="B800" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C800" s="21" t="s">
+      <c r="C800" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D800" s="21" t="s">
@@ -15011,7 +15011,7 @@
       <c r="B801" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C801" s="21" t="s">
+      <c r="C801" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D801" s="21" t="s">
@@ -15029,7 +15029,7 @@
       <c r="B802" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C802" s="21" t="s">
+      <c r="C802" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D802" s="21" t="s">
@@ -15047,7 +15047,7 @@
       <c r="B803" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C803" s="21" t="s">
+      <c r="C803" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D803" s="21" t="s">
@@ -15065,7 +15065,7 @@
       <c r="B804" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C804" s="20" t="s">
+      <c r="C804" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D804" s="20" t="s">
@@ -15083,7 +15083,7 @@
       <c r="B805" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C805" s="20" t="s">
+      <c r="C805" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D805" s="20" t="s">
@@ -15101,7 +15101,7 @@
       <c r="B806" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C806" s="21" t="s">
+      <c r="C806" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D806" s="21" t="s">
@@ -15119,7 +15119,7 @@
       <c r="B807" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C807" s="21" t="s">
+      <c r="C807" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D807" s="21" t="s">
@@ -15137,7 +15137,7 @@
       <c r="B808" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C808" s="21" t="s">
+      <c r="C808" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D808" s="21" t="s">
@@ -15155,7 +15155,7 @@
       <c r="B809" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C809" s="21" t="s">
+      <c r="C809" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D809" s="21" t="s">
@@ -15173,7 +15173,7 @@
       <c r="B810" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C810" s="21" t="s">
+      <c r="C810" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D810" s="21" t="s">
@@ -15191,7 +15191,7 @@
       <c r="B811" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C811" s="21" t="s">
+      <c r="C811" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D811" s="21" t="s">
@@ -15209,7 +15209,7 @@
       <c r="B812" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C812" s="21" t="s">
+      <c r="C812" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D812" s="21" t="s">
@@ -15227,7 +15227,7 @@
       <c r="B813" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C813" s="21" t="s">
+      <c r="C813" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D813" s="21" t="s">
@@ -15243,7 +15243,7 @@
       <c r="B814" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C814" s="21" t="s">
+      <c r="C814" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D814" s="21" t="s">
@@ -15261,7 +15261,7 @@
       <c r="B815" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C815" s="20" t="s">
+      <c r="C815" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D815" s="20" t="s">
@@ -15279,7 +15279,7 @@
       <c r="B816" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C816" s="20" t="s">
+      <c r="C816" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D816" s="20" t="s">
@@ -15297,7 +15297,7 @@
       <c r="B817" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C817" s="21" t="s">
+      <c r="C817" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D817" s="21" t="s">
@@ -15315,7 +15315,7 @@
       <c r="B818" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C818" s="21" t="s">
+      <c r="C818" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D818" s="21" t="s">
@@ -15333,7 +15333,7 @@
       <c r="B819" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C819" s="21" t="s">
+      <c r="C819" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D819" s="21" t="s">
@@ -15351,7 +15351,7 @@
       <c r="B820" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C820" s="21" t="s">
+      <c r="C820" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D820" s="21" t="s">
@@ -15369,7 +15369,7 @@
       <c r="B821" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C821" s="21" t="s">
+      <c r="C821" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D821" s="21" t="s">
@@ -15387,7 +15387,7 @@
       <c r="B822" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C822" s="21" t="s">
+      <c r="C822" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D822" s="21" t="s">
@@ -15405,7 +15405,7 @@
       <c r="B823" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C823" s="21" t="s">
+      <c r="C823" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D823" s="21" t="s">
@@ -15423,7 +15423,7 @@
       <c r="B824" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C824" s="21" t="s">
+      <c r="C824" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D824" s="21" t="s">
@@ -15441,7 +15441,7 @@
       <c r="B825" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C825" s="21" t="s">
+      <c r="C825" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D825" s="21" t="s">
@@ -15459,7 +15459,7 @@
       <c r="B826" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C826" s="20" t="s">
+      <c r="C826" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D826" s="20" t="s">
@@ -15477,7 +15477,7 @@
       <c r="B827" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C827" s="20" t="s">
+      <c r="C827" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D827" s="20" t="s">
@@ -15495,7 +15495,7 @@
       <c r="B828" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C828" s="21" t="s">
+      <c r="C828" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D828" s="21" t="s">
@@ -15513,7 +15513,7 @@
       <c r="B829" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C829" s="21" t="s">
+      <c r="C829" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D829" s="21" t="s">
@@ -15531,7 +15531,7 @@
       <c r="B830" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C830" s="21" t="s">
+      <c r="C830" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D830" s="21" t="s">
@@ -15549,7 +15549,7 @@
       <c r="B831" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C831" s="21" t="s">
+      <c r="C831" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D831" s="21" t="s">
@@ -15567,7 +15567,7 @@
       <c r="B832" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C832" s="21" t="s">
+      <c r="C832" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D832" s="21" t="s">
@@ -15585,7 +15585,7 @@
       <c r="B833" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C833" s="21" t="s">
+      <c r="C833" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D833" s="21" t="s">
@@ -15603,7 +15603,7 @@
       <c r="B834" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C834" s="21" t="s">
+      <c r="C834" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D834" s="21" t="s">
@@ -15621,7 +15621,7 @@
       <c r="B835" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C835" s="21" t="s">
+      <c r="C835" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D835" s="21" t="s">
@@ -15639,7 +15639,7 @@
       <c r="B836" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C836" s="21" t="s">
+      <c r="C836" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D836" s="21" t="s">
@@ -15657,7 +15657,7 @@
       <c r="B837" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C837" s="20" t="s">
+      <c r="C837" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D837" s="20" t="s">
@@ -15675,7 +15675,7 @@
       <c r="B838" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C838" s="20" t="s">
+      <c r="C838" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D838" s="20" t="s">
@@ -15693,7 +15693,7 @@
       <c r="B839" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C839" s="21" t="s">
+      <c r="C839" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D839" s="21" t="s">
@@ -15711,7 +15711,7 @@
       <c r="B840" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C840" s="21" t="s">
+      <c r="C840" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D840" s="21" t="s">
@@ -15729,7 +15729,7 @@
       <c r="B841" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C841" s="21" t="s">
+      <c r="C841" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D841" s="21" t="s">
@@ -15747,7 +15747,7 @@
       <c r="B842" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C842" s="21" t="s">
+      <c r="C842" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D842" s="21" t="s">
@@ -15765,7 +15765,7 @@
       <c r="B843" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C843" s="21" t="s">
+      <c r="C843" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D843" s="21" t="s">
@@ -15783,7 +15783,7 @@
       <c r="B844" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C844" s="21" t="s">
+      <c r="C844" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D844" s="21" t="s">
@@ -15799,7 +15799,7 @@
       <c r="B845" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C845" s="21" t="s">
+      <c r="C845" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D845" s="21" t="s">
@@ -15817,7 +15817,7 @@
       <c r="B846" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C846" s="21" t="s">
+      <c r="C846" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D846" s="21" t="s">
@@ -15835,7 +15835,7 @@
       <c r="B847" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C847" s="21" t="s">
+      <c r="C847" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D847" s="21" t="s">
@@ -15853,7 +15853,7 @@
       <c r="B848" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C848" s="20" t="s">
+      <c r="C848" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D848" s="20" t="s">
@@ -15871,7 +15871,7 @@
       <c r="B849" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C849" s="20" t="s">
+      <c r="C849" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D849" s="20" t="s">
@@ -15889,7 +15889,7 @@
       <c r="B850" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C850" s="21" t="s">
+      <c r="C850" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D850" s="21" t="s">
@@ -15907,7 +15907,7 @@
       <c r="B851" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C851" s="21" t="s">
+      <c r="C851" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D851" s="21" t="s">
@@ -15925,7 +15925,7 @@
       <c r="B852" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C852" s="21" t="s">
+      <c r="C852" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D852" s="21" t="s">
@@ -15943,7 +15943,7 @@
       <c r="B853" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C853" s="21" t="s">
+      <c r="C853" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D853" s="21" t="s">
@@ -15961,7 +15961,7 @@
       <c r="B854" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C854" s="21" t="s">
+      <c r="C854" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D854" s="21" t="s">
@@ -15979,7 +15979,7 @@
       <c r="B855" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C855" s="21" t="s">
+      <c r="C855" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D855" s="21" t="s">
@@ -15997,7 +15997,7 @@
       <c r="B856" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C856" s="21" t="s">
+      <c r="C856" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D856" s="21" t="s">
@@ -16015,7 +16015,7 @@
       <c r="B857" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C857" s="21" t="s">
+      <c r="C857" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D857" s="21" t="s">
@@ -16033,7 +16033,7 @@
       <c r="B858" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C858" s="21" t="s">
+      <c r="C858" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D858" s="21" t="s">
@@ -16051,7 +16051,7 @@
       <c r="B859" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C859" s="20" t="s">
+      <c r="C859" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D859" s="20" t="s">
@@ -16069,7 +16069,7 @@
       <c r="B860" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C860" s="20" t="s">
+      <c r="C860" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D860" s="20" t="s">
@@ -16087,7 +16087,7 @@
       <c r="B861" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C861" s="21" t="s">
+      <c r="C861" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D861" s="21" t="s">
@@ -16105,7 +16105,7 @@
       <c r="B862" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C862" s="21" t="s">
+      <c r="C862" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D862" s="21" t="s">
@@ -16123,7 +16123,7 @@
       <c r="B863" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C863" s="21" t="s">
+      <c r="C863" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D863" s="21" t="s">
@@ -16141,7 +16141,7 @@
       <c r="B864" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C864" s="21" t="s">
+      <c r="C864" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D864" s="21" t="s">
@@ -16159,7 +16159,7 @@
       <c r="B865" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C865" s="21" t="s">
+      <c r="C865" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D865" s="21" t="s">
@@ -16177,7 +16177,7 @@
       <c r="B866" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C866" s="21" t="s">
+      <c r="C866" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D866" s="21" t="s">
@@ -16195,7 +16195,7 @@
       <c r="B867" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C867" s="21" t="s">
+      <c r="C867" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D867" s="21" t="s">
@@ -16213,7 +16213,7 @@
       <c r="B868" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C868" s="21" t="s">
+      <c r="C868" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D868" s="21" t="s">
@@ -16231,7 +16231,7 @@
       <c r="B869" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C869" s="21" t="s">
+      <c r="C869" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D869" s="21" t="s">
@@ -16249,7 +16249,7 @@
       <c r="B870" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C870" s="20" t="s">
+      <c r="C870" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D870" s="20" t="s">
@@ -16267,7 +16267,7 @@
       <c r="B871" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C871" s="20" t="s">
+      <c r="C871" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D871" s="20" t="s">
@@ -16285,7 +16285,7 @@
       <c r="B872" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C872" s="21" t="s">
+      <c r="C872" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D872" s="21" t="s">
@@ -16303,7 +16303,7 @@
       <c r="B873" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C873" s="21" t="s">
+      <c r="C873" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D873" s="21" t="s">
@@ -16321,7 +16321,7 @@
       <c r="B874" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C874" s="21" t="s">
+      <c r="C874" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D874" s="21" t="s">
@@ -16339,7 +16339,7 @@
       <c r="B875" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C875" s="21" t="s">
+      <c r="C875" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D875" s="21" t="s">
@@ -16355,7 +16355,7 @@
       <c r="B876" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C876" s="21" t="s">
+      <c r="C876" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D876" s="21" t="s">
@@ -16373,7 +16373,7 @@
       <c r="B877" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C877" s="21" t="s">
+      <c r="C877" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D877" s="21" t="s">
@@ -16391,7 +16391,7 @@
       <c r="B878" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C878" s="21" t="s">
+      <c r="C878" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D878" s="21" t="s">
@@ -16409,7 +16409,7 @@
       <c r="B879" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C879" s="21" t="s">
+      <c r="C879" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D879" s="21" t="s">
@@ -16427,7 +16427,7 @@
       <c r="B880" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C880" s="21" t="s">
+      <c r="C880" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D880" s="21" t="s">
@@ -16445,7 +16445,7 @@
       <c r="B881" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C881" s="20" t="s">
+      <c r="C881" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D881" s="20" t="s">
@@ -16463,7 +16463,7 @@
       <c r="B882" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C882" s="20" t="s">
+      <c r="C882" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D882" s="20" t="s">
@@ -16481,7 +16481,7 @@
       <c r="B883" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C883" s="21" t="s">
+      <c r="C883" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D883" s="21" t="s">
@@ -16499,7 +16499,7 @@
       <c r="B884" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C884" s="21" t="s">
+      <c r="C884" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D884" s="21" t="s">
@@ -16517,7 +16517,7 @@
       <c r="B885" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C885" s="21" t="s">
+      <c r="C885" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D885" s="21" t="s">
@@ -16535,7 +16535,7 @@
       <c r="B886" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C886" s="21" t="s">
+      <c r="C886" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D886" s="21" t="s">
@@ -16553,7 +16553,7 @@
       <c r="B887" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C887" s="21" t="s">
+      <c r="C887" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D887" s="21" t="s">
@@ -16571,7 +16571,7 @@
       <c r="B888" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C888" s="21" t="s">
+      <c r="C888" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D888" s="21" t="s">
@@ -16589,7 +16589,7 @@
       <c r="B889" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C889" s="21" t="s">
+      <c r="C889" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D889" s="21" t="s">
@@ -16607,7 +16607,7 @@
       <c r="B890" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C890" s="21" t="s">
+      <c r="C890" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D890" s="21" t="s">
@@ -16625,7 +16625,7 @@
       <c r="B891" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C891" s="21" t="s">
+      <c r="C891" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D891" s="21" t="s">
@@ -16643,7 +16643,7 @@
       <c r="B892" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C892" s="20" t="s">
+      <c r="C892" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D892" s="20" t="s">
@@ -16661,7 +16661,7 @@
       <c r="B893" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C893" s="20" t="s">
+      <c r="C893" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D893" s="20" t="s">
@@ -16679,7 +16679,7 @@
       <c r="B894" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C894" s="21" t="s">
+      <c r="C894" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D894" s="21" t="s">
@@ -16697,7 +16697,7 @@
       <c r="B895" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C895" s="21" t="s">
+      <c r="C895" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D895" s="21" t="s">
@@ -16715,7 +16715,7 @@
       <c r="B896" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C896" s="21" t="s">
+      <c r="C896" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D896" s="21" t="s">
@@ -16733,7 +16733,7 @@
       <c r="B897" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C897" s="21" t="s">
+      <c r="C897" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D897" s="21" t="s">
@@ -16751,7 +16751,7 @@
       <c r="B898" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C898" s="21" t="s">
+      <c r="C898" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D898" s="21" t="s">
@@ -16769,7 +16769,7 @@
       <c r="B899" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C899" s="21" t="s">
+      <c r="C899" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D899" s="21" t="s">
@@ -16787,7 +16787,7 @@
       <c r="B900" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C900" s="21" t="s">
+      <c r="C900" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D900" s="21" t="s">
@@ -16805,7 +16805,7 @@
       <c r="B901" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C901" s="21" t="s">
+      <c r="C901" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D901" s="21" t="s">
@@ -16823,7 +16823,7 @@
       <c r="B902" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C902" s="21" t="s">
+      <c r="C902" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D902" s="21" t="s">
@@ -16841,7 +16841,7 @@
       <c r="B903" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C903" s="20" t="s">
+      <c r="C903" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D903" s="20" t="s">
@@ -16859,7 +16859,7 @@
       <c r="B904" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C904" s="20" t="s">
+      <c r="C904" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D904" s="20" t="s">
@@ -16877,7 +16877,7 @@
       <c r="B905" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C905" s="21" t="s">
+      <c r="C905" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D905" s="21" t="s">
@@ -16895,7 +16895,7 @@
       <c r="B906" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C906" s="21" t="s">
+      <c r="C906" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D906" s="21" t="s">
@@ -16911,7 +16911,7 @@
       <c r="B907" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C907" s="21" t="s">
+      <c r="C907" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D907" s="21" t="s">
@@ -16929,7 +16929,7 @@
       <c r="B908" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C908" s="21" t="s">
+      <c r="C908" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D908" s="21" t="s">
@@ -16947,7 +16947,7 @@
       <c r="B909" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C909" s="21" t="s">
+      <c r="C909" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D909" s="21" t="s">
@@ -16965,7 +16965,7 @@
       <c r="B910" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C910" s="21" t="s">
+      <c r="C910" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D910" s="21" t="s">
@@ -16983,7 +16983,7 @@
       <c r="B911" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C911" s="21" t="s">
+      <c r="C911" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D911" s="21" t="s">
@@ -17001,7 +17001,7 @@
       <c r="B912" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C912" s="21" t="s">
+      <c r="C912" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D912" s="21" t="s">
@@ -17019,7 +17019,7 @@
       <c r="B913" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C913" s="21" t="s">
+      <c r="C913" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D913" s="21" t="s">
@@ -17037,7 +17037,7 @@
       <c r="B914" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C914" s="20" t="s">
+      <c r="C914" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D914" s="20" t="s">
@@ -17055,7 +17055,7 @@
       <c r="B915" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C915" s="20" t="s">
+      <c r="C915" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D915" s="20" t="s">
@@ -17073,7 +17073,7 @@
       <c r="B916" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C916" s="21" t="s">
+      <c r="C916" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D916" s="21" t="s">
@@ -17091,7 +17091,7 @@
       <c r="B917" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C917" s="21" t="s">
+      <c r="C917" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D917" s="21" t="s">
@@ -17109,7 +17109,7 @@
       <c r="B918" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C918" s="21" t="s">
+      <c r="C918" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D918" s="21" t="s">
@@ -17127,7 +17127,7 @@
       <c r="B919" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C919" s="21" t="s">
+      <c r="C919" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D919" s="21" t="s">
@@ -17145,7 +17145,7 @@
       <c r="B920" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C920" s="21" t="s">
+      <c r="C920" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D920" s="21" t="s">
@@ -17163,7 +17163,7 @@
       <c r="B921" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C921" s="21" t="s">
+      <c r="C921" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D921" s="21" t="s">
@@ -17181,7 +17181,7 @@
       <c r="B922" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C922" s="21" t="s">
+      <c r="C922" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D922" s="21" t="s">
@@ -17199,7 +17199,7 @@
       <c r="B923" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C923" s="21" t="s">
+      <c r="C923" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D923" s="21" t="s">
@@ -17217,7 +17217,7 @@
       <c r="B924" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C924" s="21" t="s">
+      <c r="C924" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D924" s="21" t="s">
@@ -17235,7 +17235,7 @@
       <c r="B925" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C925" s="20" t="s">
+      <c r="C925" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D925" s="20" t="s">
@@ -17253,7 +17253,7 @@
       <c r="B926" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C926" s="20" t="s">
+      <c r="C926" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D926" s="20" t="s">
@@ -17271,7 +17271,7 @@
       <c r="B927" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C927" s="21" t="s">
+      <c r="C927" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D927" s="21" t="s">
@@ -17289,7 +17289,7 @@
       <c r="B928" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C928" s="21" t="s">
+      <c r="C928" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D928" s="21" t="s">
@@ -17307,7 +17307,7 @@
       <c r="B929" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C929" s="21" t="s">
+      <c r="C929" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D929" s="21" t="s">
@@ -17325,7 +17325,7 @@
       <c r="B930" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C930" s="21" t="s">
+      <c r="C930" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D930" s="21" t="s">
@@ -17343,7 +17343,7 @@
       <c r="B931" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C931" s="21" t="s">
+      <c r="C931" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D931" s="21" t="s">
@@ -17361,7 +17361,7 @@
       <c r="B932" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C932" s="21" t="s">
+      <c r="C932" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D932" s="21" t="s">
@@ -17379,7 +17379,7 @@
       <c r="B933" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C933" s="21" t="s">
+      <c r="C933" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D933" s="21" t="s">
@@ -17397,7 +17397,7 @@
       <c r="B934" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C934" s="21" t="s">
+      <c r="C934" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D934" s="21" t="s">
@@ -17415,7 +17415,7 @@
       <c r="B935" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C935" s="21" t="s">
+      <c r="C935" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D935" s="21" t="s">
@@ -17433,7 +17433,7 @@
       <c r="B936" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C936" s="20" t="s">
+      <c r="C936" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D936" s="20" t="s">
@@ -17451,7 +17451,7 @@
       <c r="B937" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C937" s="20" t="s">
+      <c r="C937" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D937" s="20" t="s">
@@ -17469,7 +17469,7 @@
       <c r="B938" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C938" s="21" t="s">
+      <c r="C938" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D938" s="21" t="s">
@@ -17487,7 +17487,7 @@
       <c r="B939" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C939" s="21" t="s">
+      <c r="C939" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D939" s="21" t="s">
@@ -17505,7 +17505,7 @@
       <c r="B940" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C940" s="21" t="s">
+      <c r="C940" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D940" s="21" t="s">
@@ -17523,7 +17523,7 @@
       <c r="B941" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C941" s="21" t="s">
+      <c r="C941" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D941" s="21" t="s">
@@ -17541,7 +17541,7 @@
       <c r="B942" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C942" s="21" t="s">
+      <c r="C942" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D942" s="21" t="s">
@@ -17559,7 +17559,7 @@
       <c r="B943" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C943" s="21" t="s">
+      <c r="C943" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D943" s="21" t="s">
@@ -17577,7 +17577,7 @@
       <c r="B944" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C944" s="21" t="s">
+      <c r="C944" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D944" s="21" t="s">
@@ -17595,7 +17595,7 @@
       <c r="B945" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C945" s="21" t="s">
+      <c r="C945" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D945" s="21" t="s">
@@ -17613,7 +17613,7 @@
       <c r="B946" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C946" s="21" t="s">
+      <c r="C946" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D946" s="21" t="s">
@@ -17631,7 +17631,7 @@
       <c r="B947" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C947" s="20" t="s">
+      <c r="C947" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D947" s="20" t="s">
@@ -17649,7 +17649,7 @@
       <c r="B948" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C948" s="20" t="s">
+      <c r="C948" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D948" s="20" t="s">
@@ -17667,7 +17667,7 @@
       <c r="B949" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C949" s="21" t="s">
+      <c r="C949" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D949" s="21" t="s">
@@ -17685,7 +17685,7 @@
       <c r="B950" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C950" s="21" t="s">
+      <c r="C950" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D950" s="21" t="s">
@@ -17703,7 +17703,7 @@
       <c r="B951" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C951" s="21" t="s">
+      <c r="C951" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D951" s="21" t="s">
@@ -17721,7 +17721,7 @@
       <c r="B952" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C952" s="21" t="s">
+      <c r="C952" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D952" s="21" t="s">
@@ -17739,7 +17739,7 @@
       <c r="B953" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C953" s="21" t="s">
+      <c r="C953" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D953" s="21" t="s">
@@ -17757,7 +17757,7 @@
       <c r="B954" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C954" s="21" t="s">
+      <c r="C954" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D954" s="21" t="s">
@@ -17775,7 +17775,7 @@
       <c r="B955" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C955" s="21" t="s">
+      <c r="C955" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D955" s="21" t="s">
@@ -17793,7 +17793,7 @@
       <c r="B956" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C956" s="21" t="s">
+      <c r="C956" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D956" s="21" t="s">
@@ -17811,7 +17811,7 @@
       <c r="B957" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C957" s="21" t="s">
+      <c r="C957" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D957" s="21" t="s">
@@ -17829,7 +17829,7 @@
       <c r="B958" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C958" s="20" t="s">
+      <c r="C958" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D958" s="20" t="s">
@@ -17847,7 +17847,7 @@
       <c r="B959" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C959" s="20" t="s">
+      <c r="C959" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D959" s="20" t="s">
@@ -17865,7 +17865,7 @@
       <c r="B960" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C960" s="21" t="s">
+      <c r="C960" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D960" s="21" t="s">
@@ -17883,7 +17883,7 @@
       <c r="B961" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C961" s="21" t="s">
+      <c r="C961" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D961" s="21" t="s">
@@ -17901,7 +17901,7 @@
       <c r="B962" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C962" s="21" t="s">
+      <c r="C962" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D962" s="21" t="s">
@@ -17919,7 +17919,7 @@
       <c r="B963" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C963" s="21" t="s">
+      <c r="C963" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D963" s="21" t="s">
@@ -17937,7 +17937,7 @@
       <c r="B964" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C964" s="21" t="s">
+      <c r="C964" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D964" s="21" t="s">
@@ -17955,7 +17955,7 @@
       <c r="B965" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C965" s="21" t="s">
+      <c r="C965" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D965" s="21" t="s">
@@ -17973,7 +17973,7 @@
       <c r="B966" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C966" s="21" t="s">
+      <c r="C966" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D966" s="21" t="s">
@@ -17989,7 +17989,7 @@
       <c r="B967" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C967" s="21" t="s">
+      <c r="C967" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D967" s="21" t="s">
@@ -18007,7 +18007,7 @@
       <c r="B968" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C968" s="21" t="s">
+      <c r="C968" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D968" s="21" t="s">
@@ -18025,7 +18025,7 @@
       <c r="B969" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C969" s="20" t="s">
+      <c r="C969" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D969" s="20" t="s">
@@ -18043,7 +18043,7 @@
       <c r="B970" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C970" s="20" t="s">
+      <c r="C970" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D970" s="20" t="s">
@@ -18061,7 +18061,7 @@
       <c r="B971" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C971" s="21" t="s">
+      <c r="C971" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D971" s="21" t="s">
@@ -18079,7 +18079,7 @@
       <c r="B972" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C972" s="21" t="s">
+      <c r="C972" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D972" s="21" t="s">
@@ -18097,7 +18097,7 @@
       <c r="B973" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C973" s="21" t="s">
+      <c r="C973" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D973" s="21" t="s">
@@ -18115,7 +18115,7 @@
       <c r="B974" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C974" s="21" t="s">
+      <c r="C974" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D974" s="21" t="s">
@@ -18133,7 +18133,7 @@
       <c r="B975" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C975" s="21" t="s">
+      <c r="C975" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D975" s="21" t="s">
@@ -18151,7 +18151,7 @@
       <c r="B976" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C976" s="21" t="s">
+      <c r="C976" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D976" s="21" t="s">
@@ -18169,7 +18169,7 @@
       <c r="B977" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C977" s="21" t="s">
+      <c r="C977" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D977" s="21" t="s">
@@ -18187,7 +18187,7 @@
       <c r="B978" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C978" s="21" t="s">
+      <c r="C978" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D978" s="21" t="s">
@@ -18205,7 +18205,7 @@
       <c r="B979" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C979" s="21" t="s">
+      <c r="C979" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D979" s="21" t="s">
@@ -18223,7 +18223,7 @@
       <c r="B980" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C980" s="20" t="s">
+      <c r="C980" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D980" s="20" t="s">
@@ -18241,7 +18241,7 @@
       <c r="B981" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C981" s="20" t="s">
+      <c r="C981" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D981" s="20" t="s">
@@ -18259,7 +18259,7 @@
       <c r="B982" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C982" s="21" t="s">
+      <c r="C982" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D982" s="21" t="s">
@@ -18277,7 +18277,7 @@
       <c r="B983" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C983" s="21" t="s">
+      <c r="C983" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D983" s="21" t="s">
@@ -18295,7 +18295,7 @@
       <c r="B984" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C984" s="21" t="s">
+      <c r="C984" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D984" s="21" t="s">
@@ -18313,7 +18313,7 @@
       <c r="B985" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C985" s="21" t="s">
+      <c r="C985" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D985" s="21" t="s">
@@ -18331,7 +18331,7 @@
       <c r="B986" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C986" s="21" t="s">
+      <c r="C986" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D986" s="21" t="s">
@@ -18349,7 +18349,7 @@
       <c r="B987" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C987" s="21" t="s">
+      <c r="C987" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D987" s="21" t="s">
@@ -18367,7 +18367,7 @@
       <c r="B988" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C988" s="21" t="s">
+      <c r="C988" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D988" s="21" t="s">
@@ -18385,7 +18385,7 @@
       <c r="B989" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C989" s="21" t="s">
+      <c r="C989" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D989" s="21" t="s">
@@ -18403,7 +18403,7 @@
       <c r="B990" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C990" s="21" t="s">
+      <c r="C990" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D990" s="21" t="s">
@@ -18421,7 +18421,7 @@
       <c r="B991" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C991" s="20" t="s">
+      <c r="C991" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D991" s="20" t="s">
@@ -18439,7 +18439,7 @@
       <c r="B992" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C992" s="20" t="s">
+      <c r="C992" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D992" s="20" t="s">

--- a/rtw_excel_report/report_purchase_order_sheet/purchase_order_sheet.xlsx
+++ b/rtw_excel_report/report_purchase_order_sheet/purchase_order_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_purchase_order_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9AC572-11F6-4CA4-A5B3-CE65BC7C6D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A756C77-2973-4ED5-91E9-FD123ACBA8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{525678E9-735B-4186-93A2-F2263A6AD281}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t>メモ</t>
   </si>
   <si>
-    <t>Config</t>
+    <t>Custom</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A14"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/rtw_excel_report/report_purchase_order_sheet/purchase_order_sheet.xlsx
+++ b/rtw_excel_report/report_purchase_order_sheet/purchase_order_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_purchase_order_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A756C77-2973-4ED5-91E9-FD123ACBA8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DF422C-39CF-4956-971B-8EDDC136EC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{525678E9-735B-4186-93A2-F2263A6AD281}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +183,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -210,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -327,6 +334,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,7 +765,7 @@
       <c r="G1" s="6"/>
       <c r="J1" s="27"/>
     </row>
-    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -765,6 +775,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="5"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
